--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:05:31+00:00</t>
+    <t>2023-02-01T07:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:10:01+00:00</t>
+    <t>2023-02-01T09:51:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:51:04+00:00</t>
+    <t>2023-02-01T09:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>hiv-organization</t>
+    <t>hiv-patient</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-organization</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,13 +42,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>HIVOrganization</t>
+    <t>HIVPatient</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>HIV Organization</t>
+    <t>Patient</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:51:40+00:00</t>
+    <t>2023-02-01T10:34:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HIV Organization for case report - this represents a health facility</t>
+    <t>A patient resource for an HIV Patient</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -111,13 +111,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -240,26 +237,30 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t xml:space="preserve">SubjectOfCare Client Resident
+</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>A grouping of people or organizations with a common purpose</t>
-  </si>
-  <si>
-    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
-  </si>
-  <si>
-    <t>Organization.id</t>
+    <t>Information about an individual or animal receiving health care services</t>
+  </si>
+  <si>
+    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>Patient.id</t>
   </si>
   <si>
     <t>1</t>
@@ -284,7 +285,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>Organization.meta</t>
+    <t>Patient.meta</t>
   </si>
   <si>
     <t xml:space="preserve">Meta
@@ -304,7 +305,7 @@
 </t>
   </si>
   <si>
-    <t>Organization.implicitRules</t>
+    <t>Patient.implicitRules</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -323,7 +324,7 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>Organization.language</t>
+    <t>Patient.language</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -351,7 +352,7 @@
     <t>Resource.language</t>
   </si>
   <si>
-    <t>Organization.text</t>
+    <t>Patient.text</t>
   </si>
   <si>
     <t>narrative
@@ -374,7 +375,7 @@
     <t>DomainResource.text</t>
   </si>
   <si>
-    <t>Organization.contained</t>
+    <t>Patient.contained</t>
   </si>
   <si>
     <t>inline resources
@@ -397,7 +398,7 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>Organization.extension</t>
+    <t>Patient.extension</t>
   </si>
   <si>
     <t>extensions
@@ -424,7 +425,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Organization.modifierExtension</t>
+    <t>Patient.modifierExtension</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -440,447 +441,584 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
-    <t>Organization.identifier</t>
+    <t>Patient.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-1
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Organization.active</t>
+    <t>openAtEnd</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID</t>
+  </si>
+  <si>
+    <t>NID</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/nid</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NID.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>Patient.active</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use.</t>
-  </si>
-  <si>
-    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
-This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+    <t>Whether this patient's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this patient record is in active use. 
+Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
+It is often used to filter patient lists to exclude inactive patients
+Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.</t>
+  </si>
+  <si>
+    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
-    <t>Organization.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Patient.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
 </t>
   </si>
   <si>
-    <t>Kind of organization</t>
-  </si>
-  <si>
-    <t>The kind(s) of organization that this is.</t>
-  </si>
-  <si>
-    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
-When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
-We expect that some jurisdictions will profile this optionality to be a single cardinality.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Used to categorize the organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
-  </si>
-  <si>
-    <t>Organization.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>A name associated with the patient</t>
+  </si>
+  <si>
+    <t>A name associated with the individual.</t>
+  </si>
+  <si>
+    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
 </t>
   </si>
   <si>
-    <t>Name used for the organization</t>
-  </si>
-  <si>
-    <t>A name associated with the organization.</t>
-  </si>
-  <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
-  </si>
-  <si>
-    <t>Need to use the name as the label of the organization.</t>
-  </si>
-  <si>
-    <t>Organization.alias</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the organization was known by can be very useful.</t>
-  </si>
-  <si>
-    <t>Organization.telecom</t>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>Patient.telecom</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
-  </si>
-  <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
-  </si>
-  <si>
-    <t>Human contact for the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-3
+    <t>A contact detail for the individual</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
+  </si>
+  <si>
+    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>Patient.gender</t>
+  </si>
+  <si>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
+  </si>
+  <si>
+    <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+  </si>
+  <si>
+    <t>Patient.birthDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>Organization.address</t>
+    <t>The date of birth for the individual</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual.</t>
+  </si>
+  <si>
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
+  </si>
+  <si>
+    <t>Age of the individual drives many clinical processes.</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x]</t>
+  </si>
+  <si>
+    <t>boolean
+dateTime</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not.</t>
+  </si>
+  <si>
+    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
+  </si>
+  <si>
+    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+  </si>
+  <si>
+    <t>Patient.address</t>
   </si>
   <si>
     <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
+    <t>An address for the individual</t>
+  </si>
+  <si>
+    <t>An address for the individual.</t>
+  </si>
+  <si>
+    <t>Patient may have multiple addresses with different uses or applicable periods.</t>
+  </si>
+  <si>
+    <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus</t>
+  </si>
+  <si>
+    <t>Marital (civil) status of a patient</t>
+  </si>
+  <si>
+    <t>This field contains a patient's most recent marital (civil) status.</t>
+  </si>
+  <si>
+    <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>The domestic partnership status of a person.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+  </si>
+  <si>
+    <t>Patient.multipleBirth[x]</t>
+  </si>
+  <si>
+    <t>boolean
+integer</t>
+  </si>
+  <si>
+    <t>Whether patient is part of a multiple birth</t>
+  </si>
+  <si>
+    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).</t>
+  </si>
+  <si>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).</t>
+  </si>
+  <si>
+    <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.</t>
+  </si>
+  <si>
+    <t>Patient.photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>Organization.address.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>Organization.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>Organization.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>Organization.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>Organization.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>Organization.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>Organization.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>Organization.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>Organization.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>Organization.address.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
+    <t>Image of the patient</t>
+  </si>
+  <si>
+    <t>Image of the patient.</t>
+  </si>
+  <si>
+    <t>Guidelines:
+* Use id photos, not clinical photos.
+* Limit dimensions to thumbnail.
+* Keep byte count low to ease resource updates.</t>
+  </si>
+  <si>
+    <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
+  </si>
+  <si>
+    <t>Patient.contact</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
+    <t>A contact party (e.g. guardian, partner, friend) for the patient</t>
+  </si>
+  <si>
+    <t>A contact party (e.g. guardian, partner, friend) for the patient.</t>
+  </si>
+  <si>
+    <t>Contact covers all kinds of contact parties: family members, business contacts, guardians, caregivers. Not applicable to register pedigree and family ties beyond use of having contact.</t>
+  </si>
+  <si>
+    <t>Need to track people you can contact about the patient.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.contact.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -897,81 +1035,237 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
+    <t>Patient.contact.relationship</t>
+  </si>
+  <si>
+    <t>The kind of relationship</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between the patient and the contact person.</t>
+  </si>
+  <si>
+    <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+  </si>
+  <si>
+    <t>Patient.contact.name</t>
+  </si>
+  <si>
+    <t>A name associated with the contact person</t>
+  </si>
+  <si>
+    <t>A name associated with the contact person.</t>
+  </si>
+  <si>
+    <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the person</t>
+  </si>
+  <si>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Contact may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.</t>
+  </si>
+  <si>
+    <t>Patient.contact.address</t>
+  </si>
+  <si>
+    <t>Address for the contact person</t>
+  </si>
+  <si>
+    <t>Address for the contact person.</t>
+  </si>
+  <si>
+    <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
+  </si>
+  <si>
+    <t>Patient.contact.gender</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>Patient.contact.organization</t>
+  </si>
+  <si>
+    <t>Organization that is associated with the contact</t>
+  </si>
+  <si>
+    <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
+  </si>
+  <si>
+    <t>For guardians or business related contacts, the organization is relevant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pat-1
 </t>
   </si>
   <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>Organization.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t>Patient.contact.period</t>
+  </si>
+  <si>
+    <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
+  </si>
+  <si>
+    <t>The period during which this contact person or organization is valid to be contacted relating to this patient.</t>
+  </si>
+  <si>
+    <t>Patient.communication</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the patient about his or her health</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the patient about his or her health.</t>
+  </si>
+  <si>
+    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.</t>
+  </si>
+  <si>
+    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
+  </si>
+  <si>
+    <t>Patient.communication.id</t>
+  </si>
+  <si>
+    <t>Patient.communication.extension</t>
+  </si>
+  <si>
+    <t>Patient.communication.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.communication.language</t>
+  </si>
+  <si>
+    <t>The language which can be used to communicate with the patient about his or her health</t>
+  </si>
+  <si>
+    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
+  </si>
+  <si>
+    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
+  </si>
+  <si>
+    <t>Patient.communication.preferred</t>
+  </si>
+  <si>
+    <t>Language preference indicator</t>
+  </si>
+  <si>
+    <t>Indicates whether or not the patient prefers this language (over other languages he masters up a certain level).</t>
+  </si>
+  <si>
+    <t>This language is specifically identified for communicating healthcare information.</t>
+  </si>
+  <si>
+    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method.</t>
+  </si>
+  <si>
+    <t>Patient.generalPractitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careProvider
 </t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization.</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Patient's nominated primary care provider</t>
+  </si>
+  <si>
+    <t>Patient's nominated care provider.</t>
+  </si>
+  <si>
+    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
+Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
+Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.</t>
+  </si>
+  <si>
+    <t>Patient.managingOrganization</t>
+  </si>
+  <si>
+    <t>Organization that is the custodian of the patient record</t>
+  </si>
+  <si>
+    <t>Organization that is the custodian of the patient record.</t>
+  </si>
+  <si>
+    <t>There is only one managing organization for a specific patient record. Other organizations will have their own Patient record, and may use the Link property to join the records together (or a Person resource which can include confidence ratings for the association).</t>
+  </si>
+  <si>
+    <t>Need to know who recognizes this patient record, manages and updates it.</t>
+  </si>
+  <si>
+    <t>Patient.link</t>
+  </si>
+  <si>
+    <t>Link to another patient resource that concerns the same actual person</t>
+  </si>
+  <si>
+    <t>Link to another patient resource that concerns the same actual patient.</t>
+  </si>
+  <si>
+    <t>There is no assumption that linked patient records have mutual links.</t>
+  </si>
+  <si>
+    <t>There are multiple use cases:   
+* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
+* Distribution of patient information across multiple servers.</t>
+  </si>
+  <si>
+    <t>Patient.link.id</t>
+  </si>
+  <si>
+    <t>Patient.link.extension</t>
+  </si>
+  <si>
+    <t>Patient.link.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.link.other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>The other patient or related person resource that the link refers to</t>
+  </si>
+  <si>
+    <t>The other patient resource that the link refers to.</t>
+  </si>
+  <si>
+    <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
+  </si>
+  <si>
+    <t>Patient.link.type</t>
+  </si>
+  <si>
+    <t>replaced-by | replaces | refer | seealso</t>
+  </si>
+  <si>
+    <t>The type of link between this patient resource and another patient resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
 </sst>
 </file>
@@ -1250,31 +1544,31 @@
         <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1293,9 +1587,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.89453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="37.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.47265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1313,13 +1607,13 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="43.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1332,115 +1626,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>2</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -1448,30 +1742,30 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>78</v>
@@ -1485,65 +1779,65 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI2" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1558,20 +1852,20 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>83</v>
@@ -1590,65 +1884,65 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1663,20 +1957,20 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>83</v>
@@ -1693,62 +1987,62 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>94</v>
@@ -1766,17 +2060,17 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>83</v>
@@ -1798,62 +2092,62 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>94</v>
@@ -1871,23 +2165,23 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>102</v>
@@ -1903,26 +2197,26 @@
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
         <v>106</v>
@@ -1934,31 +2228,31 @@
         <v>108</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>94</v>
@@ -1980,19 +2274,19 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>112</v>
@@ -2008,62 +2302,62 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>94</v>
@@ -2085,19 +2379,19 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>119</v>
@@ -2113,65 +2407,65 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2190,19 +2484,19 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>126</v>
@@ -2218,62 +2512,62 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>131</v>
@@ -2295,19 +2589,19 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>126</v>
@@ -2325,62 +2619,62 @@
         <v>135</v>
       </c>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>131</v>
@@ -2398,20 +2692,20 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>83</v>
@@ -2430,62 +2724,60 @@
         <v>141</v>
       </c>
       <c r="Q11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>94</v>
@@ -2496,105 +2788,103 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="R12" s="2"/>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>94</v>
@@ -2605,106 +2895,102 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2712,106 +2998,104 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI14" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2819,103 +3103,103 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>94</v>
@@ -2926,30 +3210,30 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>170</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>171</v>
@@ -2967,65 +3251,65 @@
         <v>175</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -3033,14 +3317,14 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
@@ -3050,89 +3334,89 @@
         <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -3140,102 +3424,104 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -3243,104 +3529,102 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -3348,103 +3632,101 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>94</v>
@@ -3455,101 +3737,105 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>94</v>
@@ -3560,103 +3846,103 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AH22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>94</v>
@@ -3667,102 +3953,102 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -3770,102 +4056,104 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="AH24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
@@ -3873,101 +4161,103 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P25" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="Q25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>94</v>
@@ -3978,99 +4268,103 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Q26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>94</v>
@@ -4081,99 +4375,101 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>94</v>
@@ -4184,101 +4480,101 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>94</v>
@@ -4289,101 +4585,99 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>94</v>
@@ -4394,101 +4688,99 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AH30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>94</v>
@@ -4499,103 +4791,101 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="Q31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>94</v>
@@ -4606,102 +4896,106 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="Q32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -4709,104 +5003,106 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>127</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P33" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="Q33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -4814,106 +5110,106 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>126</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -4921,101 +5217,103 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>94</v>
@@ -5026,101 +5324,103 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI36" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>94</v>
@@ -5131,101 +5431,101 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>171</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>94</v>
@@ -5236,101 +5536,103 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>94</v>
@@ -5341,103 +5643,2740 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AH39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Q44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Q45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Q47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T10:34:20+00:00</t>
+    <t>2023-02-01T10:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T10:47:44+00:00</t>
+    <t>2023-02-01T12:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T12:28:59+00:00</t>
+    <t>2023-02-01T12:29:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T12:29:22+00:00</t>
+    <t>2023-02-01T12:37:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T12:41:24+00:00</t>
+    <t>2023-02-01T14:55:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:19:22+00:00</t>
+    <t>2023-02-01T15:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="600">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:21:20+00:00</t>
+    <t>2023-02-02T07:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1268,495 +1268,637 @@
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
-    <t>hiv-organization</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-organization</t>
-  </si>
-  <si>
-    <t>HIVOrganization</t>
-  </si>
-  <si>
-    <t>HIV Organization</t>
-  </si>
-  <si>
-    <t>HIV Organization for case report - this represents a health facility</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
-  </si>
-  <si>
-    <t>A grouping of people or organizations with a common purpose</t>
-  </si>
-  <si>
-    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
-  </si>
-  <si>
-    <t>Organization.id</t>
-  </si>
-  <si>
-    <t>Organization.meta</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.identifier</t>
-  </si>
-  <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-1
+    <t>transferout</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/transferout</t>
+  </si>
+  <si>
+    <t>TransferOut</t>
+  </si>
+  <si>
+    <t>Transfer-Out Request</t>
+  </si>
+  <si>
+    <t>Service Request for Transfer-Out</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
+  </si>
+  <si>
+    <t>diagnostic request
+referralreferral requesttransfer of care request</t>
+  </si>
+  <si>
+    <t>A request for a service to be performed</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
 </t>
   </si>
   <si>
-    <t>Organization.active</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use.</t>
-  </si>
-  <si>
-    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
-This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
-  </si>
-  <si>
-    <t>Organization.type</t>
-  </si>
-  <si>
-    <t>Kind of organization</t>
-  </si>
-  <si>
-    <t>The kind(s) of organization that this is.</t>
-  </si>
-  <si>
-    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
-When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
-We expect that some jurisdictions will profile this optionality to be a single cardinality.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Used to categorize the organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
-  </si>
-  <si>
-    <t>Organization.name</t>
-  </si>
-  <si>
-    <t>Name used for the organization</t>
-  </si>
-  <si>
-    <t>A name associated with the organization.</t>
-  </si>
-  <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
-  </si>
-  <si>
-    <t>Need to use the name as the label of the organization.</t>
-  </si>
-  <si>
-    <t>Organization.alias</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the organization was known by can be very useful.</t>
-  </si>
-  <si>
-    <t>Organization.telecom</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
-  </si>
-  <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
-  </si>
-  <si>
-    <t>Human contact for the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-3
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>Organization.address</t>
-  </si>
-  <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>Organization.address.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>Organization.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>Organization.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>Organization.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>Organization.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>Organization.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>Organization.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>Organization.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
+    <t>Individual or Entity the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
 </t>
   </si>
   <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>Organization.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>Organization.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>Organization.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization.</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+    <t>Encounter in which the request was created</t>
+  </si>
+  <si>
+    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request recipient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Requested performer</t>
+  </si>
+  <si>
+    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+  </si>
+  <si>
+    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationCode</t>
+  </si>
+  <si>
+    <t>Requested location</t>
+  </si>
+  <si>
+    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>A location type where services are delivered.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for procedure or service</t>
+  </si>
+  <si>
+    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for service or service</t>
+  </si>
+  <si>
+    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+</t>
+  </si>
+  <si>
+    <t>Associated insurance coverage</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t>Ask at order entry question
+AOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Additional clinical information</t>
+  </si>
+  <si>
+    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
+  </si>
+  <si>
+    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Procedure Samples</t>
+  </si>
+  <si>
+    <t>One or more specimens that the laboratory procedure will use.</t>
+  </si>
+  <si>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location
+</t>
+  </si>
+  <si>
+    <t>Location on Body</t>
+  </si>
+  <si>
+    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer-oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.relevantHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Provenance)
+</t>
+  </si>
+  <si>
+    <t>Request provenance</t>
+  </si>
+  <si>
+    <t>Key events in the history of the request.</t>
+  </si>
+  <si>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important.+This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude+All Provenances should have some historical version of this Request as their subject.</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK102"/>
+  <dimension ref="A1:AK107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2240,11 +2382,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.89453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.45703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="44.00390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -2260,19 +2402,19 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -9045,7 +9187,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9067,10 +9209,10 @@
         <v>78</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -9141,10 +9283,10 @@
         <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9246,10 +9388,10 @@
         <v>401</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9349,10 +9491,10 @@
         <v>401</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9454,10 +9596,10 @@
         <v>401</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9559,10 +9701,10 @@
         <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9664,10 +9806,10 @@
         <v>401</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9769,10 +9911,10 @@
         <v>401</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9874,10 +10016,10 @@
         <v>401</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9981,10 +10123,10 @@
         <v>401</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9992,7 +10134,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -10010,15 +10152,15 @@
         <v>138</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
         <v>421</v>
       </c>
+      <c r="O74" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10066,7 +10208,7 @@
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>75</v>
@@ -10075,7 +10217,7 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>94</v>
@@ -10100,38 +10242,34 @@
         <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="P75" t="s" s="2">
         <v>427</v>
       </c>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R75" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="R75" s="2"/>
       <c r="S75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10181,7 +10319,7 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
@@ -10221,7 +10359,7 @@
         <v>83</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>429</v>
@@ -10232,9 +10370,7 @@
       <c r="O76" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="P76" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10258,13 +10394,13 @@
         <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>77</v>
@@ -10302,21 +10438,21 @@
         <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10328,20 +10464,16 @@
         <v>83</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>148</v>
+        <v>434</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10389,16 +10521,16 @@
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>94</v>
@@ -10409,14 +10541,14 @@
         <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
@@ -10432,23 +10564,19 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>148</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10496,7 +10624,7 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
@@ -10516,21 +10644,21 @@
         <v>401</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>77</v>
@@ -10539,22 +10667,22 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="P79" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>77</v>
@@ -10603,19 +10731,19 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>452</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
@@ -10623,10 +10751,10 @@
         <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10643,26 +10771,24 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10686,13 +10812,13 @@
         <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AB80" t="s" s="2">
         <v>77</v>
@@ -10710,19 +10836,19 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>459</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
@@ -10730,10 +10856,10 @@
         <v>401</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10741,7 +10867,7 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -10750,21 +10876,23 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>149</v>
+        <v>455</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>77</v>
@@ -10789,13 +10917,13 @@
         <v>77</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>77</v>
@@ -10813,10 +10941,10 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>151</v>
+        <v>454</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -10825,7 +10953,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -10833,14 +10961,14 @@
         <v>401</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
@@ -10856,21 +10984,23 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>127</v>
+        <v>461</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>154</v>
+        <v>462</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P82" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="Q82" t="s" s="2">
         <v>77</v>
       </c>
@@ -10894,31 +11024,31 @@
         <v>77</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="AB82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>158</v>
+        <v>460</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
@@ -10930,7 +11060,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
@@ -10938,10 +11068,10 @@
         <v>401</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10958,7 +11088,7 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>83</v>
@@ -10967,21 +11097,19 @@
         <v>102</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
       </c>
@@ -10989,7 +11117,7 @@
         <v>77</v>
       </c>
       <c r="U83" t="s" s="2">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="V83" t="s" s="2">
         <v>77</v>
@@ -11004,28 +11132,28 @@
         <v>165</v>
       </c>
       <c r="Z83" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11045,10 +11173,10 @@
         <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11065,72 +11193,76 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R84" s="2"/>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -11150,14 +11282,14 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
@@ -11176,20 +11308,18 @@
         <v>83</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11201,7 +11331,7 @@
         <v>77</v>
       </c>
       <c r="U85" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="V85" t="s" s="2">
         <v>77</v>
@@ -11213,13 +11343,13 @@
         <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>77</v>
@@ -11237,7 +11367,7 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
@@ -11257,14 +11387,14 @@
         <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11283,15 +11413,17 @@
         <v>83</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
         <v>77</v>
@@ -11304,7 +11436,7 @@
         <v>77</v>
       </c>
       <c r="U86" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="V86" t="s" s="2">
         <v>77</v>
@@ -11316,13 +11448,13 @@
         <v>77</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>77</v>
+        <v>492</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>77</v>
@@ -11340,7 +11472,7 @@
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
@@ -11349,7 +11481,7 @@
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>94</v>
@@ -11360,18 +11492,18 @@
         <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -11386,16 +11518,18 @@
         <v>83</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>148</v>
+        <v>496</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11407,7 +11541,7 @@
         <v>77</v>
       </c>
       <c r="U87" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="V87" t="s" s="2">
         <v>77</v>
@@ -11463,14 +11597,14 @@
         <v>401</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
@@ -11489,17 +11623,15 @@
         <v>83</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>148</v>
+        <v>501</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>77</v>
@@ -11512,7 +11644,7 @@
         <v>77</v>
       </c>
       <c r="U88" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="V88" t="s" s="2">
         <v>77</v>
@@ -11548,10 +11680,10 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
@@ -11568,18 +11700,18 @@
         <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -11594,13 +11726,13 @@
         <v>83</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>506</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11651,7 +11783,7 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
@@ -11671,14 +11803,14 @@
         <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11697,13 +11829,13 @@
         <v>83</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11718,7 +11850,7 @@
         <v>77</v>
       </c>
       <c r="U90" t="s" s="2">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="V90" t="s" s="2">
         <v>77</v>
@@ -11742,19 +11874,17 @@
         <v>77</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="AD90" s="2"/>
       <c r="AE90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11774,18 +11904,20 @@
         <v>401</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="D91" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -11800,17 +11932,15 @@
         <v>83</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>148</v>
+        <v>517</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>77</v>
@@ -11859,7 +11989,7 @@
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
@@ -11879,10 +12009,10 @@
         <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11905,7 +12035,7 @@
         <v>83</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>198</v>
+        <v>519</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>520</v>
@@ -11914,9 +12044,7 @@
         <v>521</v>
       </c>
       <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>522</v>
-      </c>
+      <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>77</v>
       </c>
@@ -11928,26 +12056,26 @@
         <v>77</v>
       </c>
       <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AA92" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AB92" t="s" s="2">
         <v>77</v>
       </c>
@@ -11964,7 +12092,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -11984,14 +12112,14 @@
         <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -12010,7 +12138,7 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>204</v>
+        <v>517</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>526</v>
@@ -12019,9 +12147,7 @@
         <v>527</v>
       </c>
       <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>528</v>
-      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12069,7 +12195,7 @@
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -12089,21 +12215,21 @@
         <v>401</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>77</v>
@@ -12112,23 +12238,21 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>313</v>
+        <v>530</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="P94" t="s" s="2">
         <v>533</v>
       </c>
+      <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12176,13 +12300,13 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
@@ -12203,7 +12327,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>77</v>
+        <v>535</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12219,18 +12343,20 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>536</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>77</v>
@@ -12255,13 +12381,13 @@
         <v>77</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>77</v>
@@ -12279,7 +12405,7 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>151</v>
+        <v>534</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
@@ -12291,7 +12417,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -12299,14 +12425,14 @@
         <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>125</v>
+        <v>542</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12322,19 +12448,19 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>126</v>
+        <v>543</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>127</v>
+        <v>544</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>154</v>
+        <v>545</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>129</v>
+        <v>546</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12384,7 +12510,7 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>158</v>
+        <v>541</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
@@ -12396,7 +12522,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
@@ -12404,14 +12530,14 @@
         <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12424,26 +12550,22 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>323</v>
+        <v>548</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12467,13 +12589,13 @@
         <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>77</v>
+        <v>550</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>77</v>
@@ -12491,7 +12613,7 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>325</v>
+        <v>547</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
@@ -12503,7 +12625,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
@@ -12511,10 +12633,10 @@
         <v>401</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12525,7 +12647,7 @@
         <v>75</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>77</v>
@@ -12534,21 +12656,19 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>171</v>
+        <v>553</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>77</v>
       </c>
@@ -12572,13 +12692,13 @@
         <v>77</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>77</v>
@@ -12596,13 +12716,13 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
@@ -12616,10 +12736,10 @@
         <v>401</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12630,7 +12750,7 @@
         <v>75</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>77</v>
@@ -12639,21 +12759,21 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -12677,13 +12797,13 @@
         <v>77</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>77</v>
+        <v>559</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>77</v>
+        <v>560</v>
       </c>
       <c r="AB99" t="s" s="2">
         <v>77</v>
@@ -12701,13 +12821,13 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>77</v>
@@ -12721,10 +12841,10 @@
         <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12744,21 +12864,21 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>264</v>
+        <v>562</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>77</v>
       </c>
@@ -12806,7 +12926,7 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
@@ -12826,10 +12946,10 @@
         <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12840,7 +12960,7 @@
         <v>75</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>77</v>
@@ -12852,18 +12972,16 @@
         <v>77</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>289</v>
+        <v>567</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
         <v>77</v>
       </c>
@@ -12911,13 +13029,13 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>77</v>
@@ -12931,14 +13049,14 @@
         <v>401</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>77</v>
+        <v>571</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" t="s" s="2">
@@ -12957,18 +13075,18 @@
         <v>77</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
         <v>77</v>
       </c>
@@ -13016,7 +13134,7 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
@@ -13028,6 +13146,529 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T07:02:51+00:00</t>
+    <t>2023-02-02T08:17:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1268,637 +1268,559 @@
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
-    <t>transferout</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/transferout</t>
-  </si>
-  <si>
-    <t>TransferOut</t>
-  </si>
-  <si>
-    <t>Transfer-Out Request</t>
-  </si>
-  <si>
-    <t>Service Request for Transfer-Out</t>
-  </si>
-  <si>
-    <t>ServiceRequest</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
-  </si>
-  <si>
-    <t>diagnostic request
-referralreferral requesttransfer of care request</t>
-  </si>
-  <si>
-    <t>A request for a service to be performed</t>
-  </si>
-  <si>
-    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+    <t>hiv-organization</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-organization</t>
+  </si>
+  <si>
+    <t>HIVOrganization</t>
+  </si>
+  <si>
+    <t>HIV Organization</t>
+  </si>
+  <si>
+    <t>HIV Organization for case report - this represents a health facility</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+  </si>
+  <si>
+    <t>A grouping of people or organizations with a common purpose</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>Organization.id</t>
+  </si>
+  <si>
+    <t>Organization.meta</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.identifier</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t>Organization.identifier:HTS</t>
+  </si>
+  <si>
+    <t>HTS</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization.active</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use.</t>
+  </si>
+  <si>
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>Organization.type</t>
+  </si>
+  <si>
+    <t>Kind of organization</t>
+  </si>
+  <si>
+    <t>The kind(s) of organization that this is.</t>
+  </si>
+  <si>
+    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
+When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
+We expect that some jurisdictions will profile this optionality to be a single cardinality.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Used to categorize the organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+  </si>
+  <si>
+    <t>Organization.name</t>
+  </si>
+  <si>
+    <t>Name used for the organization</t>
+  </si>
+  <si>
+    <t>A name associated with the organization.</t>
+  </si>
+  <si>
+    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>Need to use the name as the label of the organization.</t>
+  </si>
+  <si>
+    <t>Organization.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the organization was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Organization.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+  </si>
+  <si>
+    <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-3
 </t>
   </si>
   <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-2
 </t>
   </si>
   <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
-  </si>
-  <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t>Classification of service</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
-  </si>
-  <si>
-    <t>ServiceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t>True if service/procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>If missing, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>Organization.address.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>Organization.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>Organization.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>Organization.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>Organization.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
 </t>
   </si>
   <si>
-    <t>What is being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
-  </si>
-  <si>
-    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
-  </si>
-  <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detailed instructions
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>Organization.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
 </t>
   </si>
   <si>
-    <t>Additional order information</t>
-  </si>
-  <si>
-    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
-  </si>
-  <si>
-    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>Codified order entry details which are based on order context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prr-1
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>Organization.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>Organization.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
 </t>
   </si>
   <si>
-    <t>ServiceRequest.quantity[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-RatioRange</t>
-  </si>
-  <si>
-    <t>Service amount</t>
-  </si>
-  <si>
-    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
-  </si>
-  <si>
-    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>Organization.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>Organization.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>Organization.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
-    <t>Individual or Entity the service is ordered for</t>
-  </si>
-  <si>
-    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
-  </si>
-  <si>
-    <t>ServiceRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter in which the request was created</t>
-  </si>
-  <si>
-    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schedule
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>When service should occur</t>
-  </si>
-  <si>
-    <t>The date/time at which the requested service should occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Preconditions for service</t>
-  </si>
-  <si>
-    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>ServiceRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedOn
-</t>
-  </si>
-  <si>
-    <t>Date request signed</t>
-  </si>
-  <si>
-    <t>When the request transitioned to being actionable.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requester</t>
-  </si>
-  <si>
-    <t>author
-orderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
-</t>
-  </si>
-  <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialty
-</t>
-  </si>
-  <si>
-    <t>Performer role</t>
-  </si>
-  <si>
-    <t>Desired type of performer for doing the requested service.</t>
-  </si>
-  <si>
-    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
-  </si>
-  <si>
-    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">request recipient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Requested performer</t>
-  </si>
-  <si>
-    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
-  </si>
-  <si>
-    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
-  </si>
-  <si>
-    <t>ServiceRequest.locationCode</t>
-  </si>
-  <si>
-    <t>Requested location</t>
-  </si>
-  <si>
-    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
-  </si>
-  <si>
-    <t>A location type where services are delivered.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>ServiceRequest.locationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for procedure or service</t>
-  </si>
-  <si>
-    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
-  </si>
-  <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for service or service</t>
-  </si>
-  <si>
-    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
-  </si>
-  <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>ServiceRequest.insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
-</t>
-  </si>
-  <si>
-    <t>Associated insurance coverage</t>
-  </si>
-  <si>
-    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.supportingInfo</t>
-  </si>
-  <si>
-    <t>Ask at order entry question
-AOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Additional clinical information</t>
-  </si>
-  <si>
-    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
-  </si>
-  <si>
-    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Procedure Samples</t>
-  </si>
-  <si>
-    <t>One or more specimens that the laboratory procedure will use.</t>
-  </si>
-  <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location
-</t>
-  </si>
-  <si>
-    <t>Location on Body</t>
-  </si>
-  <si>
-    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
-  </si>
-  <si>
-    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>ServiceRequest.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.patientInstruction</t>
-  </si>
-  <si>
-    <t>Patient or consumer-oriented instructions</t>
-  </si>
-  <si>
-    <t>Instructions in terms that are understood by the patient or consumer.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.relevantHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Provenance)
-</t>
-  </si>
-  <si>
-    <t>Request provenance</t>
-  </si>
-  <si>
-    <t>Key events in the history of the request.</t>
-  </si>
-  <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important.-This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude-All Provenances should have some historical version of this Request as their subject.</t>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK107"/>
+  <dimension ref="A1:AK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2382,11 +2304,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="44.00390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -2402,19 +2324,19 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -9187,7 +9109,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9209,10 +9131,10 @@
         <v>78</v>
       </c>
       <c r="M65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -9283,10 +9205,10 @@
         <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9388,10 +9310,10 @@
         <v>401</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9491,10 +9413,10 @@
         <v>401</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9596,10 +9518,10 @@
         <v>401</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9701,10 +9623,10 @@
         <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9806,10 +9728,10 @@
         <v>401</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9911,10 +9833,10 @@
         <v>401</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10016,10 +9938,10 @@
         <v>401</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10123,10 +10045,10 @@
         <v>401</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10134,7 +10056,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -10152,15 +10074,15 @@
         <v>138</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10196,19 +10118,19 @@
         <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>75</v>
@@ -10217,7 +10139,7 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>94</v>
@@ -10228,21 +10150,23 @@
         <v>401</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>77</v>
@@ -10254,18 +10178,18 @@
         <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="P75" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10313,7 +10237,7 @@
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
@@ -10322,7 +10246,7 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>94</v>
@@ -10333,7 +10257,7 @@
         <v>401</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>428</v>
@@ -10347,7 +10271,7 @@
         <v>75</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>77</v>
@@ -10356,20 +10280,18 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>429</v>
+        <v>149</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>77</v>
@@ -10418,19 +10340,19 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -10438,14 +10360,14 @@
         <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>433</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
@@ -10461,18 +10383,20 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>434</v>
+        <v>126</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>435</v>
+        <v>127</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>77</v>
@@ -10509,19 +10433,19 @@
         <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>432</v>
+        <v>158</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
@@ -10533,7 +10457,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
@@ -10541,42 +10465,46 @@
         <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>439</v>
+        <v>102</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>440</v>
+        <v>161</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="Q78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10600,13 +10528,13 @@
         <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>77</v>
@@ -10624,13 +10552,13 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>437</v>
+        <v>168</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
@@ -10644,14 +10572,14 @@
         <v>401</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" t="s" s="2">
@@ -10670,19 +10598,19 @@
         <v>83</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>444</v>
+        <v>172</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>446</v>
+        <v>174</v>
       </c>
       <c r="P79" t="s" s="2">
-        <v>447</v>
+        <v>175</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>77</v>
@@ -10707,13 +10635,13 @@
         <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>77</v>
@@ -10731,7 +10659,7 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>442</v>
+        <v>179</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
@@ -10751,10 +10679,10 @@
         <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10771,36 +10699,38 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>449</v>
+        <v>182</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="P80" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Q80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="U80" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="V80" t="s" s="2">
         <v>77</v>
@@ -10812,13 +10742,13 @@
         <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
         <v>77</v>
@@ -10836,10 +10766,10 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>448</v>
+        <v>188</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
@@ -10856,10 +10786,10 @@
         <v>401</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10876,22 +10806,22 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>456</v>
+        <v>192</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>457</v>
+        <v>193</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -10905,7 +10835,7 @@
         <v>77</v>
       </c>
       <c r="U81" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="V81" t="s" s="2">
         <v>77</v>
@@ -10917,13 +10847,13 @@
         <v>77</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>77</v>
@@ -10941,10 +10871,10 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>454</v>
+        <v>195</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -10961,10 +10891,10 @@
         <v>401</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10975,7 +10905,7 @@
         <v>75</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>77</v>
@@ -10987,20 +10917,16 @@
         <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>461</v>
+        <v>199</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11024,13 +10950,13 @@
         <v>77</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="AB82" t="s" s="2">
         <v>77</v>
@@ -11048,13 +10974,13 @@
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>460</v>
+        <v>201</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
@@ -11068,10 +10994,10 @@
         <v>401</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11094,22 +11020,22 @@
         <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>469</v>
+        <v>205</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R83" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="R83" s="2"/>
       <c r="S83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11129,13 +11055,13 @@
         <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>77</v>
@@ -11153,7 +11079,7 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>468</v>
+        <v>208</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11173,10 +11099,10 @@
         <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11202,22 +11128,22 @@
         <v>210</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="P84" t="s" s="2">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>479</v>
+        <v>215</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -11262,7 +11188,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -11282,21 +11208,21 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>77</v>
@@ -11311,15 +11237,17 @@
         <v>171</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="P85" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11343,13 +11271,13 @@
         <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>77</v>
@@ -11367,13 +11295,13 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
@@ -11387,21 +11315,21 @@
         <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11413,18 +11341,20 @@
         <v>83</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="P86" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11448,13 +11378,13 @@
         <v>77</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>77</v>
@@ -11472,16 +11402,16 @@
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>94</v>
@@ -11492,10 +11422,10 @@
         <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11506,7 +11436,7 @@
         <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -11515,20 +11445,22 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>496</v>
+        <v>148</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P87" t="s" s="2">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -11577,13 +11509,13 @@
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
@@ -11597,10 +11529,10 @@
         <v>401</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11608,10 +11540,10 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>77</v>
@@ -11620,19 +11552,23 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>501</v>
+        <v>264</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="Q88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11680,19 +11616,19 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>94</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89">
@@ -11700,18 +11636,18 @@
         <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -11723,19 +11659,23 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>506</v>
+        <v>289</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11783,19 +11723,19 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>94</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90">
@@ -11803,14 +11743,14 @@
         <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11826,16 +11766,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>511</v>
+        <v>148</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>512</v>
+        <v>149</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>513</v>
+        <v>150</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11874,17 +11814,19 @@
         <v>77</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AD90" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AE90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>509</v>
+        <v>151</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11896,7 +11838,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
@@ -11904,23 +11846,21 @@
         <v>401</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>510</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
@@ -11929,18 +11869,20 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>517</v>
+        <v>126</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>512</v>
+        <v>127</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>77</v>
@@ -11977,31 +11919,31 @@
         <v>77</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>509</v>
+        <v>158</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -12009,10 +11951,10 @@
         <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12029,22 +11971,26 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>519</v>
+        <v>102</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="Q92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12056,7 +12002,7 @@
         <v>77</v>
       </c>
       <c r="U92" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="V92" t="s" s="2">
         <v>77</v>
@@ -12068,13 +12014,13 @@
         <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>465</v>
+        <v>165</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>77</v>
@@ -12092,7 +12038,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -12112,14 +12058,14 @@
         <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -12138,15 +12084,17 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>517</v>
+        <v>102</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>77</v>
@@ -12159,7 +12107,7 @@
         <v>77</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="V93" t="s" s="2">
         <v>77</v>
@@ -12171,13 +12119,13 @@
         <v>77</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>77</v>
+        <v>498</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>77</v>
@@ -12195,7 +12143,7 @@
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -12215,14 +12163,14 @@
         <v>401</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>529</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
@@ -12241,18 +12189,20 @@
         <v>83</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>530</v>
+        <v>148</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="P94" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Q94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12264,7 +12214,7 @@
         <v>77</v>
       </c>
       <c r="U94" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="V94" t="s" s="2">
         <v>77</v>
@@ -12300,7 +12250,7 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
@@ -12320,21 +12270,21 @@
         <v>401</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>535</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>77</v>
@@ -12346,17 +12296,15 @@
         <v>83</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>77</v>
@@ -12369,7 +12317,7 @@
         <v>77</v>
       </c>
       <c r="U95" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="V95" t="s" s="2">
         <v>77</v>
@@ -12381,13 +12329,13 @@
         <v>77</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>539</v>
+        <v>77</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>540</v>
+        <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>77</v>
@@ -12405,13 +12353,13 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
@@ -12425,21 +12373,21 @@
         <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>77</v>
@@ -12451,17 +12399,15 @@
         <v>83</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>543</v>
+        <v>148</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>77</v>
@@ -12474,7 +12420,7 @@
         <v>77</v>
       </c>
       <c r="U96" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="V96" t="s" s="2">
         <v>77</v>
@@ -12510,13 +12456,13 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
@@ -12530,21 +12476,21 @@
         <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>77</v>
@@ -12556,15 +12502,17 @@
         <v>83</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
@@ -12577,7 +12525,7 @@
         <v>77</v>
       </c>
       <c r="U97" t="s" s="2">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="V97" t="s" s="2">
         <v>77</v>
@@ -12589,13 +12537,13 @@
         <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>550</v>
+        <v>77</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>551</v>
+        <v>77</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>77</v>
@@ -12613,13 +12561,13 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>77</v>
@@ -12633,21 +12581,21 @@
         <v>401</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>77</v>
@@ -12659,13 +12607,13 @@
         <v>83</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>553</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12716,13 +12664,13 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
@@ -12736,21 +12684,21 @@
         <v>401</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>77</v>
@@ -12762,17 +12710,15 @@
         <v>83</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>77</v>
@@ -12785,7 +12731,7 @@
         <v>77</v>
       </c>
       <c r="U99" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="V99" t="s" s="2">
         <v>77</v>
@@ -12797,13 +12743,13 @@
         <v>77</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>559</v>
+        <v>77</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>560</v>
+        <v>77</v>
       </c>
       <c r="AB99" t="s" s="2">
         <v>77</v>
@@ -12821,13 +12767,13 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>77</v>
@@ -12841,10 +12787,10 @@
         <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12852,10 +12798,10 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>77</v>
@@ -12867,16 +12813,16 @@
         <v>83</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>562</v>
+        <v>148</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -12926,13 +12872,13 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>77</v>
@@ -12946,10 +12892,10 @@
         <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12960,7 +12906,7 @@
         <v>75</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>77</v>
@@ -12969,19 +12915,21 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>567</v>
+        <v>198</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="Q101" t="s" s="2">
         <v>77</v>
       </c>
@@ -12993,7 +12941,7 @@
         <v>77</v>
       </c>
       <c r="U101" t="s" s="2">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="V101" t="s" s="2">
         <v>77</v>
@@ -13029,13 +12977,13 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>77</v>
@@ -13049,21 +12997,21 @@
         <v>401</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>571</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>77</v>
@@ -13072,21 +13020,21 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>572</v>
+        <v>204</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="P102" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="Q102" t="s" s="2">
         <v>77</v>
       </c>
@@ -13134,13 +13082,13 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>77</v>
@@ -13154,10 +13102,10 @@
         <v>401</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13177,21 +13125,23 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>577</v>
+        <v>313</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="P103" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="Q103" t="s" s="2">
         <v>77</v>
       </c>
@@ -13239,7 +13189,7 @@
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>75</v>
@@ -13259,21 +13209,21 @@
         <v>401</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>77</v>
@@ -13282,23 +13232,19 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>583</v>
+        <v>149</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
         <v>77</v>
       </c>
@@ -13322,13 +13268,13 @@
         <v>77</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>587</v>
+        <v>77</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>588</v>
+        <v>77</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>77</v>
@@ -13346,19 +13292,19 @@
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>581</v>
+        <v>151</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
@@ -13366,14 +13312,14 @@
         <v>401</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -13392,15 +13338,17 @@
         <v>77</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>590</v>
+        <v>126</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>77</v>
@@ -13449,7 +13397,7 @@
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>589</v>
+        <v>158</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>75</v>
@@ -13461,7 +13409,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
@@ -13469,42 +13417,46 @@
         <v>401</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>593</v>
+        <v>323</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q106" t="s" s="2">
         <v>77</v>
       </c>
@@ -13552,19 +13504,19 @@
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>592</v>
+        <v>325</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
@@ -13572,10 +13524,10 @@
         <v>401</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13586,7 +13538,7 @@
         <v>75</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>77</v>
@@ -13598,18 +13550,18 @@
         <v>77</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>596</v>
+        <v>171</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="P107" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="Q107" t="s" s="2">
         <v>77</v>
       </c>
@@ -13633,13 +13585,13 @@
         <v>77</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>77</v>
+        <v>562</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="AB107" t="s" s="2">
         <v>77</v>
@@ -13657,18 +13609,438 @@
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Q108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK107" t="s" s="2">
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Q110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK111" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T08:17:06+00:00</t>
+    <t>2023-02-02T08:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T08:19:28+00:00</t>
+    <t>2023-02-02T08:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T08:43:50+00:00</t>
+    <t>2023-02-02T09:41:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="559">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T09:41:21+00:00</t>
+    <t>2023-02-02T09:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1331,72 +1331,8 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the type of identifier</t>
-  </si>
-  <si>
     <t xml:space="preserve">org-1
 </t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS</t>
-  </si>
-  <si>
-    <t>HTS</t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization</t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:HTS.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -2295,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK111"/>
+  <dimension ref="A1:AK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10118,16 +10054,16 @@
         <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>418</v>
@@ -10139,7 +10075,7 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>94</v>
@@ -10150,20 +10086,18 @@
         <v>401</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -10172,28 +10106,32 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P75" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="S75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10237,16 +10175,16 @@
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>94</v>
@@ -10257,7 +10195,7 @@
         <v>401</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>428</v>
@@ -10271,7 +10209,7 @@
         <v>75</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>77</v>
@@ -10280,19 +10218,23 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="Q76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10316,13 +10258,13 @@
         <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>77</v>
@@ -10340,19 +10282,19 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>151</v>
+        <v>428</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77">
@@ -10360,21 +10302,21 @@
         <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10383,21 +10325,23 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>127</v>
+        <v>437</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>154</v>
+        <v>438</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P77" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="Q77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10433,31 +10377,31 @@
         <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>158</v>
+        <v>436</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78">
@@ -10465,10 +10409,10 @@
         <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10479,31 +10423,31 @@
         <v>75</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>161</v>
+        <v>442</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>162</v>
+        <v>443</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>163</v>
+        <v>444</v>
       </c>
       <c r="P78" t="s" s="2">
-        <v>164</v>
+        <v>445</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>77</v>
@@ -10528,13 +10472,13 @@
         <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>77</v>
@@ -10552,13 +10496,13 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>168</v>
+        <v>441</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
@@ -10572,10 +10516,10 @@
         <v>401</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10586,7 +10530,7 @@
         <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>77</v>
@@ -10595,22 +10539,22 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>172</v>
+        <v>447</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>173</v>
+        <v>448</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>174</v>
+        <v>449</v>
       </c>
       <c r="P79" t="s" s="2">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>77</v>
@@ -10635,13 +10579,13 @@
         <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>77</v>
@@ -10659,19 +10603,19 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>94</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
@@ -10679,10 +10623,10 @@
         <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10702,35 +10646,35 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>183</v>
+        <v>455</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>184</v>
+        <v>456</v>
       </c>
       <c r="P80" t="s" s="2">
-        <v>185</v>
+        <v>457</v>
       </c>
       <c r="Q80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="U80" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="V80" t="s" s="2">
         <v>77</v>
@@ -10766,19 +10710,19 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>188</v>
+        <v>453</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>94</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81">
@@ -10786,10 +10730,10 @@
         <v>401</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10797,7 +10741,7 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -10809,20 +10753,18 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>77</v>
@@ -10835,7 +10777,7 @@
         <v>77</v>
       </c>
       <c r="U81" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="V81" t="s" s="2">
         <v>77</v>
@@ -10871,7 +10813,7 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
@@ -10883,7 +10825,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
@@ -10891,21 +10833,21 @@
         <v>401</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>77</v>
@@ -10914,18 +10856,20 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>77</v>
@@ -10962,31 +10906,31 @@
         <v>77</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83">
@@ -10994,10 +10938,10 @@
         <v>401</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11014,24 +10958,26 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>205</v>
+        <v>463</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>206</v>
+        <v>464</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="P83" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="Q83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11043,7 +10989,7 @@
         <v>77</v>
       </c>
       <c r="U83" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="V83" t="s" s="2">
         <v>77</v>
@@ -11055,13 +11001,13 @@
         <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>77</v>
@@ -11079,7 +11025,7 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>208</v>
+        <v>470</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11099,10 +11045,10 @@
         <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11119,32 +11065,28 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R84" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="R84" s="2"/>
       <c r="S84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11152,7 +11094,7 @@
         <v>77</v>
       </c>
       <c r="U84" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="V84" t="s" s="2">
         <v>77</v>
@@ -11164,13 +11106,13 @@
         <v>77</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="AB84" t="s" s="2">
         <v>77</v>
@@ -11188,7 +11130,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -11208,10 +11150,10 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11222,7 +11164,7 @@
         <v>75</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>77</v>
@@ -11234,19 +11176,19 @@
         <v>83</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>453</v>
+        <v>236</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -11259,7 +11201,7 @@
         <v>77</v>
       </c>
       <c r="U85" t="s" s="2">
-        <v>77</v>
+        <v>483</v>
       </c>
       <c r="V85" t="s" s="2">
         <v>77</v>
@@ -11271,13 +11213,13 @@
         <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>77</v>
@@ -11295,13 +11237,13 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
@@ -11315,10 +11257,10 @@
         <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11326,10 +11268,10 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11344,17 +11286,13 @@
         <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11366,7 +11304,7 @@
         <v>77</v>
       </c>
       <c r="U86" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="V86" t="s" s="2">
         <v>77</v>
@@ -11402,16 +11340,16 @@
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>94</v>
@@ -11422,21 +11360,21 @@
         <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -11445,23 +11383,19 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11473,7 +11407,7 @@
         <v>77</v>
       </c>
       <c r="U87" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="V87" t="s" s="2">
         <v>77</v>
@@ -11509,13 +11443,13 @@
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
@@ -11529,21 +11463,21 @@
         <v>401</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>77</v>
@@ -11552,23 +11486,21 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11580,7 +11512,7 @@
         <v>77</v>
       </c>
       <c r="U88" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="V88" t="s" s="2">
         <v>77</v>
@@ -11616,19 +11548,19 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>473</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
@@ -11636,14 +11568,14 @@
         <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -11659,23 +11591,19 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11723,19 +11651,19 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>480</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -11743,14 +11671,14 @@
         <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11766,16 +11694,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>149</v>
+        <v>510</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>150</v>
+        <v>511</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11790,7 +11718,7 @@
         <v>77</v>
       </c>
       <c r="U90" t="s" s="2">
-        <v>77</v>
+        <v>512</v>
       </c>
       <c r="V90" t="s" s="2">
         <v>77</v>
@@ -11826,7 +11754,7 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>151</v>
+        <v>513</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11838,7 +11766,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
@@ -11846,21 +11774,21 @@
         <v>401</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
@@ -11869,19 +11797,19 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>127</v>
+        <v>515</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>154</v>
+        <v>516</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>129</v>
+        <v>517</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11919,31 +11847,31 @@
         <v>77</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>158</v>
+        <v>518</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
@@ -11951,10 +11879,10 @@
         <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11971,25 +11899,23 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>77</v>
@@ -12002,7 +11928,7 @@
         <v>77</v>
       </c>
       <c r="U92" t="s" s="2">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="V92" t="s" s="2">
         <v>77</v>
@@ -12014,13 +11940,13 @@
         <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>77</v>
@@ -12038,7 +11964,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -12058,10 +11984,10 @@
         <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12084,18 +12010,18 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="P93" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="Q93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12107,7 +12033,7 @@
         <v>77</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>496</v>
+        <v>77</v>
       </c>
       <c r="V93" t="s" s="2">
         <v>77</v>
@@ -12119,13 +12045,13 @@
         <v>77</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>498</v>
+        <v>77</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>77</v>
@@ -12143,7 +12069,7 @@
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -12163,10 +12089,10 @@
         <v>401</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12177,7 +12103,7 @@
         <v>75</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>77</v>
@@ -12186,22 +12112,22 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>236</v>
+        <v>533</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>77</v>
@@ -12214,7 +12140,7 @@
         <v>77</v>
       </c>
       <c r="U94" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="V94" t="s" s="2">
         <v>77</v>
@@ -12250,13 +12176,13 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
@@ -12270,10 +12196,10 @@
         <v>401</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12284,7 +12210,7 @@
         <v>75</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>77</v>
@@ -12293,16 +12219,16 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>507</v>
+        <v>149</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>508</v>
+        <v>150</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12317,7 +12243,7 @@
         <v>77</v>
       </c>
       <c r="U95" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="V95" t="s" s="2">
         <v>77</v>
@@ -12353,19 +12279,19 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>510</v>
+        <v>151</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
@@ -12373,21 +12299,21 @@
         <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>77</v>
@@ -12396,18 +12322,20 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>513</v>
+        <v>127</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>77</v>
@@ -12420,7 +12348,7 @@
         <v>77</v>
       </c>
       <c r="U96" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="V96" t="s" s="2">
         <v>77</v>
@@ -12456,19 +12384,19 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>516</v>
+        <v>158</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
@@ -12476,44 +12404,46 @@
         <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>518</v>
+        <v>322</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>519</v>
+        <v>323</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>520</v>
+        <v>324</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="P97" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12525,7 +12455,7 @@
         <v>77</v>
       </c>
       <c r="U97" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="V97" t="s" s="2">
         <v>77</v>
@@ -12561,19 +12491,19 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>523</v>
+        <v>325</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
@@ -12581,18 +12511,18 @@
         <v>401</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -12604,19 +12534,21 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="Q98" t="s" s="2">
         <v>77</v>
       </c>
@@ -12640,13 +12572,13 @@
         <v>77</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>77</v>
@@ -12664,7 +12596,7 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
@@ -12684,14 +12616,14 @@
         <v>401</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12707,19 +12639,21 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -12731,7 +12665,7 @@
         <v>77</v>
       </c>
       <c r="U99" t="s" s="2">
-        <v>533</v>
+        <v>77</v>
       </c>
       <c r="V99" t="s" s="2">
         <v>77</v>
@@ -12767,7 +12701,7 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
@@ -12787,10 +12721,10 @@
         <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12798,10 +12732,10 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>77</v>
@@ -12810,21 +12744,21 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="P100" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="Q100" t="s" s="2">
         <v>77</v>
       </c>
@@ -12872,13 +12806,13 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>77</v>
@@ -12892,10 +12826,10 @@
         <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12915,20 +12849,20 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>77</v>
@@ -12941,7 +12875,7 @@
         <v>77</v>
       </c>
       <c r="U101" t="s" s="2">
-        <v>544</v>
+        <v>77</v>
       </c>
       <c r="V101" t="s" s="2">
         <v>77</v>
@@ -12977,7 +12911,7 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
@@ -12997,10 +12931,10 @@
         <v>401</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13011,7 +12945,7 @@
         <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>77</v>
@@ -13020,20 +12954,20 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>204</v>
+        <v>555</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>77</v>
@@ -13082,965 +13016,18 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="Q103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R103" s="2"/>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R104" s="2"/>
-      <c r="S104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R105" s="2"/>
-      <c r="S105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="F106" s="2"/>
-      <c r="G106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="Q106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R106" s="2"/>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="Q107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R107" s="2"/>
-      <c r="S107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="Q108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R108" s="2"/>
-      <c r="S108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Q109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R109" s="2"/>
-      <c r="S109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F110" s="2"/>
-      <c r="G110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="Q110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R110" s="2"/>
-      <c r="S110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="Q111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R111" s="2"/>
-      <c r="S111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK111" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T09:55:00+00:00</t>
+    <t>2023-02-02T10:46:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1331,8 +1331,72 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">org-1
 </t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS</t>
+  </si>
+  <si>
+    <t>HTS</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -2231,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK102"/>
+  <dimension ref="A1:AK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10054,16 +10118,16 @@
         <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>418</v>
@@ -10075,7 +10139,7 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>94</v>
@@ -10086,18 +10150,20 @@
         <v>401</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -10106,85 +10172,81 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="M75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>94</v>
@@ -10195,7 +10257,7 @@
         <v>401</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>428</v>
@@ -10209,7 +10271,7 @@
         <v>75</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>77</v>
@@ -10218,23 +10280,19 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>429</v>
+        <v>149</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10258,13 +10316,13 @@
         <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>77</v>
@@ -10282,19 +10340,19 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -10302,21 +10360,21 @@
         <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10325,23 +10383,21 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>438</v>
+        <v>154</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10377,31 +10433,31 @@
         <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>436</v>
+        <v>158</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
@@ -10409,10 +10465,10 @@
         <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10423,31 +10479,31 @@
         <v>75</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>442</v>
+        <v>161</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>443</v>
+        <v>162</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>444</v>
+        <v>163</v>
       </c>
       <c r="P78" t="s" s="2">
-        <v>445</v>
+        <v>164</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>77</v>
@@ -10472,13 +10528,13 @@
         <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>77</v>
@@ -10496,13 +10552,13 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>441</v>
+        <v>168</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
@@ -10516,10 +10572,10 @@
         <v>401</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10530,7 +10586,7 @@
         <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>77</v>
@@ -10539,22 +10595,22 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>447</v>
+        <v>172</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>448</v>
+        <v>173</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>449</v>
+        <v>174</v>
       </c>
       <c r="P79" t="s" s="2">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>77</v>
@@ -10579,13 +10635,13 @@
         <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>77</v>
@@ -10603,19 +10659,19 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>452</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
@@ -10623,10 +10679,10 @@
         <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10646,35 +10702,35 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>454</v>
+        <v>182</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>456</v>
+        <v>184</v>
       </c>
       <c r="P80" t="s" s="2">
-        <v>457</v>
+        <v>185</v>
       </c>
       <c r="Q80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="U80" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="V80" t="s" s="2">
         <v>77</v>
@@ -10710,19 +10766,19 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>453</v>
+        <v>188</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>459</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
@@ -10730,10 +10786,10 @@
         <v>401</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10741,7 +10797,7 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -10753,18 +10809,20 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>77</v>
@@ -10777,7 +10835,7 @@
         <v>77</v>
       </c>
       <c r="U81" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="V81" t="s" s="2">
         <v>77</v>
@@ -10813,7 +10871,7 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
@@ -10825,7 +10883,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -10833,21 +10891,21 @@
         <v>401</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>77</v>
@@ -10856,20 +10914,18 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>77</v>
@@ -10906,31 +10962,31 @@
         <v>77</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
@@ -10938,10 +10994,10 @@
         <v>401</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10958,26 +11014,24 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>463</v>
+        <v>205</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>77</v>
       </c>
@@ -10989,7 +11043,7 @@
         <v>77</v>
       </c>
       <c r="U83" t="s" s="2">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="V83" t="s" s="2">
         <v>77</v>
@@ -11001,13 +11055,13 @@
         <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>77</v>
@@ -11025,7 +11079,7 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>470</v>
+        <v>208</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11045,10 +11099,10 @@
         <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11065,28 +11119,32 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P84" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11094,7 +11152,7 @@
         <v>77</v>
       </c>
       <c r="U84" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="V84" t="s" s="2">
         <v>77</v>
@@ -11106,13 +11164,13 @@
         <v>77</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
         <v>77</v>
@@ -11130,7 +11188,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -11150,10 +11208,10 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11164,7 +11222,7 @@
         <v>75</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>77</v>
@@ -11176,19 +11234,19 @@
         <v>83</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>236</v>
+        <v>453</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -11201,7 +11259,7 @@
         <v>77</v>
       </c>
       <c r="U85" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="V85" t="s" s="2">
         <v>77</v>
@@ -11213,13 +11271,13 @@
         <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>77</v>
@@ -11237,13 +11295,13 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
@@ -11257,10 +11315,10 @@
         <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11268,10 +11326,10 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11286,13 +11344,17 @@
         <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11304,7 +11366,7 @@
         <v>77</v>
       </c>
       <c r="U86" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="V86" t="s" s="2">
         <v>77</v>
@@ -11340,16 +11402,16 @@
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>94</v>
@@ -11360,21 +11422,21 @@
         <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -11383,19 +11445,23 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11407,7 +11473,7 @@
         <v>77</v>
       </c>
       <c r="U87" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="V87" t="s" s="2">
         <v>77</v>
@@ -11443,13 +11509,13 @@
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
@@ -11463,21 +11529,21 @@
         <v>401</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>77</v>
@@ -11486,21 +11552,23 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P88" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="Q88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11512,7 +11580,7 @@
         <v>77</v>
       </c>
       <c r="U88" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="V88" t="s" s="2">
         <v>77</v>
@@ -11548,19 +11616,19 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>94</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89">
@@ -11568,14 +11636,14 @@
         <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -11591,19 +11659,23 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11651,19 +11723,19 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>94</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90">
@@ -11671,14 +11743,14 @@
         <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11694,16 +11766,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>510</v>
+        <v>149</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>511</v>
+        <v>150</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11718,7 +11790,7 @@
         <v>77</v>
       </c>
       <c r="U90" t="s" s="2">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="V90" t="s" s="2">
         <v>77</v>
@@ -11754,7 +11826,7 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>513</v>
+        <v>151</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11766,7 +11838,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
@@ -11774,21 +11846,21 @@
         <v>401</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
@@ -11797,19 +11869,19 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>515</v>
+        <v>127</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>516</v>
+        <v>154</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>517</v>
+        <v>129</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11847,31 +11919,31 @@
         <v>77</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>518</v>
+        <v>158</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -11879,10 +11951,10 @@
         <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11899,23 +11971,25 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P92" t="s" s="2">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>77</v>
@@ -11928,7 +12002,7 @@
         <v>77</v>
       </c>
       <c r="U92" t="s" s="2">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="V92" t="s" s="2">
         <v>77</v>
@@ -11940,13 +12014,13 @@
         <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>77</v>
@@ -11964,7 +12038,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -11984,10 +12058,10 @@
         <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12010,18 +12084,18 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12033,7 +12107,7 @@
         <v>77</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="V93" t="s" s="2">
         <v>77</v>
@@ -12045,13 +12119,13 @@
         <v>77</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>77</v>
+        <v>498</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>77</v>
@@ -12069,7 +12143,7 @@
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -12089,10 +12163,10 @@
         <v>401</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12103,7 +12177,7 @@
         <v>75</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>77</v>
@@ -12112,22 +12186,22 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>533</v>
+        <v>236</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>77</v>
@@ -12140,7 +12214,7 @@
         <v>77</v>
       </c>
       <c r="U94" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="V94" t="s" s="2">
         <v>77</v>
@@ -12176,13 +12250,13 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
@@ -12196,10 +12270,10 @@
         <v>401</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12210,7 +12284,7 @@
         <v>75</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>77</v>
@@ -12219,16 +12293,16 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>507</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>150</v>
+        <v>508</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12243,7 +12317,7 @@
         <v>77</v>
       </c>
       <c r="U95" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="V95" t="s" s="2">
         <v>77</v>
@@ -12279,19 +12353,19 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>151</v>
+        <v>510</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -12299,21 +12373,21 @@
         <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>77</v>
@@ -12322,20 +12396,18 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>77</v>
@@ -12348,7 +12420,7 @@
         <v>77</v>
       </c>
       <c r="U96" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="V96" t="s" s="2">
         <v>77</v>
@@ -12384,19 +12456,19 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>158</v>
+        <v>516</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
@@ -12404,46 +12476,44 @@
         <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>322</v>
+        <v>518</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>323</v>
+        <v>519</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>324</v>
+        <v>520</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12455,7 +12525,7 @@
         <v>77</v>
       </c>
       <c r="U97" t="s" s="2">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="V97" t="s" s="2">
         <v>77</v>
@@ -12491,19 +12561,19 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
@@ -12511,18 +12581,18 @@
         <v>401</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -12534,21 +12604,19 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>77</v>
       </c>
@@ -12572,13 +12640,13 @@
         <v>77</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>77</v>
@@ -12596,7 +12664,7 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
@@ -12616,14 +12684,14 @@
         <v>401</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12639,21 +12707,19 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>546</v>
-      </c>
+      <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -12665,7 +12731,7 @@
         <v>77</v>
       </c>
       <c r="U99" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="V99" t="s" s="2">
         <v>77</v>
@@ -12701,7 +12767,7 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
@@ -12721,10 +12787,10 @@
         <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12732,10 +12798,10 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>77</v>
@@ -12744,21 +12810,21 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>77</v>
       </c>
@@ -12806,13 +12872,13 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>77</v>
@@ -12826,10 +12892,10 @@
         <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12849,20 +12915,20 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>77</v>
@@ -12875,7 +12941,7 @@
         <v>77</v>
       </c>
       <c r="U101" t="s" s="2">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="V101" t="s" s="2">
         <v>77</v>
@@ -12911,7 +12977,7 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
@@ -12931,10 +12997,10 @@
         <v>401</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12945,7 +13011,7 @@
         <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>77</v>
@@ -12954,20 +13020,20 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>555</v>
+        <v>204</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>77</v>
@@ -13016,18 +13082,965 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="P103" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AH102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI102" t="s" s="2">
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK102" t="s" s="2">
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Q108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Q110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK111" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="779">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T10:46:53+00:00</t>
+    <t>2023-02-02T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1821,6 +1821,638 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>transferout</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/transferout</t>
+  </si>
+  <si>
+    <t>TransferOut</t>
+  </si>
+  <si>
+    <t>Transfer-Out Request</t>
+  </si>
+  <si>
+    <t>This profile will be used to capture a Transfer-Out request for a patient</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
+  </si>
+  <si>
+    <t>diagnostic request
+referralreferral requesttransfer of care request</t>
+  </si>
+  <si>
+    <t>A request for a service to be performed</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>proposal</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-patient)
+</t>
+  </si>
+  <si>
+    <t>Individual or Entity the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter in which the request was created</t>
+  </si>
+  <si>
+    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request recipient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Requested performer</t>
+  </si>
+  <si>
+    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+  </si>
+  <si>
+    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationCode</t>
+  </si>
+  <si>
+    <t>Requested location</t>
+  </si>
+  <si>
+    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>A location type where services are delivered.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for procedure or service</t>
+  </si>
+  <si>
+    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for service or service</t>
+  </si>
+  <si>
+    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+</t>
+  </si>
+  <si>
+    <t>Associated insurance coverage</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t>Ask at order entry question
+AOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Additional clinical information</t>
+  </si>
+  <si>
+    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
+  </si>
+  <si>
+    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Procedure Samples</t>
+  </si>
+  <si>
+    <t>One or more specimens that the laboratory procedure will use.</t>
+  </si>
+  <si>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location
+</t>
+  </si>
+  <si>
+    <t>Location on Body</t>
+  </si>
+  <si>
+    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer-oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.relevantHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Provenance)
+</t>
+  </si>
+  <si>
+    <t>Request provenance</t>
+  </si>
+  <si>
+    <t>Key events in the history of the request.</t>
+  </si>
+  <si>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important.+This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude+All Provenances should have some historical version of this Request as their subject.</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2288,6 +2920,168 @@
         <v>37</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2295,7 +3089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK111"/>
+  <dimension ref="A1:AK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2305,10 +3099,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.89453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.45703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="44.00390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -2329,14 +3123,14 @@
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -14044,6 +14838,4503 @@
         <v>94</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R124" s="2"/>
+      <c r="S124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R125" s="2"/>
+      <c r="S125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="Q126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R126" s="2"/>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R127" s="2"/>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R128" s="2"/>
+      <c r="S128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="Q129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="P131" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Q131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R132" s="2"/>
+      <c r="S132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R133" s="2"/>
+      <c r="S133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="O134" s="2"/>
+      <c r="P134" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="Q134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R134" s="2"/>
+      <c r="S134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R135" s="2"/>
+      <c r="S135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R136" s="2"/>
+      <c r="S136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R137" s="2"/>
+      <c r="S137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AD137" s="2"/>
+      <c r="AE137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R138" s="2"/>
+      <c r="S138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R139" s="2"/>
+      <c r="S139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R140" s="2"/>
+      <c r="S140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R141" s="2"/>
+      <c r="S141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R142" s="2"/>
+      <c r="S142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R143" s="2"/>
+      <c r="S143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R144" s="2"/>
+      <c r="S144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R145" s="2"/>
+      <c r="S145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R146" s="2"/>
+      <c r="S146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R147" s="2"/>
+      <c r="S147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R148" s="2"/>
+      <c r="S148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R149" s="2"/>
+      <c r="S149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R150" s="2"/>
+      <c r="S150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="P151" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="Q151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R151" s="2"/>
+      <c r="S151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R152" s="2"/>
+      <c r="S152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R153" s="2"/>
+      <c r="S153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R154" s="2"/>
+      <c r="S154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T11:55:49+00:00</t>
+    <t>2023-02-02T11:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:01:09+00:00</t>
+    <t>2023-02-02T13:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:08:56+00:00</t>
+    <t>2023-02-02T13:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T13:32:48+00:00</t>
+    <t>2023-02-03T13:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T06:48:12+00:00</t>
+    <t>2023-02-06T06:48:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:17:42+00:00</t>
+    <t>2023-02-06T10:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:17:53+00:00</t>
+    <t>2023-02-06T10:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:47:33+00:00</t>
+    <t>2023-02-06T11:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:48:19+00:00</t>
+    <t>2023-02-06T11:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T13:10:08+00:00</t>
+    <t>2023-02-06T13:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8871" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8871" uniqueCount="846">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T13:10:41+00:00</t>
+    <t>2023-02-06T14:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2615,7 +2615,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/transferring-facility-encounter)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2646,10 +2646,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
 </sst>
@@ -31126,7 +31122,7 @@
         <v>77</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>837</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T14:36:15+00:00</t>
+    <t>2023-02-06T15:43:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T15:49:52+00:00</t>
+    <t>2023-02-06T15:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T07:18:49+00:00</t>
+    <t>2023-02-07T08:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:43:20+00:00</t>
+    <t>2023-02-07T13:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:02:36+00:00</t>
+    <t>2023-02-08T06:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:03:05+00:00</t>
+    <t>2023-02-08T06:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:31+00:00</t>
+    <t>2023-02-08T11:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>82</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:02:36+00:00</t>
+    <t>2023-02-08T11:03:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:22:28+00:00</t>
+    <t>2023-02-08T11:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:16:58+00:00</t>
+    <t>2023-02-08T12:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12191" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12191" uniqueCount="1214">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:21:52+00:00</t>
+    <t>2023-02-08T12:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -788,7 +788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>
@@ -3792,10 +3792,6 @@
   </si>
   <si>
     <t>This profile represents the facility the patient is being transferred from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
   </si>
 </sst>
 </file>
@@ -38214,7 +38210,7 @@
         <v>83</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1214</v>
+        <v>249</v>
       </c>
       <c r="M316" t="s" s="2">
         <v>829</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:30+00:00</t>
+    <t>2023-02-08T12:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:48+00:00</t>
+    <t>2023-02-08T12:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:59:12+00:00</t>
+    <t>2023-02-08T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:47:00+00:00</t>
+    <t>2023-02-09T09:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:39:24+00:00</t>
+    <t>2023-02-09T10:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:01:57+00:00</t>
+    <t>2023-02-09T12:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:08:40+00:00</t>
+    <t>2023-02-09T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:39:21+00:00</t>
+    <t>2023-02-09T15:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:03:43+00:00</t>
+    <t>2023-02-09T15:04:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:19:28+00:00</t>
+    <t>2023-02-10T06:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12191" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13930" uniqueCount="1219">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:41:50+00:00</t>
+    <t>2023-02-10T06:42:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3777,6 +3777,21 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>DateHIVTestDone</t>
+  </si>
+  <si>
+    <t>Date HIV Test Done</t>
+  </si>
+  <si>
+    <t>This profile is to record the Date when HIV was done for a patient</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>
@@ -3925,7 +3940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B149"/>
+  <dimension ref="A2:B170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5050,7 +5065,7 @@
         <v>31</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>759</v>
+        <v>994</v>
       </c>
     </row>
     <row r="147">
@@ -5058,7 +5073,7 @@
         <v>33</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>760</v>
+        <v>995</v>
       </c>
     </row>
     <row r="148">
@@ -5074,6 +5089,168 @@
         <v>37</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B170" t="s" s="2">
         <v>38</v>
       </c>
     </row>
@@ -5084,7 +5261,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK361"/>
+  <dimension ref="A1:AK412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -35369,14 +35546,14 @@
         <v>1209</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>761</v>
+        <v>996</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" t="s" s="2">
@@ -35398,12 +35575,14 @@
         <v>78</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>762</v>
+        <v>997</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="O289" s="2"/>
+        <v>998</v>
+      </c>
+      <c r="O289" t="s" s="2">
+        <v>999</v>
+      </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
         <v>75</v>
@@ -35452,7 +35631,7 @@
         <v>75</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>76</v>
@@ -35472,10 +35651,10 @@
         <v>1209</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>764</v>
+        <v>1000</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>764</v>
+        <v>1000</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -35577,10 +35756,10 @@
         <v>1209</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>765</v>
+        <v>1001</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>765</v>
+        <v>1001</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -35680,10 +35859,10 @@
         <v>1209</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>766</v>
+        <v>1002</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>766</v>
+        <v>1002</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -35785,10 +35964,10 @@
         <v>1209</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>767</v>
+        <v>1003</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>767</v>
+        <v>1003</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35890,10 +36069,10 @@
         <v>1209</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>768</v>
+        <v>1004</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>768</v>
+        <v>1004</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35995,10 +36174,10 @@
         <v>1209</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>769</v>
+        <v>1005</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>769</v>
+        <v>1005</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -36100,10 +36279,10 @@
         <v>1209</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>770</v>
+        <v>1006</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>770</v>
+        <v>1006</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36205,10 +36384,10 @@
         <v>1209</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>774</v>
+        <v>1007</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>774</v>
+        <v>1007</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -36312,10 +36491,10 @@
         <v>1209</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>775</v>
+        <v>1008</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>775</v>
+        <v>1008</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36341,13 +36520,15 @@
         <v>138</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>776</v>
+        <v>1009</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>777</v>
+        <v>1010</v>
       </c>
       <c r="O298" s="2"/>
-      <c r="P298" s="2"/>
+      <c r="P298" t="s" s="2">
+        <v>1011</v>
+      </c>
       <c r="Q298" t="s" s="2">
         <v>75</v>
       </c>
@@ -36395,7 +36576,7 @@
         <v>75</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>775</v>
+        <v>1008</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>76</v>
@@ -36415,44 +36596,44 @@
         <v>1209</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>778</v>
+        <v>1012</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>778</v>
+        <v>1012</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>75</v>
+        <v>1013</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K299" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>102</v>
+        <v>1014</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>779</v>
+        <v>1015</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="O299" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="P299" s="2"/>
+        <v>1016</v>
+      </c>
+      <c r="O299" s="2"/>
+      <c r="P299" t="s" s="2">
+        <v>1017</v>
+      </c>
       <c r="Q299" t="s" s="2">
         <v>75</v>
       </c>
@@ -36476,13 +36657,13 @@
         <v>75</v>
       </c>
       <c r="Y299" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="Z299" t="s" s="2">
-        <v>782</v>
+        <v>75</v>
       </c>
       <c r="AA299" t="s" s="2">
-        <v>783</v>
+        <v>75</v>
       </c>
       <c r="AB299" t="s" s="2">
         <v>75</v>
@@ -36500,13 +36681,13 @@
         <v>75</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>778</v>
+        <v>1012</v>
       </c>
       <c r="AH299" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>75</v>
@@ -36520,14 +36701,14 @@
         <v>1209</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>784</v>
+        <v>1018</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>784</v>
+        <v>1018</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
-        <v>75</v>
+        <v>1019</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" t="s" s="2">
@@ -36543,19 +36724,19 @@
         <v>75</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>280</v>
+        <v>1020</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>785</v>
+        <v>1021</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>786</v>
+        <v>1022</v>
       </c>
       <c r="O300" t="s" s="2">
-        <v>787</v>
+        <v>1023</v>
       </c>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
@@ -36605,7 +36786,7 @@
         <v>75</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>784</v>
+        <v>1018</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>76</v>
@@ -36625,10 +36806,10 @@
         <v>1209</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>788</v>
+        <v>1024</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>788</v>
+        <v>1024</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36636,7 +36817,7 @@
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H301" t="s" s="2">
         <v>82</v>
@@ -36645,22 +36826,26 @@
         <v>75</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>150</v>
+        <v>1025</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
+        <v>1026</v>
+      </c>
+      <c r="O301" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="P301" t="s" s="2">
+        <v>1028</v>
+      </c>
       <c r="Q301" t="s" s="2">
         <v>75</v>
       </c>
@@ -36669,7 +36854,7 @@
         <v>75</v>
       </c>
       <c r="T301" t="s" s="2">
-        <v>75</v>
+        <v>1029</v>
       </c>
       <c r="U301" t="s" s="2">
         <v>75</v>
@@ -36684,13 +36869,13 @@
         <v>75</v>
       </c>
       <c r="Y301" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Z301" t="s" s="2">
-        <v>75</v>
+        <v>1030</v>
       </c>
       <c r="AA301" t="s" s="2">
-        <v>75</v>
+        <v>1031</v>
       </c>
       <c r="AB301" t="s" s="2">
         <v>75</v>
@@ -36708,10 +36893,10 @@
         <v>75</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>152</v>
+        <v>1024</v>
       </c>
       <c r="AH301" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI301" t="s" s="2">
         <v>82</v>
@@ -36720,7 +36905,7 @@
         <v>75</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="302">
@@ -36728,14 +36913,14 @@
         <v>1209</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>789</v>
+        <v>1032</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>789</v>
+        <v>1032</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
@@ -36754,18 +36939,20 @@
         <v>75</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>127</v>
+        <v>1033</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>155</v>
+        <v>1034</v>
       </c>
       <c r="O302" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P302" s="2"/>
+        <v>1035</v>
+      </c>
+      <c r="P302" t="s" s="2">
+        <v>1036</v>
+      </c>
       <c r="Q302" t="s" s="2">
         <v>75</v>
       </c>
@@ -36789,13 +36976,13 @@
         <v>75</v>
       </c>
       <c r="Y302" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Z302" t="s" s="2">
-        <v>75</v>
+        <v>1037</v>
       </c>
       <c r="AA302" t="s" s="2">
-        <v>75</v>
+        <v>1038</v>
       </c>
       <c r="AB302" t="s" s="2">
         <v>75</v>
@@ -36813,7 +37000,7 @@
         <v>75</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>159</v>
+        <v>1032</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>76</v>
@@ -36825,7 +37012,7 @@
         <v>75</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303">
@@ -36833,45 +37020,45 @@
         <v>1209</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>790</v>
+        <v>1039</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>790</v>
+        <v>1039</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>287</v>
+        <v>1040</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K303" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>288</v>
+        <v>1041</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>289</v>
+        <v>1042</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>129</v>
+        <v>1043</v>
       </c>
       <c r="P303" t="s" s="2">
-        <v>135</v>
+        <v>1044</v>
       </c>
       <c r="Q303" t="s" s="2">
         <v>75</v>
@@ -36896,13 +37083,11 @@
         <v>75</v>
       </c>
       <c r="Y303" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z303" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="Z303" s="2"/>
       <c r="AA303" t="s" s="2">
-        <v>75</v>
+        <v>1045</v>
       </c>
       <c r="AB303" t="s" s="2">
         <v>75</v>
@@ -36920,19 +37105,19 @@
         <v>75</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>290</v>
+        <v>1039</v>
       </c>
       <c r="AH303" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304">
@@ -36940,10 +37125,10 @@
         <v>1209</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>791</v>
+        <v>1046</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>791</v>
+        <v>1046</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -36963,19 +37148,23 @@
         <v>75</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>102</v>
+        <v>1047</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>779</v>
+        <v>1048</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="O304" s="2"/>
-      <c r="P304" s="2"/>
+        <v>1049</v>
+      </c>
+      <c r="O304" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>1051</v>
+      </c>
       <c r="Q304" t="s" s="2">
         <v>75</v>
       </c>
@@ -36999,13 +37188,13 @@
         <v>75</v>
       </c>
       <c r="Y304" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="Z304" t="s" s="2">
-        <v>782</v>
+        <v>75</v>
       </c>
       <c r="AA304" t="s" s="2">
-        <v>783</v>
+        <v>75</v>
       </c>
       <c r="AB304" t="s" s="2">
         <v>75</v>
@@ -37023,10 +37212,10 @@
         <v>75</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>791</v>
+        <v>1046</v>
       </c>
       <c r="AH304" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI304" t="s" s="2">
         <v>82</v>
@@ -37043,10 +37232,10 @@
         <v>1209</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>792</v>
+        <v>1052</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>792</v>
+        <v>1052</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37054,10 +37243,10 @@
       </c>
       <c r="F305" s="2"/>
       <c r="G305" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>75</v>
@@ -37066,18 +37255,20 @@
         <v>75</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>793</v>
+        <v>1053</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="O305" s="2"/>
+        <v>1054</v>
+      </c>
+      <c r="O305" t="s" s="2">
+        <v>1055</v>
+      </c>
       <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
         <v>75</v>
@@ -37126,13 +37317,13 @@
         <v>75</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>792</v>
+        <v>1052</v>
       </c>
       <c r="AH305" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ305" t="s" s="2">
         <v>75</v>
@@ -37146,14 +37337,14 @@
         <v>1209</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>795</v>
+        <v>1056</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>795</v>
+        <v>1056</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
-        <v>75</v>
+        <v>1057</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" t="s" s="2">
@@ -37172,16 +37363,20 @@
         <v>83</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>796</v>
+        <v>254</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>797</v>
+        <v>1058</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="O306" s="2"/>
-      <c r="P306" s="2"/>
+        <v>1059</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="P306" t="s" s="2">
+        <v>1061</v>
+      </c>
       <c r="Q306" t="s" s="2">
         <v>75</v>
       </c>
@@ -37205,13 +37400,13 @@
         <v>75</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>799</v>
+        <v>75</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>800</v>
+        <v>75</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>75</v>
@@ -37229,10 +37424,10 @@
         <v>75</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>795</v>
+        <v>1056</v>
       </c>
       <c r="AH306" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI306" t="s" s="2">
         <v>82</v>
@@ -37249,21 +37444,21 @@
         <v>1209</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>801</v>
+        <v>1062</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>801</v>
+        <v>1062</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
-        <v>75</v>
+        <v>1063</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H307" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I307" t="s" s="2">
         <v>75</v>
@@ -37272,19 +37467,23 @@
         <v>75</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>802</v>
+        <v>1064</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="O307" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="P307" t="s" s="2">
+        <v>1067</v>
+      </c>
       <c r="Q307" t="s" s="2">
         <v>75</v>
       </c>
@@ -37320,25 +37519,23 @@
         <v>75</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD307" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="AD307" s="2"/>
       <c r="AE307" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>75</v>
+        <v>1069</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>801</v>
+        <v>1062</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI307" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ307" t="s" s="2">
         <v>75</v>
@@ -37352,18 +37549,20 @@
         <v>1209</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>804</v>
+        <v>1070</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="D308" s="2"/>
+        <v>1062</v>
+      </c>
+      <c r="D308" t="s" s="2">
+        <v>1071</v>
+      </c>
       <c r="E308" t="s" s="2">
-        <v>75</v>
+        <v>1063</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H308" t="s" s="2">
         <v>82</v>
@@ -37375,19 +37574,23 @@
         <v>75</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>150</v>
+        <v>1064</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O308" s="2"/>
-      <c r="P308" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="O308" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="P308" t="s" s="2">
+        <v>1067</v>
+      </c>
       <c r="Q308" t="s" s="2">
         <v>75</v>
       </c>
@@ -37435,7 +37638,7 @@
         <v>75</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>152</v>
+        <v>1062</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>76</v>
@@ -37447,7 +37650,7 @@
         <v>75</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="309">
@@ -37455,21 +37658,21 @@
         <v>1209</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>805</v>
+        <v>1072</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>805</v>
+        <v>1072</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>75</v>
@@ -37478,19 +37681,19 @@
         <v>75</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>126</v>
+        <v>1073</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>127</v>
+        <v>1074</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>155</v>
+        <v>1075</v>
       </c>
       <c r="O309" t="s" s="2">
-        <v>129</v>
+        <v>1076</v>
       </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
@@ -37540,19 +37743,19 @@
         <v>75</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>159</v>
+        <v>1072</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK309" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="310">
@@ -37560,14 +37763,14 @@
         <v>1209</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>806</v>
+        <v>1077</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>806</v>
+        <v>1077</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="F310" s="2"/>
       <c r="G310" t="s" s="2">
@@ -37580,25 +37783,23 @@
         <v>75</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K310" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>126</v>
+        <v>1078</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>288</v>
+        <v>1079</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O310" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="O310" s="2"/>
       <c r="P310" t="s" s="2">
-        <v>135</v>
+        <v>1081</v>
       </c>
       <c r="Q310" t="s" s="2">
         <v>75</v>
@@ -37647,7 +37848,7 @@
         <v>75</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>290</v>
+        <v>1077</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>76</v>
@@ -37659,7 +37860,7 @@
         <v>75</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="311">
@@ -37667,10 +37868,10 @@
         <v>1209</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>807</v>
+        <v>1082</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>807</v>
+        <v>1082</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37678,7 +37879,7 @@
       </c>
       <c r="F311" s="2"/>
       <c r="G311" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H311" t="s" s="2">
         <v>82</v>
@@ -37690,19 +37891,23 @@
         <v>75</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>796</v>
+        <v>1196</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>808</v>
+        <v>1084</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
+        <v>1085</v>
+      </c>
+      <c r="O311" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="P311" t="s" s="2">
+        <v>1087</v>
+      </c>
       <c r="Q311" t="s" s="2">
         <v>75</v>
       </c>
@@ -37726,13 +37931,13 @@
         <v>75</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Z311" t="s" s="2">
-        <v>799</v>
+        <v>75</v>
       </c>
       <c r="AA311" t="s" s="2">
-        <v>800</v>
+        <v>75</v>
       </c>
       <c r="AB311" t="s" s="2">
         <v>75</v>
@@ -37750,16 +37955,16 @@
         <v>75</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>807</v>
+        <v>1082</v>
       </c>
       <c r="AH311" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI311" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>75</v>
+        <v>1088</v>
       </c>
       <c r="AK311" t="s" s="2">
         <v>94</v>
@@ -37770,10 +37975,10 @@
         <v>1209</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>810</v>
+        <v>1091</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>810</v>
+        <v>1091</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37781,7 +37986,7 @@
       </c>
       <c r="F312" s="2"/>
       <c r="G312" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H312" t="s" s="2">
         <v>82</v>
@@ -37796,16 +38001,20 @@
         <v>75</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>811</v>
+        <v>1092</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O312" s="2"/>
-      <c r="P312" s="2"/>
+        <v>1093</v>
+      </c>
+      <c r="O312" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="P312" t="s" s="2">
+        <v>1095</v>
+      </c>
       <c r="Q312" t="s" s="2">
         <v>75</v>
       </c>
@@ -37829,13 +38038,13 @@
         <v>75</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z312" t="s" s="2">
-        <v>75</v>
+        <v>1096</v>
       </c>
       <c r="AA312" t="s" s="2">
-        <v>75</v>
+        <v>1097</v>
       </c>
       <c r="AB312" t="s" s="2">
         <v>75</v>
@@ -37853,16 +38062,16 @@
         <v>75</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>810</v>
+        <v>1091</v>
       </c>
       <c r="AH312" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI312" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>75</v>
+        <v>1098</v>
       </c>
       <c r="AK312" t="s" s="2">
         <v>94</v>
@@ -37873,14 +38082,14 @@
         <v>1209</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>813</v>
+        <v>1099</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>813</v>
+        <v>1099</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
-        <v>75</v>
+        <v>1100</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" t="s" s="2">
@@ -37896,21 +38105,23 @@
         <v>75</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L313" t="s" s="2">
         <v>172</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>814</v>
+        <v>1101</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>815</v>
+        <v>1102</v>
       </c>
       <c r="O313" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="P313" s="2"/>
+        <v>1103</v>
+      </c>
+      <c r="P313" t="s" s="2">
+        <v>1104</v>
+      </c>
       <c r="Q313" t="s" s="2">
         <v>75</v>
       </c>
@@ -37934,13 +38145,13 @@
         <v>75</v>
       </c>
       <c r="Y313" t="s" s="2">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="Z313" t="s" s="2">
-        <v>817</v>
+        <v>1204</v>
       </c>
       <c r="AA313" t="s" s="2">
-        <v>818</v>
+        <v>1205</v>
       </c>
       <c r="AB313" t="s" s="2">
         <v>75</v>
@@ -37958,7 +38169,7 @@
         <v>75</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>813</v>
+        <v>1099</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>76</v>
@@ -37978,10 +38189,10 @@
         <v>1209</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>819</v>
+        <v>1106</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>819</v>
+        <v>1106</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -37992,7 +38203,7 @@
         <v>76</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>75</v>
@@ -38001,19 +38212,23 @@
         <v>75</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>820</v>
+        <v>1107</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="O314" s="2"/>
-      <c r="P314" s="2"/>
+        <v>1108</v>
+      </c>
+      <c r="O314" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="P314" t="s" s="2">
+        <v>1110</v>
+      </c>
       <c r="Q314" t="s" s="2">
         <v>75</v>
       </c>
@@ -38037,13 +38252,13 @@
         <v>75</v>
       </c>
       <c r="Y314" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z314" t="s" s="2">
-        <v>822</v>
+        <v>75</v>
       </c>
       <c r="AA314" t="s" s="2">
-        <v>823</v>
+        <v>75</v>
       </c>
       <c r="AB314" t="s" s="2">
         <v>75</v>
@@ -38061,13 +38276,13 @@
         <v>75</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>819</v>
+        <v>1106</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ314" t="s" s="2">
         <v>75</v>
@@ -38081,10 +38296,10 @@
         <v>1209</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>824</v>
+        <v>1111</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>824</v>
+        <v>1111</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38110,12 +38325,14 @@
         <v>172</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>825</v>
+        <v>1112</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="O315" s="2"/>
+        <v>1113</v>
+      </c>
+      <c r="O315" t="s" s="2">
+        <v>1114</v>
+      </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
         <v>75</v>
@@ -38143,10 +38360,10 @@
         <v>244</v>
       </c>
       <c r="Z315" t="s" s="2">
-        <v>826</v>
+        <v>245</v>
       </c>
       <c r="AA315" t="s" s="2">
-        <v>827</v>
+        <v>246</v>
       </c>
       <c r="AB315" t="s" s="2">
         <v>75</v>
@@ -38164,7 +38381,7 @@
         <v>75</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>824</v>
+        <v>1111</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>76</v>
@@ -38184,14 +38401,14 @@
         <v>1209</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>828</v>
+        <v>1115</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>828</v>
+        <v>1115</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" t="s" s="2">
@@ -38207,21 +38424,23 @@
         <v>75</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>829</v>
+        <v>1116</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>830</v>
+        <v>1117</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="P316" s="2"/>
+        <v>1118</v>
+      </c>
+      <c r="P316" t="s" s="2">
+        <v>1119</v>
+      </c>
       <c r="Q316" t="s" s="2">
         <v>75</v>
       </c>
@@ -38245,13 +38464,13 @@
         <v>75</v>
       </c>
       <c r="Y316" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Z316" t="s" s="2">
-        <v>75</v>
+        <v>1120</v>
       </c>
       <c r="AA316" t="s" s="2">
-        <v>75</v>
+        <v>1121</v>
       </c>
       <c r="AB316" t="s" s="2">
         <v>75</v>
@@ -38269,7 +38488,7 @@
         <v>75</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>828</v>
+        <v>1115</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>76</v>
@@ -38289,10 +38508,10 @@
         <v>1209</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>832</v>
+        <v>1122</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>832</v>
+        <v>1122</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38303,7 +38522,7 @@
         <v>76</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I317" t="s" s="2">
         <v>75</v>
@@ -38312,18 +38531,20 @@
         <v>75</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>833</v>
+        <v>1123</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>834</v>
+        <v>1124</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="O317" s="2"/>
+        <v>1125</v>
+      </c>
+      <c r="O317" t="s" s="2">
+        <v>1126</v>
+      </c>
       <c r="P317" s="2"/>
       <c r="Q317" t="s" s="2">
         <v>75</v>
@@ -38372,13 +38593,13 @@
         <v>75</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>832</v>
+        <v>1122</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI317" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ317" t="s" s="2">
         <v>75</v>
@@ -38392,21 +38613,21 @@
         <v>1209</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>836</v>
+        <v>1127</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>836</v>
+        <v>1127</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
-        <v>837</v>
+        <v>75</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I318" t="s" s="2">
         <v>75</v>
@@ -38418,15 +38639,17 @@
         <v>75</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>838</v>
+        <v>1128</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>839</v>
+        <v>1129</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="O318" s="2"/>
+        <v>1130</v>
+      </c>
+      <c r="O318" t="s" s="2">
+        <v>1131</v>
+      </c>
       <c r="P318" s="2"/>
       <c r="Q318" t="s" s="2">
         <v>75</v>
@@ -38475,13 +38698,13 @@
         <v>75</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>836</v>
+        <v>1127</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ318" t="s" s="2">
         <v>75</v>
@@ -38495,10 +38718,10 @@
         <v>1209</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>841</v>
+        <v>1132</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>841</v>
+        <v>1132</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38518,19 +38741,23 @@
         <v>75</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L319" t="s" s="2">
         <v>280</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>842</v>
+        <v>1133</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="O319" s="2"/>
-      <c r="P319" s="2"/>
+        <v>1134</v>
+      </c>
+      <c r="O319" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="P319" t="s" s="2">
+        <v>1136</v>
+      </c>
       <c r="Q319" t="s" s="2">
         <v>75</v>
       </c>
@@ -38578,7 +38805,7 @@
         <v>75</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>841</v>
+        <v>1132</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>76</v>
@@ -38590,7 +38817,7 @@
         <v>75</v>
       </c>
       <c r="AK319" t="s" s="2">
-        <v>94</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="320">
@@ -38598,10 +38825,10 @@
         <v>1209</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>844</v>
+        <v>1138</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>844</v>
+        <v>1138</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38701,10 +38928,10 @@
         <v>1209</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>845</v>
+        <v>1139</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>845</v>
+        <v>1139</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38806,10 +39033,10 @@
         <v>1209</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>846</v>
+        <v>1140</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>846</v>
+        <v>1140</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -38913,10 +39140,10 @@
         <v>1209</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>847</v>
+        <v>1141</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>847</v>
+        <v>1141</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38927,7 +39154,7 @@
         <v>76</v>
       </c>
       <c r="H323" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I323" t="s" s="2">
         <v>75</v>
@@ -38936,20 +39163,18 @@
         <v>75</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>172</v>
+        <v>1142</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>848</v>
+        <v>1143</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="O323" t="s" s="2">
-        <v>850</v>
-      </c>
+        <v>1144</v>
+      </c>
+      <c r="O323" s="2"/>
       <c r="P323" s="2"/>
       <c r="Q323" t="s" s="2">
         <v>75</v>
@@ -38974,13 +39199,13 @@
         <v>75</v>
       </c>
       <c r="Y323" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Z323" t="s" s="2">
-        <v>849</v>
+        <v>75</v>
       </c>
       <c r="AA323" t="s" s="2">
-        <v>851</v>
+        <v>75</v>
       </c>
       <c r="AB323" t="s" s="2">
         <v>75</v>
@@ -38998,16 +39223,16 @@
         <v>75</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>847</v>
+        <v>1141</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI323" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>75</v>
+        <v>1145</v>
       </c>
       <c r="AK323" t="s" s="2">
         <v>94</v>
@@ -39018,10 +39243,10 @@
         <v>1209</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -39044,13 +39269,13 @@
         <v>75</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>199</v>
+        <v>1142</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>853</v>
+        <v>1147</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>854</v>
+        <v>1148</v>
       </c>
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
@@ -39101,7 +39326,7 @@
         <v>75</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>76</v>
@@ -39110,7 +39335,7 @@
         <v>82</v>
       </c>
       <c r="AJ324" t="s" s="2">
-        <v>75</v>
+        <v>1145</v>
       </c>
       <c r="AK324" t="s" s="2">
         <v>94</v>
@@ -39121,10 +39346,10 @@
         <v>1209</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>855</v>
+        <v>1149</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>855</v>
+        <v>1149</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39144,19 +39369,23 @@
         <v>75</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>856</v>
+        <v>172</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>857</v>
+        <v>1150</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O325" s="2"/>
-      <c r="P325" s="2"/>
+        <v>1151</v>
+      </c>
+      <c r="O325" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="P325" t="s" s="2">
+        <v>1153</v>
+      </c>
       <c r="Q325" t="s" s="2">
         <v>75</v>
       </c>
@@ -39180,13 +39409,13 @@
         <v>75</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Z325" t="s" s="2">
-        <v>75</v>
+        <v>1154</v>
       </c>
       <c r="AA325" t="s" s="2">
-        <v>75</v>
+        <v>1155</v>
       </c>
       <c r="AB325" t="s" s="2">
         <v>75</v>
@@ -39204,7 +39433,7 @@
         <v>75</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>855</v>
+        <v>1149</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>76</v>
@@ -39224,10 +39453,10 @@
         <v>1209</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>859</v>
+        <v>1156</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>859</v>
+        <v>1156</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39247,19 +39476,23 @@
         <v>75</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>860</v>
+        <v>172</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>861</v>
+        <v>1157</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
+        <v>1158</v>
+      </c>
+      <c r="O326" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="P326" t="s" s="2">
+        <v>1160</v>
+      </c>
       <c r="Q326" t="s" s="2">
         <v>75</v>
       </c>
@@ -39283,13 +39516,13 @@
         <v>75</v>
       </c>
       <c r="Y326" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Z326" t="s" s="2">
-        <v>75</v>
+        <v>1161</v>
       </c>
       <c r="AA326" t="s" s="2">
-        <v>75</v>
+        <v>1162</v>
       </c>
       <c r="AB326" t="s" s="2">
         <v>75</v>
@@ -39307,7 +39540,7 @@
         <v>75</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>859</v>
+        <v>1156</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>76</v>
@@ -39327,10 +39560,10 @@
         <v>1209</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>863</v>
+        <v>1163</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>863</v>
+        <v>1163</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39338,7 +39571,7 @@
       </c>
       <c r="F327" s="2"/>
       <c r="G327" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H327" t="s" s="2">
         <v>82</v>
@@ -39353,18 +39586,18 @@
         <v>75</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>199</v>
+        <v>1164</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>864</v>
+        <v>1165</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="O327" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="P327" s="2"/>
+        <v>1166</v>
+      </c>
+      <c r="O327" s="2"/>
+      <c r="P327" t="s" s="2">
+        <v>1167</v>
+      </c>
       <c r="Q327" t="s" s="2">
         <v>75</v>
       </c>
@@ -39412,7 +39645,7 @@
         <v>75</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>863</v>
+        <v>1163</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>76</v>
@@ -39432,10 +39665,10 @@
         <v>1209</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>867</v>
+        <v>1168</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>867</v>
+        <v>1168</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39458,17 +39691,15 @@
         <v>75</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>868</v>
+        <v>149</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>869</v>
+        <v>1169</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>870</v>
-      </c>
-      <c r="O328" t="s" s="2">
-        <v>871</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="O328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" t="s" s="2">
         <v>75</v>
@@ -39517,7 +39748,7 @@
         <v>75</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>867</v>
+        <v>1168</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>76</v>
@@ -39537,14 +39768,14 @@
         <v>1209</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>872</v>
+        <v>1171</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>872</v>
+        <v>1171</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
-        <v>873</v>
+        <v>75</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" t="s" s="2">
@@ -39563,16 +39794,16 @@
         <v>83</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>172</v>
+        <v>1172</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>874</v>
+        <v>1173</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>875</v>
+        <v>1174</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>876</v>
+        <v>1175</v>
       </c>
       <c r="P329" s="2"/>
       <c r="Q329" t="s" s="2">
@@ -39598,13 +39829,13 @@
         <v>75</v>
       </c>
       <c r="Y329" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z329" t="s" s="2">
-        <v>877</v>
+        <v>75</v>
       </c>
       <c r="AA329" t="s" s="2">
-        <v>878</v>
+        <v>75</v>
       </c>
       <c r="AB329" t="s" s="2">
         <v>75</v>
@@ -39622,7 +39853,7 @@
         <v>75</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>872</v>
+        <v>1171</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>76</v>
@@ -39642,14 +39873,14 @@
         <v>1209</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>879</v>
+        <v>1176</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>879</v>
+        <v>1176</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
-        <v>873</v>
+        <v>75</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" t="s" s="2">
@@ -39668,16 +39899,16 @@
         <v>83</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>880</v>
+        <v>1177</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>881</v>
+        <v>1178</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>875</v>
+        <v>1179</v>
       </c>
       <c r="O330" t="s" s="2">
-        <v>876</v>
+        <v>1180</v>
       </c>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
@@ -39727,7 +39958,7 @@
         <v>75</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>879</v>
+        <v>1176</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>76</v>
@@ -39747,10 +39978,10 @@
         <v>1209</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>882</v>
+        <v>1181</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>882</v>
+        <v>1181</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39776,13 +40007,17 @@
         <v>280</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>883</v>
+        <v>1182</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>884</v>
-      </c>
-      <c r="O331" s="2"/>
-      <c r="P331" s="2"/>
+        <v>1183</v>
+      </c>
+      <c r="O331" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="P331" t="s" s="2">
+        <v>1185</v>
+      </c>
       <c r="Q331" t="s" s="2">
         <v>75</v>
       </c>
@@ -39830,7 +40065,7 @@
         <v>75</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>882</v>
+        <v>1181</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>76</v>
@@ -39850,10 +40085,10 @@
         <v>1209</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>885</v>
+        <v>1186</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>885</v>
+        <v>1186</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39953,10 +40188,10 @@
         <v>1209</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>886</v>
+        <v>1187</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>886</v>
+        <v>1187</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40058,10 +40293,10 @@
         <v>1209</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>887</v>
+        <v>1188</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>887</v>
+        <v>1188</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40165,14 +40400,14 @@
         <v>1209</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>888</v>
+        <v>1189</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>888</v>
+        <v>1189</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
-        <v>889</v>
+        <v>75</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" t="s" s="2">
@@ -40191,18 +40426,20 @@
         <v>83</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>890</v>
+        <v>172</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>891</v>
+        <v>1190</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>892</v>
+        <v>1191</v>
       </c>
       <c r="O335" t="s" s="2">
-        <v>876</v>
-      </c>
-      <c r="P335" s="2"/>
+        <v>1192</v>
+      </c>
+      <c r="P335" t="s" s="2">
+        <v>1044</v>
+      </c>
       <c r="Q335" t="s" s="2">
         <v>75</v>
       </c>
@@ -40226,13 +40463,13 @@
         <v>75</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Z335" t="s" s="2">
-        <v>75</v>
+        <v>1193</v>
       </c>
       <c r="AA335" t="s" s="2">
-        <v>75</v>
+        <v>1194</v>
       </c>
       <c r="AB335" t="s" s="2">
         <v>75</v>
@@ -40250,7 +40487,7 @@
         <v>75</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>888</v>
+        <v>1189</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>82</v>
@@ -40270,10 +40507,10 @@
         <v>1209</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>893</v>
+        <v>1195</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>893</v>
+        <v>1195</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40293,19 +40530,23 @@
         <v>75</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>172</v>
+        <v>1196</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>894</v>
+        <v>1197</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="O336" s="2"/>
-      <c r="P336" s="2"/>
+        <v>1085</v>
+      </c>
+      <c r="O336" t="s" s="2">
+        <v>1198</v>
+      </c>
+      <c r="P336" t="s" s="2">
+        <v>1087</v>
+      </c>
       <c r="Q336" t="s" s="2">
         <v>75</v>
       </c>
@@ -40329,13 +40570,13 @@
         <v>75</v>
       </c>
       <c r="Y336" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z336" t="s" s="2">
-        <v>896</v>
+        <v>75</v>
       </c>
       <c r="AA336" t="s" s="2">
-        <v>897</v>
+        <v>75</v>
       </c>
       <c r="AB336" t="s" s="2">
         <v>75</v>
@@ -40353,7 +40594,7 @@
         <v>75</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>893</v>
+        <v>1195</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>76</v>
@@ -40373,10 +40614,10 @@
         <v>1209</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40399,16 +40640,20 @@
         <v>75</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>899</v>
+        <v>172</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>901</v>
-      </c>
-      <c r="O337" s="2"/>
-      <c r="P337" s="2"/>
+        <v>1201</v>
+      </c>
+      <c r="O337" t="s" s="2">
+        <v>1202</v>
+      </c>
+      <c r="P337" t="s" s="2">
+        <v>1095</v>
+      </c>
       <c r="Q337" t="s" s="2">
         <v>75</v>
       </c>
@@ -40432,13 +40677,13 @@
         <v>75</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z337" t="s" s="2">
-        <v>75</v>
+        <v>1096</v>
       </c>
       <c r="AA337" t="s" s="2">
-        <v>75</v>
+        <v>1097</v>
       </c>
       <c r="AB337" t="s" s="2">
         <v>75</v>
@@ -40456,7 +40701,7 @@
         <v>75</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>76</v>
@@ -40465,7 +40710,7 @@
         <v>82</v>
       </c>
       <c r="AJ337" t="s" s="2">
-        <v>75</v>
+        <v>1098</v>
       </c>
       <c r="AK337" t="s" s="2">
         <v>94</v>
@@ -40476,14 +40721,14 @@
         <v>1209</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>902</v>
+        <v>1203</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>902</v>
+        <v>1203</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
-        <v>75</v>
+        <v>1100</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" t="s" s="2">
@@ -40502,18 +40747,20 @@
         <v>75</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>903</v>
+        <v>172</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>904</v>
+        <v>1101</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>905</v>
+        <v>1102</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>906</v>
-      </c>
-      <c r="P338" s="2"/>
+        <v>1103</v>
+      </c>
+      <c r="P338" t="s" s="2">
+        <v>1104</v>
+      </c>
       <c r="Q338" t="s" s="2">
         <v>75</v>
       </c>
@@ -40537,13 +40784,13 @@
         <v>75</v>
       </c>
       <c r="Y338" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z338" t="s" s="2">
-        <v>75</v>
+        <v>1204</v>
       </c>
       <c r="AA338" t="s" s="2">
-        <v>75</v>
+        <v>1205</v>
       </c>
       <c r="AB338" t="s" s="2">
         <v>75</v>
@@ -40561,7 +40808,7 @@
         <v>75</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>902</v>
+        <v>1203</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>76</v>
@@ -40581,10 +40828,10 @@
         <v>1209</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>907</v>
+        <v>1206</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>907</v>
+        <v>1206</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40595,7 +40842,7 @@
         <v>76</v>
       </c>
       <c r="H339" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I339" t="s" s="2">
         <v>75</v>
@@ -40607,18 +40854,20 @@
         <v>75</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>908</v>
+        <v>1207</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>909</v>
+        <v>1208</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="P339" s="2"/>
+        <v>1135</v>
+      </c>
+      <c r="P339" t="s" s="2">
+        <v>1136</v>
+      </c>
       <c r="Q339" t="s" s="2">
         <v>75</v>
       </c>
@@ -40666,13 +40915,13 @@
         <v>75</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>907</v>
+        <v>1206</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI339" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ339" t="s" s="2">
         <v>75</v>
@@ -40683,24 +40932,24 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>911</v>
+        <v>759</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>911</v>
+        <v>759</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
-        <v>75</v>
+        <v>761</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H340" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I340" t="s" s="2">
         <v>75</v>
@@ -40712,13 +40961,13 @@
         <v>75</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>150</v>
+        <v>762</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>151</v>
+        <v>763</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
@@ -40769,13 +41018,13 @@
         <v>75</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>152</v>
+        <v>759</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI340" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ340" t="s" s="2">
         <v>75</v>
@@ -40786,24 +41035,24 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>912</v>
+        <v>764</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>912</v>
+        <v>764</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H341" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I341" t="s" s="2">
         <v>75</v>
@@ -40812,19 +41061,19 @@
         <v>75</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" t="s" s="2">
@@ -40874,66 +41123,62 @@
         <v>75</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI341" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ341" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK341" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>913</v>
+        <v>765</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>913</v>
+        <v>765</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H342" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I342" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K342" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O342" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P342" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O342" s="2"/>
+      <c r="P342" s="2"/>
       <c r="Q342" t="s" s="2">
         <v>75</v>
       </c>
@@ -40981,30 +41226,30 @@
         <v>75</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK342" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>914</v>
+        <v>766</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>914</v>
+        <v>766</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -41021,21 +41266,23 @@
         <v>75</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>915</v>
+        <v>97</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="O343" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O343" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P343" s="2"/>
       <c r="Q343" t="s" s="2">
         <v>75</v>
@@ -41084,7 +41331,7 @@
         <v>75</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>914</v>
+        <v>100</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>76</v>
@@ -41101,13 +41348,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>917</v>
+        <v>767</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>917</v>
+        <v>767</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41130,15 +41377,17 @@
         <v>75</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>918</v>
+        <v>102</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>919</v>
+        <v>103</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="O344" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="O344" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
         <v>75</v>
@@ -41163,13 +41412,13 @@
         <v>75</v>
       </c>
       <c r="Y344" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Z344" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AA344" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AB344" t="s" s="2">
         <v>75</v>
@@ -41187,7 +41436,7 @@
         <v>75</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>917</v>
+        <v>109</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>76</v>
@@ -41204,17 +41453,17 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>921</v>
+        <v>768</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>921</v>
+        <v>768</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" t="s" s="2">
@@ -41233,15 +41482,17 @@
         <v>75</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>922</v>
+        <v>113</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O345" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O345" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="P345" s="2"/>
       <c r="Q345" t="s" s="2">
         <v>75</v>
@@ -41266,13 +41517,13 @@
         <v>75</v>
       </c>
       <c r="Y345" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z345" t="s" s="2">
-        <v>924</v>
+        <v>75</v>
       </c>
       <c r="AA345" t="s" s="2">
-        <v>925</v>
+        <v>75</v>
       </c>
       <c r="AB345" t="s" s="2">
         <v>75</v>
@@ -41290,7 +41541,7 @@
         <v>75</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>921</v>
+        <v>116</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>76</v>
@@ -41307,24 +41558,24 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>926</v>
+        <v>769</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>926</v>
+        <v>769</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H346" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I346" t="s" s="2">
         <v>75</v>
@@ -41336,15 +41587,17 @@
         <v>75</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>927</v>
+        <v>120</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>928</v>
-      </c>
-      <c r="O346" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P346" s="2"/>
       <c r="Q346" t="s" s="2">
         <v>75</v>
@@ -41369,13 +41622,13 @@
         <v>75</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z346" t="s" s="2">
-        <v>929</v>
+        <v>75</v>
       </c>
       <c r="AA346" t="s" s="2">
-        <v>930</v>
+        <v>75</v>
       </c>
       <c r="AB346" t="s" s="2">
         <v>75</v>
@@ -41393,34 +41646,34 @@
         <v>75</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>926</v>
+        <v>123</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI346" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ346" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>931</v>
+        <v>770</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>931</v>
+        <v>770</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" t="s" s="2">
@@ -41439,20 +41692,18 @@
         <v>75</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>932</v>
+        <v>127</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>933</v>
+        <v>128</v>
       </c>
       <c r="O347" t="s" s="2">
-        <v>934</v>
-      </c>
-      <c r="P347" t="s" s="2">
-        <v>935</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P347" s="2"/>
       <c r="Q347" t="s" s="2">
         <v>75</v>
       </c>
@@ -41476,13 +41727,13 @@
         <v>75</v>
       </c>
       <c r="Y347" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z347" t="s" s="2">
-        <v>936</v>
+        <v>75</v>
       </c>
       <c r="AA347" t="s" s="2">
-        <v>937</v>
+        <v>75</v>
       </c>
       <c r="AB347" t="s" s="2">
         <v>75</v>
@@ -41500,7 +41751,7 @@
         <v>75</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>931</v>
+        <v>130</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>76</v>
@@ -41512,22 +41763,22 @@
         <v>75</v>
       </c>
       <c r="AK347" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>938</v>
+        <v>774</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>938</v>
+        <v>774</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" t="s" s="2">
@@ -41540,22 +41791,26 @@
         <v>75</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>75</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>939</v>
+        <v>133</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="O348" s="2"/>
-      <c r="P348" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O348" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P348" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q348" t="s" s="2">
         <v>75</v>
       </c>
@@ -41579,13 +41834,13 @@
         <v>75</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>941</v>
+        <v>75</v>
       </c>
       <c r="AA348" t="s" s="2">
-        <v>942</v>
+        <v>75</v>
       </c>
       <c r="AB348" t="s" s="2">
         <v>75</v>
@@ -41603,7 +41858,7 @@
         <v>75</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>938</v>
+        <v>136</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>76</v>
@@ -41615,18 +41870,18 @@
         <v>75</v>
       </c>
       <c r="AK348" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>943</v>
+        <v>775</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>943</v>
+        <v>775</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41646,16 +41901,16 @@
         <v>75</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>944</v>
+        <v>776</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>945</v>
+        <v>777</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -41682,13 +41937,13 @@
         <v>75</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z349" t="s" s="2">
-        <v>946</v>
+        <v>75</v>
       </c>
       <c r="AA349" t="s" s="2">
-        <v>947</v>
+        <v>75</v>
       </c>
       <c r="AB349" t="s" s="2">
         <v>75</v>
@@ -41706,7 +41961,7 @@
         <v>75</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>943</v>
+        <v>775</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>76</v>
@@ -41723,13 +41978,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>948</v>
+        <v>778</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>948</v>
+        <v>778</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41737,7 +41992,7 @@
       </c>
       <c r="F350" s="2"/>
       <c r="G350" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H350" t="s" s="2">
         <v>82</v>
@@ -41746,21 +42001,23 @@
         <v>75</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>918</v>
+        <v>102</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>949</v>
+        <v>779</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="O350" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="P350" s="2"/>
       <c r="Q350" t="s" s="2">
         <v>75</v>
@@ -41785,13 +42042,13 @@
         <v>75</v>
       </c>
       <c r="Y350" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Z350" t="s" s="2">
-        <v>75</v>
+        <v>782</v>
       </c>
       <c r="AA350" t="s" s="2">
-        <v>75</v>
+        <v>783</v>
       </c>
       <c r="AB350" t="s" s="2">
         <v>75</v>
@@ -41809,10 +42066,10 @@
         <v>75</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>948</v>
+        <v>778</v>
       </c>
       <c r="AH350" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI350" t="s" s="2">
         <v>82</v>
@@ -41826,13 +42083,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>951</v>
+        <v>784</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>951</v>
+        <v>784</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41843,7 +42100,7 @@
         <v>76</v>
       </c>
       <c r="H351" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I351" t="s" s="2">
         <v>75</v>
@@ -41855,15 +42112,17 @@
         <v>75</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>952</v>
+        <v>785</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="O351" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>787</v>
+      </c>
       <c r="P351" s="2"/>
       <c r="Q351" t="s" s="2">
         <v>75</v>
@@ -41888,13 +42147,13 @@
         <v>75</v>
       </c>
       <c r="Y351" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z351" t="s" s="2">
-        <v>954</v>
+        <v>75</v>
       </c>
       <c r="AA351" t="s" s="2">
-        <v>955</v>
+        <v>75</v>
       </c>
       <c r="AB351" t="s" s="2">
         <v>75</v>
@@ -41912,13 +42171,13 @@
         <v>75</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>951</v>
+        <v>784</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI351" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ351" t="s" s="2">
         <v>75</v>
@@ -41929,13 +42188,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>956</v>
+        <v>788</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>956</v>
+        <v>788</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41946,7 +42205,7 @@
         <v>76</v>
       </c>
       <c r="H352" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I352" t="s" s="2">
         <v>75</v>
@@ -41958,17 +42217,15 @@
         <v>75</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>957</v>
+        <v>150</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="O352" t="s" s="2">
-        <v>959</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" t="s" s="2">
         <v>75</v>
@@ -42017,41 +42274,41 @@
         <v>75</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>956</v>
+        <v>152</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK352" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>960</v>
+        <v>789</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>960</v>
+        <v>789</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H353" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I353" t="s" s="2">
         <v>75</v>
@@ -42063,15 +42320,17 @@
         <v>75</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O353" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P353" s="2"/>
       <c r="Q353" t="s" s="2">
         <v>75</v>
@@ -42120,34 +42379,34 @@
         <v>75</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK353" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>961</v>
+        <v>790</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>961</v>
+        <v>790</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" t="s" s="2">
@@ -42160,24 +42419,26 @@
         <v>75</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L354" t="s" s="2">
         <v>126</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="P354" s="2"/>
+      <c r="P354" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q354" t="s" s="2">
         <v>75</v>
       </c>
@@ -42225,7 +42486,7 @@
         <v>75</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>76</v>
@@ -42242,49 +42503,45 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>962</v>
+        <v>791</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>962</v>
+        <v>791</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H355" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I355" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>288</v>
+        <v>779</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O355" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P355" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="O355" s="2"/>
+      <c r="P355" s="2"/>
       <c r="Q355" t="s" s="2">
         <v>75</v>
       </c>
@@ -42308,13 +42565,13 @@
         <v>75</v>
       </c>
       <c r="Y355" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Z355" t="s" s="2">
-        <v>75</v>
+        <v>782</v>
       </c>
       <c r="AA355" t="s" s="2">
-        <v>75</v>
+        <v>783</v>
       </c>
       <c r="AB355" t="s" s="2">
         <v>75</v>
@@ -42332,30 +42589,30 @@
         <v>75</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>290</v>
+        <v>791</v>
       </c>
       <c r="AH355" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI355" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ355" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK355" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>963</v>
+        <v>792</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>963</v>
+        <v>792</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42378,13 +42635,13 @@
         <v>75</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>964</v>
+        <v>199</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>965</v>
+        <v>793</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>966</v>
+        <v>794</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -42435,7 +42692,7 @@
         <v>75</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>963</v>
+        <v>792</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>82</v>
@@ -42452,13 +42709,13 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>967</v>
+        <v>795</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>967</v>
+        <v>795</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42466,7 +42723,7 @@
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H357" t="s" s="2">
         <v>82</v>
@@ -42478,20 +42735,18 @@
         <v>75</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>102</v>
+        <v>796</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>968</v>
+        <v>797</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>969</v>
-      </c>
-      <c r="O357" t="s" s="2">
-        <v>970</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="O357" s="2"/>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
         <v>75</v>
@@ -42516,13 +42771,13 @@
         <v>75</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Z357" t="s" s="2">
-        <v>971</v>
+        <v>799</v>
       </c>
       <c r="AA357" t="s" s="2">
-        <v>972</v>
+        <v>800</v>
       </c>
       <c r="AB357" t="s" s="2">
         <v>75</v>
@@ -42540,10 +42795,10 @@
         <v>75</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>967</v>
+        <v>795</v>
       </c>
       <c r="AH357" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI357" t="s" s="2">
         <v>82</v>
@@ -42557,13 +42812,13 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>973</v>
+        <v>801</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>973</v>
+        <v>801</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42574,7 +42829,7 @@
         <v>76</v>
       </c>
       <c r="H358" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I358" t="s" s="2">
         <v>75</v>
@@ -42586,17 +42841,15 @@
         <v>75</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>974</v>
+        <v>802</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="O358" t="s" s="2">
-        <v>976</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="O358" s="2"/>
       <c r="P358" s="2"/>
       <c r="Q358" t="s" s="2">
         <v>75</v>
@@ -42621,13 +42874,13 @@
         <v>75</v>
       </c>
       <c r="Y358" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z358" t="s" s="2">
-        <v>977</v>
+        <v>75</v>
       </c>
       <c r="AA358" t="s" s="2">
-        <v>978</v>
+        <v>75</v>
       </c>
       <c r="AB358" t="s" s="2">
         <v>75</v>
@@ -42645,13 +42898,13 @@
         <v>75</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>973</v>
+        <v>801</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI358" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ358" t="s" s="2">
         <v>75</v>
@@ -42662,13 +42915,13 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>979</v>
+        <v>804</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>979</v>
+        <v>804</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -42691,13 +42944,13 @@
         <v>75</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>981</v>
+        <v>151</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" s="2"/>
@@ -42748,7 +43001,7 @@
         <v>75</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>979</v>
+        <v>152</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>76</v>
@@ -42760,29 +43013,29 @@
         <v>75</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>982</v>
+        <v>805</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>982</v>
+        <v>805</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H360" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I360" t="s" s="2">
         <v>75</v>
@@ -42794,15 +43047,17 @@
         <v>75</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>983</v>
+        <v>127</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="O360" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O360" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P360" s="2"/>
       <c r="Q360" t="s" s="2">
         <v>75</v>
@@ -42851,64 +43106,66 @@
         <v>75</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>982</v>
+        <v>159</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ360" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK360" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>985</v>
+        <v>806</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>985</v>
+        <v>806</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H361" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I361" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>986</v>
+        <v>288</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>987</v>
+        <v>289</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="P361" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="P361" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q361" t="s" s="2">
         <v>75</v>
       </c>
@@ -42956,18 +43213,5327 @@
         <v>75</v>
       </c>
       <c r="AG361" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH361" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ361" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK361" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="C362" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="D362" s="2"/>
+      <c r="E362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F362" s="2"/>
+      <c r="G362" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="O362" s="2"/>
+      <c r="P362" s="2"/>
+      <c r="Q362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R362" s="2"/>
+      <c r="S362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG362" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="AH362" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI362" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK362" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="C363" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F363" s="2"/>
+      <c r="G363" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="O363" s="2"/>
+      <c r="P363" s="2"/>
+      <c r="Q363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R363" s="2"/>
+      <c r="S363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG363" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AH363" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI363" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK363" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="C364" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="D364" s="2"/>
+      <c r="E364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F364" s="2"/>
+      <c r="G364" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="N364" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="O364" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="P364" s="2"/>
+      <c r="Q364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R364" s="2"/>
+      <c r="S364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG364" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AH364" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK364" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="C365" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="D365" s="2"/>
+      <c r="E365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F365" s="2"/>
+      <c r="G365" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="N365" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="O365" s="2"/>
+      <c r="P365" s="2"/>
+      <c r="Q365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R365" s="2"/>
+      <c r="S365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG365" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="AH365" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI365" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK365" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="C366" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F366" s="2"/>
+      <c r="G366" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="O366" s="2"/>
+      <c r="P366" s="2"/>
+      <c r="Q366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R366" s="2"/>
+      <c r="S366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG366" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AH366" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI366" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK366" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="C367" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="D367" s="2"/>
+      <c r="E367" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="F367" s="2"/>
+      <c r="G367" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="P367" s="2"/>
+      <c r="Q367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R367" s="2"/>
+      <c r="S367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG367" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="AH367" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI367" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK367" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="C368" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="D368" s="2"/>
+      <c r="E368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F368" s="2"/>
+      <c r="G368" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="O368" s="2"/>
+      <c r="P368" s="2"/>
+      <c r="Q368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R368" s="2"/>
+      <c r="S368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG368" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AH368" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK368" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="C369" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="D369" s="2"/>
+      <c r="E369" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="F369" s="2"/>
+      <c r="G369" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="O369" s="2"/>
+      <c r="P369" s="2"/>
+      <c r="Q369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R369" s="2"/>
+      <c r="S369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG369" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="AH369" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="C370" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="D370" s="2"/>
+      <c r="E370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F370" s="2"/>
+      <c r="G370" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="O370" s="2"/>
+      <c r="P370" s="2"/>
+      <c r="Q370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R370" s="2"/>
+      <c r="S370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="C371" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="D371" s="2"/>
+      <c r="E371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F371" s="2"/>
+      <c r="G371" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O371" s="2"/>
+      <c r="P371" s="2"/>
+      <c r="Q371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R371" s="2"/>
+      <c r="S371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="C372" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="D372" s="2"/>
+      <c r="E372" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F372" s="2"/>
+      <c r="G372" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P372" s="2"/>
+      <c r="Q372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R372" s="2"/>
+      <c r="S372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="C373" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F373" s="2"/>
+      <c r="G373" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O373" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P373" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R373" s="2"/>
+      <c r="S373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK373" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="C374" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="D374" s="2"/>
+      <c r="E374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F374" s="2"/>
+      <c r="G374" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="O374" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="P374" s="2"/>
+      <c r="Q374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R374" s="2"/>
+      <c r="S374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="C375" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F375" s="2"/>
+      <c r="G375" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="O375" s="2"/>
+      <c r="P375" s="2"/>
+      <c r="Q375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R375" s="2"/>
+      <c r="S375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="C376" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="D376" s="2"/>
+      <c r="E376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F376" s="2"/>
+      <c r="G376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="N376" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="O376" s="2"/>
+      <c r="P376" s="2"/>
+      <c r="Q376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R376" s="2"/>
+      <c r="S376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="C377" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="D377" s="2"/>
+      <c r="E377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F377" s="2"/>
+      <c r="G377" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="N377" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="O377" s="2"/>
+      <c r="P377" s="2"/>
+      <c r="Q377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R377" s="2"/>
+      <c r="S377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK377" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="C378" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="D378" s="2"/>
+      <c r="E378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F378" s="2"/>
+      <c r="G378" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="O378" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="P378" s="2"/>
+      <c r="Q378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R378" s="2"/>
+      <c r="S378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG378" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="AH378" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI378" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK378" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="C379" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="D379" s="2"/>
+      <c r="E379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F379" s="2"/>
+      <c r="G379" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="P379" s="2"/>
+      <c r="Q379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R379" s="2"/>
+      <c r="S379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG379" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AH379" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI379" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK379" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="C380" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="D380" s="2"/>
+      <c r="E380" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="F380" s="2"/>
+      <c r="G380" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N380" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="O380" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="P380" s="2"/>
+      <c r="Q380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R380" s="2"/>
+      <c r="S380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG380" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="AH380" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK380" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="C381" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="D381" s="2"/>
+      <c r="E381" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="F381" s="2"/>
+      <c r="G381" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N381" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="O381" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="P381" s="2"/>
+      <c r="Q381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R381" s="2"/>
+      <c r="S381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG381" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="AH381" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK381" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="C382" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="D382" s="2"/>
+      <c r="E382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F382" s="2"/>
+      <c r="G382" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="N382" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="O382" s="2"/>
+      <c r="P382" s="2"/>
+      <c r="Q382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R382" s="2"/>
+      <c r="S382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG382" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="AH382" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK382" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="C383" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="D383" s="2"/>
+      <c r="E383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F383" s="2"/>
+      <c r="G383" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M383" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N383" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O383" s="2"/>
+      <c r="P383" s="2"/>
+      <c r="Q383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R383" s="2"/>
+      <c r="S383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG383" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH383" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI383" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK383" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="C384" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="D384" s="2"/>
+      <c r="E384" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F384" s="2"/>
+      <c r="G384" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O384" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P384" s="2"/>
+      <c r="Q384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R384" s="2"/>
+      <c r="S384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG384" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH384" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK384" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B385" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="C385" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="D385" s="2"/>
+      <c r="E385" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F385" s="2"/>
+      <c r="G385" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J385" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P385" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R385" s="2"/>
+      <c r="S385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG385" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH385" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK385" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B386" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="C386" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="D386" s="2"/>
+      <c r="E386" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="F386" s="2"/>
+      <c r="G386" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H386" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K386" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L386" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N386" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="O386" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="P386" s="2"/>
+      <c r="Q386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R386" s="2"/>
+      <c r="S386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG386" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="AH386" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI386" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK386" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B387" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="C387" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="D387" s="2"/>
+      <c r="E387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F387" s="2"/>
+      <c r="G387" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H387" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L387" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="N387" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="O387" s="2"/>
+      <c r="P387" s="2"/>
+      <c r="Q387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R387" s="2"/>
+      <c r="S387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y387" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z387" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="AA387" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG387" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="AH387" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI387" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK387" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B388" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="C388" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="D388" s="2"/>
+      <c r="E388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F388" s="2"/>
+      <c r="G388" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L388" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="M388" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="N388" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="O388" s="2"/>
+      <c r="P388" s="2"/>
+      <c r="Q388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R388" s="2"/>
+      <c r="S388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG388" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="AH388" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI388" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK388" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B389" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="C389" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="D389" s="2"/>
+      <c r="E389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F389" s="2"/>
+      <c r="G389" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L389" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="N389" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="O389" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="P389" s="2"/>
+      <c r="Q389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R389" s="2"/>
+      <c r="S389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG389" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="AH389" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK389" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B390" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="C390" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="D390" s="2"/>
+      <c r="E390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F390" s="2"/>
+      <c r="G390" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H390" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L390" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="N390" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="O390" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="P390" s="2"/>
+      <c r="Q390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R390" s="2"/>
+      <c r="S390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG390" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="AH390" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI390" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK390" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B391" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="C391" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="D391" s="2"/>
+      <c r="E391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F391" s="2"/>
+      <c r="G391" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H391" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O391" s="2"/>
+      <c r="P391" s="2"/>
+      <c r="Q391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R391" s="2"/>
+      <c r="S391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG391" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH391" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI391" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK391" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B392" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="C392" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="D392" s="2"/>
+      <c r="E392" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F392" s="2"/>
+      <c r="G392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N392" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O392" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P392" s="2"/>
+      <c r="Q392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R392" s="2"/>
+      <c r="S392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG392" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK392" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B393" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="C393" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="D393" s="2"/>
+      <c r="E393" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F393" s="2"/>
+      <c r="G393" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J393" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K393" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L393" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M393" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N393" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O393" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P393" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R393" s="2"/>
+      <c r="S393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG393" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH393" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK393" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B394" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="C394" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="D394" s="2"/>
+      <c r="E394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F394" s="2"/>
+      <c r="G394" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="O394" s="2"/>
+      <c r="P394" s="2"/>
+      <c r="Q394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R394" s="2"/>
+      <c r="S394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG394" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="AH394" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI394" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK394" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B395" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="C395" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F395" s="2"/>
+      <c r="G395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="O395" s="2"/>
+      <c r="P395" s="2"/>
+      <c r="Q395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R395" s="2"/>
+      <c r="S395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG395" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="AH395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI395" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK395" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B396" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="C396" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="D396" s="2"/>
+      <c r="E396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F396" s="2"/>
+      <c r="G396" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M396" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N396" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="O396" s="2"/>
+      <c r="P396" s="2"/>
+      <c r="Q396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R396" s="2"/>
+      <c r="S396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG396" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="AH396" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI396" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK396" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B397" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="C397" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="D397" s="2"/>
+      <c r="E397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F397" s="2"/>
+      <c r="G397" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H397" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M397" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N397" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="O397" s="2"/>
+      <c r="P397" s="2"/>
+      <c r="Q397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R397" s="2"/>
+      <c r="S397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y397" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z397" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="AA397" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="AB397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG397" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="AH397" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI397" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK397" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B398" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="C398" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="D398" s="2"/>
+      <c r="E398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F398" s="2"/>
+      <c r="G398" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L398" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="N398" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="O398" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="P398" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="Q398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R398" s="2"/>
+      <c r="S398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y398" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z398" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="AA398" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="AB398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG398" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AH398" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK398" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B399" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="C399" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="D399" s="2"/>
+      <c r="E399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F399" s="2"/>
+      <c r="G399" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="N399" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="O399" s="2"/>
+      <c r="P399" s="2"/>
+      <c r="Q399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R399" s="2"/>
+      <c r="S399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y399" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z399" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="AA399" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="AB399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG399" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="AH399" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK399" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B400" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="C400" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="D400" s="2"/>
+      <c r="E400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F400" s="2"/>
+      <c r="G400" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="N400" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="O400" s="2"/>
+      <c r="P400" s="2"/>
+      <c r="Q400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R400" s="2"/>
+      <c r="S400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y400" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z400" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="AA400" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="AB400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG400" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="AH400" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK400" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B401" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="C401" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="D401" s="2"/>
+      <c r="E401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F401" s="2"/>
+      <c r="G401" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H401" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="N401" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="O401" s="2"/>
+      <c r="P401" s="2"/>
+      <c r="Q401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R401" s="2"/>
+      <c r="S401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG401" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="AH401" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI401" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK401" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B402" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="C402" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="D402" s="2"/>
+      <c r="E402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F402" s="2"/>
+      <c r="G402" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H402" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L402" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="N402" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="O402" s="2"/>
+      <c r="P402" s="2"/>
+      <c r="Q402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R402" s="2"/>
+      <c r="S402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y402" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z402" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="AA402" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="AB402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG402" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="AH402" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI402" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK402" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B403" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="C403" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="D403" s="2"/>
+      <c r="E403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F403" s="2"/>
+      <c r="G403" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L403" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="N403" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="O403" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="P403" s="2"/>
+      <c r="Q403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R403" s="2"/>
+      <c r="S403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG403" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AH403" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK403" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B404" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="C404" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="D404" s="2"/>
+      <c r="E404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F404" s="2"/>
+      <c r="G404" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H404" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L404" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M404" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N404" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O404" s="2"/>
+      <c r="P404" s="2"/>
+      <c r="Q404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R404" s="2"/>
+      <c r="S404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG404" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH404" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI404" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK404" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B405" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="C405" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="D405" s="2"/>
+      <c r="E405" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F405" s="2"/>
+      <c r="G405" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L405" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M405" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N405" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O405" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P405" s="2"/>
+      <c r="Q405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R405" s="2"/>
+      <c r="S405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG405" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH405" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK405" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B406" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="C406" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="D406" s="2"/>
+      <c r="E406" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F406" s="2"/>
+      <c r="G406" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J406" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K406" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L406" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M406" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N406" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O406" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P406" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R406" s="2"/>
+      <c r="S406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG406" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH406" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK406" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B407" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="C407" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="D407" s="2"/>
+      <c r="E407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F407" s="2"/>
+      <c r="G407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L407" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="M407" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="N407" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="O407" s="2"/>
+      <c r="P407" s="2"/>
+      <c r="Q407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R407" s="2"/>
+      <c r="S407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG407" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="AH407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK407" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B408" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="C408" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="D408" s="2"/>
+      <c r="E408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F408" s="2"/>
+      <c r="G408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H408" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L408" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M408" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="N408" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="O408" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="P408" s="2"/>
+      <c r="Q408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R408" s="2"/>
+      <c r="S408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y408" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Z408" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="AA408" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="AB408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG408" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="AH408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI408" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK408" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B409" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="C409" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="D409" s="2"/>
+      <c r="E409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F409" s="2"/>
+      <c r="G409" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H409" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L409" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M409" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="N409" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="O409" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="P409" s="2"/>
+      <c r="Q409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R409" s="2"/>
+      <c r="S409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y409" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z409" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="AA409" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="AB409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG409" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="AH409" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI409" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK409" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B410" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="C410" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F410" s="2"/>
+      <c r="G410" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H410" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L410" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="N410" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
+      <c r="Q410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R410" s="2"/>
+      <c r="S410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG410" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="AH410" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI410" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK410" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B411" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="C411" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="D411" s="2"/>
+      <c r="E411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F411" s="2"/>
+      <c r="G411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="N411" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="O411" s="2"/>
+      <c r="P411" s="2"/>
+      <c r="Q411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R411" s="2"/>
+      <c r="S411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG411" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="AH411" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK411" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B412" t="s" s="2">
         <v>985</v>
       </c>
-      <c r="AH361" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI361" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ361" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK361" t="s" s="2">
+      <c r="C412" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="D412" s="2"/>
+      <c r="E412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F412" s="2"/>
+      <c r="G412" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M412" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="N412" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="O412" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="P412" s="2"/>
+      <c r="Q412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R412" s="2"/>
+      <c r="S412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG412" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="AH412" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI412" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK412" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:42:24+00:00</t>
+    <t>2023-02-10T06:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:43:03+00:00</t>
+    <t>2023-02-10T07:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3791,7 +3791,7 @@
     <t>Date HIV Test Done</t>
   </si>
   <si>
-    <t>This profile is to record the Date when HIV was done for a patient</t>
+    <t>This profile is to record the Date when HIV test was done for a patient</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:04+00:00</t>
+    <t>2023-02-10T07:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:16+00:00</t>
+    <t>2023-02-10T13:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:37+00:00</t>
+    <t>2023-02-10T13:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:53:42+00:00</t>
+    <t>2023-02-10T13:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:54:21+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -48,7 +48,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ARVCarePlan</t>
+    <t>ARV Treatment</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:00:13+00:00</t>
+    <t>2023-02-13T07:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile allows the exchange of a patient's ARV treatment</t>
+    <t>This profile is to record prescribed ARV regimen against a given therapeutic line</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -3872,19 +3872,19 @@
 Refer to the Notes section in the Patient resource for further details.</t>
   </si>
   <si>
-    <t>viral-load-suppression</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/viral-load-suppression</t>
-  </si>
-  <si>
-    <t>ViralLoadSuppression</t>
-  </si>
-  <si>
-    <t>Viral Load Suppression</t>
-  </si>
-  <si>
-    <t>This profile is to record a Viral Load Suppression observation for a patient</t>
+    <t>death</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/death</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Patient Death</t>
+  </si>
+  <si>
+    <t>This profile is to record the death of a patient observation</t>
   </si>
   <si>
     <t>Observation</t>
@@ -4046,7 +4046,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-result-code</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-death</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -4159,396 +4159,414 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for this observation</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>Observation.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
+</t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+  </si>
+  <si>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low</t>
+  </si>
+  <si>
+    <t>Low Range, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-3
+</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high</t>
+  </si>
+  <si>
+    <t>High Range, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.type</t>
+  </si>
+  <si>
+    <t>Reference range qualifier</t>
+  </si>
+  <si>
+    <t>Codes to indicate the what part of the targeted reference population it applies to. For example, the normal or therapeutic range.</t>
+  </si>
+  <si>
+    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
+  </si>
+  <si>
+    <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
+  </si>
+  <si>
+    <t>Code for the meaning of a reference range.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.appliesTo</t>
+  </si>
+  <si>
+    <t>Reference range population</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
+  </si>
+  <si>
+    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
+  </si>
+  <si>
+    <t>Need to be able to identify the target population for proper interpretation.</t>
+  </si>
+  <si>
+    <t>Codes identifying the population the reference range applies to.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range
+</t>
+  </si>
+  <si>
+    <t>Applicable age range, if relevant</t>
+  </si>
+  <si>
+    <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
+  </si>
+  <si>
+    <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.text</t>
+  </si>
+  <si>
+    <t>Text based reference range in an observation</t>
+  </si>
+  <si>
+    <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
+  </si>
+  <si>
+    <t>Observation.hasMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+</t>
+  </si>
+  <si>
+    <t>Related resource that belongs to the Observation group</t>
+  </si>
+  <si>
+    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+  </si>
+  <si>
+    <t>Observation.derivedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+</t>
+  </si>
+  <si>
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
+  </si>
+  <si>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+  </si>
+  <si>
+    <t>Observation.component</t>
+  </si>
+  <si>
+    <t>Component results</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
+  </si>
+  <si>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
+  </si>
+  <si>
+    <t>Observation.component.id</t>
+  </si>
+  <si>
+    <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.code</t>
+  </si>
+  <si>
+    <t>Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Actual component result</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Observation.component.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the component result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation of component result</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>viral-load-suppression</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/viral-load-suppression</t>
+  </si>
+  <si>
+    <t>ViralLoadSuppression</t>
+  </si>
+  <si>
+    <t>Viral Load Suppression</t>
+  </si>
+  <si>
+    <t>This profile is to record a Viral Load Suppression observation for a patient</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-result-code</t>
+  </si>
+  <si>
     <t xml:space="preserve">integer
 </t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueInteger</t>
   </si>
   <si>
     <t>valueInteger</t>
   </si>
   <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
     <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-suppression</t>
   </si>
   <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>Observation.method</t>
-  </si>
-  <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
-  </si>
-  <si>
-    <t>Observation.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
-  </si>
-  <si>
-    <t>Observation.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
-</t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
-  </si>
-  <si>
-    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.low</t>
-  </si>
-  <si>
-    <t>Low Range, if relevant</t>
-  </si>
-  <si>
-    <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-3
-</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.high</t>
-  </si>
-  <si>
-    <t>High Range, if relevant</t>
-  </si>
-  <si>
-    <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.type</t>
-  </si>
-  <si>
-    <t>Reference range qualifier</t>
-  </si>
-  <si>
-    <t>Codes to indicate the what part of the targeted reference population it applies to. For example, the normal or therapeutic range.</t>
-  </si>
-  <si>
-    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
-  </si>
-  <si>
-    <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
-  </si>
-  <si>
-    <t>Code for the meaning of a reference range.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo</t>
-  </si>
-  <si>
-    <t>Reference range population</t>
-  </si>
-  <si>
-    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
-  </si>
-  <si>
-    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
-  </si>
-  <si>
-    <t>Need to be able to identify the target population for proper interpretation.</t>
-  </si>
-  <si>
-    <t>Codes identifying the population the reference range applies to.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range
-</t>
-  </si>
-  <si>
-    <t>Applicable age range, if relevant</t>
-  </si>
-  <si>
-    <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
-  </si>
-  <si>
-    <t>Some analytes vary greatly over age.</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.text</t>
-  </si>
-  <si>
-    <t>Text based reference range in an observation</t>
-  </si>
-  <si>
-    <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
-  </si>
-  <si>
-    <t>Observation.hasMember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
-</t>
-  </si>
-  <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
-  </si>
-  <si>
-    <t>Observation.derivedFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
-</t>
-  </si>
-  <si>
-    <t>Related measurements the observation is made from</t>
-  </si>
-  <si>
-    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
-  </si>
-  <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
-  </si>
-  <si>
-    <t>Observation.component</t>
-  </si>
-  <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t>Observation.component.id</t>
-  </si>
-  <si>
-    <t>Observation.component.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.code</t>
-  </si>
-  <si>
-    <t>Type of component observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>Observation.component.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the component result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation of component result</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
     <t>art-regimen-line</t>
   </si>
   <si>
@@ -4565,24 +4583,6 @@
   </si>
   <si>
     <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-artregimen-lines</t>
-  </si>
-  <si>
-    <t>date-hiv-test-done</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/date-hiv-test-done</t>
-  </si>
-  <si>
-    <t>DateHIVTestDone</t>
-  </si>
-  <si>
-    <t>Date HIV Test Done</t>
-  </si>
-  <si>
-    <t>This profile is to record the Date when HIV test was done for a patient</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-test-done</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>
@@ -5896,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="152">
@@ -5904,7 +5904,7 @@
         <v>4</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="153">
@@ -5920,7 +5920,7 @@
         <v>8</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="155">
@@ -5928,7 +5928,7 @@
         <v>10</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>308</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="156">
@@ -5982,7 +5982,7 @@
         <v>23</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>308</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="163">
@@ -6010,7 +6010,7 @@
         <v>29</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>816</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167">
@@ -6018,7 +6018,7 @@
         <v>31</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>301</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="168">
@@ -6026,7 +6026,7 @@
         <v>33</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>817</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="169">
@@ -6046,173 +6046,173 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>819</v>
+      <c r="A171" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B172" t="s" s="1">
-        <v>1</v>
+      <c r="A172" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>1464</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>1465</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>7</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>1466</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>1467</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B179" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>22</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>1468</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B186" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>28</v>
+        <v>816</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>30</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>1246</v>
+        <v>817</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>1247</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>37</v>
+        <v>818</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>38</v>
+        <v>819</v>
       </c>
     </row>
     <row r="193">
@@ -40032,7 +40032,7 @@
       </c>
       <c r="F321" s="2"/>
       <c r="G321" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H321" t="s" s="2">
         <v>83</v>
@@ -40096,14 +40096,16 @@
         <v>78</v>
       </c>
       <c r="AC321" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AD321" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD321" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE321" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>1332</v>
@@ -40129,17 +40131,15 @@
         <v>1339</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1332</v>
-      </c>
-      <c r="D322" t="s" s="2">
-        <v>1340</v>
-      </c>
+        <v>1339</v>
+      </c>
+      <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H322" t="s" s="2">
         <v>83</v>
@@ -40151,22 +40151,22 @@
         <v>78</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>1333</v>
+        <v>183</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="O322" t="s" s="2">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="P322" t="s" s="2">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="Q322" t="s" s="2">
         <v>78</v>
@@ -40191,13 +40191,13 @@
         <v>78</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z322" t="s" s="2">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="AA322" t="s" s="2">
-        <v>78</v>
+        <v>1345</v>
       </c>
       <c r="AB322" t="s" s="2">
         <v>78</v>
@@ -40215,7 +40215,7 @@
         <v>78</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>1332</v>
+        <v>1339</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>76</v>
@@ -40224,7 +40224,7 @@
         <v>83</v>
       </c>
       <c r="AJ322" t="s" s="2">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="AK322" t="s" s="2">
         <v>95</v>
@@ -40235,21 +40235,21 @@
         <v>1241</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H323" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I323" t="s" s="2">
         <v>78</v>
@@ -40264,16 +40264,16 @@
         <v>183</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="O323" t="s" s="2">
-        <v>1344</v>
+        <v>1351</v>
       </c>
       <c r="P323" t="s" s="2">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="Q323" t="s" s="2">
         <v>78</v>
@@ -40301,37 +40301,37 @@
         <v>449</v>
       </c>
       <c r="Z323" t="s" s="2">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="AA323" t="s" s="2">
+        <v>1354</v>
+      </c>
+      <c r="AB323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG323" t="s" s="2">
         <v>1347</v>
       </c>
-      <c r="AB323" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC323" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD323" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE323" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF323" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG323" t="s" s="2">
-        <v>1341</v>
-      </c>
       <c r="AH323" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI323" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>1348</v>
+        <v>78</v>
       </c>
       <c r="AK323" t="s" s="2">
         <v>95</v>
@@ -40342,21 +40342,21 @@
         <v>1241</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
-        <v>1350</v>
+        <v>78</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H324" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I324" t="s" s="2">
         <v>78</v>
@@ -40368,19 +40368,19 @@
         <v>78</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="O324" t="s" s="2">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="P324" t="s" s="2">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="Q324" t="s" s="2">
         <v>78</v>
@@ -40405,29 +40405,31 @@
         <v>78</v>
       </c>
       <c r="Y324" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z324" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Z324" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AA324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG324" t="s" s="2">
         <v>1355</v>
-      </c>
-      <c r="AB324" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC324" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD324" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE324" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF324" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG324" t="s" s="2">
-        <v>1349</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>76</v>
@@ -40447,10 +40449,10 @@
         <v>1241</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -40473,20 +40475,18 @@
         <v>78</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="O325" t="s" s="2">
-        <v>1359</v>
-      </c>
-      <c r="P325" t="s" s="2">
-        <v>1360</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="P325" s="2"/>
       <c r="Q325" t="s" s="2">
         <v>78</v>
       </c>
@@ -40510,13 +40510,13 @@
         <v>78</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z325" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="AA325" t="s" s="2">
-        <v>78</v>
+        <v>516</v>
       </c>
       <c r="AB325" t="s" s="2">
         <v>78</v>
@@ -40534,13 +40534,13 @@
         <v>78</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI325" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ325" t="s" s="2">
         <v>78</v>
@@ -40554,10 +40554,10 @@
         <v>1241</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -40583,15 +40583,17 @@
         <v>183</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="O326" t="s" s="2">
-        <v>1364</v>
-      </c>
-      <c r="P326" s="2"/>
+        <v>1367</v>
+      </c>
+      <c r="P326" t="s" s="2">
+        <v>1368</v>
+      </c>
       <c r="Q326" t="s" s="2">
         <v>78</v>
       </c>
@@ -40618,10 +40620,10 @@
         <v>188</v>
       </c>
       <c r="Z326" t="s" s="2">
-        <v>515</v>
+        <v>1369</v>
       </c>
       <c r="AA326" t="s" s="2">
-        <v>516</v>
+        <v>1370</v>
       </c>
       <c r="AB326" t="s" s="2">
         <v>78</v>
@@ -40639,7 +40641,7 @@
         <v>78</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>76</v>
@@ -40659,10 +40661,10 @@
         <v>1241</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -40685,20 +40687,18 @@
         <v>78</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>183</v>
+        <v>1372</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1366</v>
+        <v>1373</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="O327" t="s" s="2">
-        <v>1368</v>
-      </c>
-      <c r="P327" t="s" s="2">
-        <v>1369</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="P327" s="2"/>
       <c r="Q327" t="s" s="2">
         <v>78</v>
       </c>
@@ -40722,31 +40722,31 @@
         <v>78</v>
       </c>
       <c r="Y327" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z327" t="s" s="2">
-        <v>1370</v>
+        <v>78</v>
       </c>
       <c r="AA327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG327" t="s" s="2">
         <v>1371</v>
-      </c>
-      <c r="AB327" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC327" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD327" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE327" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF327" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG327" t="s" s="2">
-        <v>1365</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>76</v>
@@ -40766,10 +40766,10 @@
         <v>1241</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -40792,16 +40792,16 @@
         <v>78</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="O328" t="s" s="2">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="P328" s="2"/>
       <c r="Q328" t="s" s="2">
@@ -40851,7 +40851,7 @@
         <v>78</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>76</v>
@@ -40871,10 +40871,10 @@
         <v>1241</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -40885,7 +40885,7 @@
         <v>76</v>
       </c>
       <c r="H329" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I329" t="s" s="2">
         <v>78</v>
@@ -40897,18 +40897,20 @@
         <v>78</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>1378</v>
+        <v>254</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>1381</v>
-      </c>
-      <c r="P329" s="2"/>
+        <v>1384</v>
+      </c>
+      <c r="P329" t="s" s="2">
+        <v>1385</v>
+      </c>
       <c r="Q329" t="s" s="2">
         <v>78</v>
       </c>
@@ -40956,19 +40958,19 @@
         <v>78</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI329" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ329" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK329" t="s" s="2">
-        <v>95</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="330">
@@ -40976,10 +40978,10 @@
         <v>1241</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -40990,7 +40992,7 @@
         <v>76</v>
       </c>
       <c r="H330" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I330" t="s" s="2">
         <v>78</v>
@@ -41002,20 +41004,16 @@
         <v>78</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1383</v>
+        <v>260</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1384</v>
-      </c>
-      <c r="O330" t="s" s="2">
-        <v>1385</v>
-      </c>
-      <c r="P330" t="s" s="2">
-        <v>1386</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O330" s="2"/>
+      <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
         <v>78</v>
       </c>
@@ -41063,19 +41061,19 @@
         <v>78</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1382</v>
+        <v>262</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI330" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ330" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>1387</v>
+        <v>78</v>
       </c>
     </row>
     <row r="331">
@@ -41090,14 +41088,14 @@
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H331" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I331" t="s" s="2">
         <v>78</v>
@@ -41109,15 +41107,17 @@
         <v>78</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O331" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O331" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
         <v>78</v>
@@ -41166,19 +41166,19 @@
         <v>78</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI331" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ331" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK331" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="332">
@@ -41193,7 +41193,7 @@
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" t="s" s="2">
@@ -41206,24 +41206,26 @@
         <v>78</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L332" t="s" s="2">
         <v>127</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="P332" s="2"/>
+      <c r="P332" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q332" t="s" s="2">
         <v>78</v>
       </c>
@@ -41271,7 +41273,7 @@
         <v>78</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>76</v>
@@ -41298,39 +41300,35 @@
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H333" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I333" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>127</v>
+        <v>390</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>268</v>
+        <v>1391</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O333" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P333" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>1392</v>
+      </c>
+      <c r="O333" s="2"/>
+      <c r="P333" s="2"/>
       <c r="Q333" t="s" s="2">
         <v>78</v>
       </c>
@@ -41378,19 +41376,19 @@
         <v>78</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>270</v>
+        <v>1390</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI333" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ333" t="s" s="2">
-        <v>78</v>
+        <v>1393</v>
       </c>
       <c r="AK333" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="334">
@@ -41398,10 +41396,10 @@
         <v>1241</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -41427,10 +41425,10 @@
         <v>390</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
@@ -41481,7 +41479,7 @@
         <v>78</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>76</v>
@@ -41490,7 +41488,7 @@
         <v>83</v>
       </c>
       <c r="AJ334" t="s" s="2">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="AK334" t="s" s="2">
         <v>95</v>
@@ -41501,10 +41499,10 @@
         <v>1241</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -41527,16 +41525,20 @@
         <v>78</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>390</v>
+        <v>183</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>1397</v>
-      </c>
-      <c r="O335" s="2"/>
-      <c r="P335" s="2"/>
+        <v>1399</v>
+      </c>
+      <c r="O335" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="P335" t="s" s="2">
+        <v>1401</v>
+      </c>
       <c r="Q335" t="s" s="2">
         <v>78</v>
       </c>
@@ -41560,13 +41562,13 @@
         <v>78</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z335" t="s" s="2">
-        <v>78</v>
+        <v>1402</v>
       </c>
       <c r="AA335" t="s" s="2">
-        <v>78</v>
+        <v>1403</v>
       </c>
       <c r="AB335" t="s" s="2">
         <v>78</v>
@@ -41584,7 +41586,7 @@
         <v>78</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>76</v>
@@ -41593,7 +41595,7 @@
         <v>83</v>
       </c>
       <c r="AJ335" t="s" s="2">
-        <v>1394</v>
+        <v>78</v>
       </c>
       <c r="AK335" t="s" s="2">
         <v>95</v>
@@ -41604,10 +41606,10 @@
         <v>1241</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -41618,7 +41620,7 @@
         <v>76</v>
       </c>
       <c r="H336" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I336" t="s" s="2">
         <v>78</v>
@@ -41633,16 +41635,16 @@
         <v>183</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="O336" t="s" s="2">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="P336" t="s" s="2">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="Q336" t="s" s="2">
         <v>78</v>
@@ -41667,37 +41669,37 @@
         <v>78</v>
       </c>
       <c r="Y336" t="s" s="2">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="Z336" t="s" s="2">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="AA336" t="s" s="2">
+        <v>1410</v>
+      </c>
+      <c r="AB336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG336" t="s" s="2">
         <v>1404</v>
       </c>
-      <c r="AB336" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC336" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD336" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE336" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF336" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG336" t="s" s="2">
-        <v>1398</v>
-      </c>
       <c r="AH336" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI336" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ336" t="s" s="2">
         <v>78</v>
@@ -41711,10 +41713,10 @@
         <v>1241</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -41725,7 +41727,7 @@
         <v>76</v>
       </c>
       <c r="H337" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I337" t="s" s="2">
         <v>78</v>
@@ -41737,19 +41739,17 @@
         <v>78</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>183</v>
+        <v>1412</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1406</v>
+        <v>1413</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1407</v>
-      </c>
-      <c r="O337" t="s" s="2">
-        <v>1408</v>
-      </c>
+        <v>1414</v>
+      </c>
+      <c r="O337" s="2"/>
       <c r="P337" t="s" s="2">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="Q337" t="s" s="2">
         <v>78</v>
@@ -41774,37 +41774,37 @@
         <v>78</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z337" t="s" s="2">
-        <v>1410</v>
+        <v>78</v>
       </c>
       <c r="AA337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG337" t="s" s="2">
         <v>1411</v>
       </c>
-      <c r="AB337" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC337" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD337" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE337" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF337" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG337" t="s" s="2">
-        <v>1405</v>
-      </c>
       <c r="AH337" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI337" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ337" t="s" s="2">
         <v>78</v>
@@ -41818,10 +41818,10 @@
         <v>1241</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -41844,18 +41844,16 @@
         <v>78</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>1413</v>
+        <v>192</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="O338" s="2"/>
-      <c r="P338" t="s" s="2">
-        <v>1416</v>
-      </c>
+      <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
         <v>78</v>
       </c>
@@ -41903,7 +41901,7 @@
         <v>78</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>76</v>
@@ -41923,10 +41921,10 @@
         <v>1241</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -41937,7 +41935,7 @@
         <v>76</v>
       </c>
       <c r="H339" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I339" t="s" s="2">
         <v>78</v>
@@ -41946,18 +41944,20 @@
         <v>78</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>192</v>
+        <v>1420</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1419</v>
-      </c>
-      <c r="O339" s="2"/>
+        <v>1422</v>
+      </c>
+      <c r="O339" t="s" s="2">
+        <v>1423</v>
+      </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
         <v>78</v>
@@ -42006,13 +42006,13 @@
         <v>78</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI339" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ339" t="s" s="2">
         <v>78</v>
@@ -42026,10 +42026,10 @@
         <v>1241</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -42052,16 +42052,16 @@
         <v>84</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
@@ -42111,7 +42111,7 @@
         <v>78</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>76</v>
@@ -42131,10 +42131,10 @@
         <v>1241</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -42157,18 +42157,20 @@
         <v>84</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1426</v>
+        <v>254</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>1429</v>
-      </c>
-      <c r="P341" s="2"/>
+        <v>1432</v>
+      </c>
+      <c r="P341" t="s" s="2">
+        <v>1433</v>
+      </c>
       <c r="Q341" t="s" s="2">
         <v>78</v>
       </c>
@@ -42216,7 +42218,7 @@
         <v>78</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>76</v>
@@ -42236,10 +42238,10 @@
         <v>1241</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -42250,7 +42252,7 @@
         <v>76</v>
       </c>
       <c r="H342" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I342" t="s" s="2">
         <v>78</v>
@@ -42259,23 +42261,19 @@
         <v>78</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1431</v>
+        <v>260</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1432</v>
-      </c>
-      <c r="O342" t="s" s="2">
-        <v>1433</v>
-      </c>
-      <c r="P342" t="s" s="2">
-        <v>1434</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O342" s="2"/>
+      <c r="P342" s="2"/>
       <c r="Q342" t="s" s="2">
         <v>78</v>
       </c>
@@ -42323,19 +42321,19 @@
         <v>78</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1430</v>
+        <v>262</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK342" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="343">
@@ -42350,14 +42348,14 @@
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F343" s="2"/>
       <c r="G343" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H343" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I343" t="s" s="2">
         <v>78</v>
@@ -42369,15 +42367,17 @@
         <v>78</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O343" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O343" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P343" s="2"/>
       <c r="Q343" t="s" s="2">
         <v>78</v>
@@ -42426,19 +42426,19 @@
         <v>78</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="344">
@@ -42453,7 +42453,7 @@
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="F344" s="2"/>
       <c r="G344" t="s" s="2">
@@ -42466,24 +42466,26 @@
         <v>78</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L344" t="s" s="2">
         <v>127</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="P344" s="2"/>
+      <c r="P344" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q344" t="s" s="2">
         <v>78</v>
       </c>
@@ -42531,7 +42533,7 @@
         <v>78</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>76</v>
@@ -42558,38 +42560,38 @@
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H345" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I345" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K345" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>268</v>
+        <v>1438</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>269</v>
+        <v>1439</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>130</v>
+        <v>1440</v>
       </c>
       <c r="P345" t="s" s="2">
-        <v>136</v>
+        <v>1296</v>
       </c>
       <c r="Q345" t="s" s="2">
         <v>78</v>
@@ -42614,13 +42616,13 @@
         <v>78</v>
       </c>
       <c r="Y345" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z345" t="s" s="2">
-        <v>78</v>
+        <v>1441</v>
       </c>
       <c r="AA345" t="s" s="2">
-        <v>78</v>
+        <v>1442</v>
       </c>
       <c r="AB345" t="s" s="2">
         <v>78</v>
@@ -42638,19 +42640,19 @@
         <v>78</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>270</v>
+        <v>1437</v>
       </c>
       <c r="AH345" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI345" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ345" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK345" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="346">
@@ -42658,10 +42660,10 @@
         <v>1241</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -42669,7 +42671,7 @@
       </c>
       <c r="F346" s="2"/>
       <c r="G346" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H346" t="s" s="2">
         <v>83</v>
@@ -42684,19 +42686,19 @@
         <v>84</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>183</v>
+        <v>1333</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1440</v>
+        <v>1335</v>
       </c>
       <c r="O346" t="s" s="2">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="P346" t="s" s="2">
-        <v>1296</v>
+        <v>1337</v>
       </c>
       <c r="Q346" t="s" s="2">
         <v>78</v>
@@ -42721,34 +42723,34 @@
         <v>78</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z346" t="s" s="2">
-        <v>1442</v>
+        <v>78</v>
       </c>
       <c r="AA346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG346" t="s" s="2">
         <v>1443</v>
       </c>
-      <c r="AB346" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC346" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD346" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE346" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF346" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG346" t="s" s="2">
-        <v>1438</v>
-      </c>
       <c r="AH346" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI346" t="s" s="2">
         <v>83</v>
@@ -42765,10 +42767,10 @@
         <v>1241</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -42788,22 +42790,22 @@
         <v>78</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>1445</v>
+        <v>183</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1335</v>
+        <v>1448</v>
       </c>
       <c r="O347" t="s" s="2">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="P347" t="s" s="2">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="Q347" t="s" s="2">
         <v>78</v>
@@ -42828,13 +42830,13 @@
         <v>78</v>
       </c>
       <c r="Y347" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z347" t="s" s="2">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="AA347" t="s" s="2">
-        <v>78</v>
+        <v>1345</v>
       </c>
       <c r="AB347" t="s" s="2">
         <v>78</v>
@@ -42852,7 +42854,7 @@
         <v>78</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>76</v>
@@ -42861,7 +42863,7 @@
         <v>83</v>
       </c>
       <c r="AJ347" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AK347" t="s" s="2">
         <v>95</v>
@@ -42872,21 +42874,21 @@
         <v>1241</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H348" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I348" t="s" s="2">
         <v>78</v>
@@ -42901,16 +42903,16 @@
         <v>183</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>1449</v>
+        <v>1349</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="O348" t="s" s="2">
-        <v>1451</v>
+        <v>1351</v>
       </c>
       <c r="P348" t="s" s="2">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="Q348" t="s" s="2">
         <v>78</v>
@@ -42938,10 +42940,10 @@
         <v>449</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="AA348" t="s" s="2">
-        <v>1347</v>
+        <v>1354</v>
       </c>
       <c r="AB348" t="s" s="2">
         <v>78</v>
@@ -42959,16 +42961,16 @@
         <v>78</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI348" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ348" t="s" s="2">
-        <v>1348</v>
+        <v>78</v>
       </c>
       <c r="AK348" t="s" s="2">
         <v>95</v>
@@ -42979,14 +42981,14 @@
         <v>1241</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
-        <v>1350</v>
+        <v>78</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" t="s" s="2">
@@ -43005,19 +43007,19 @@
         <v>78</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1351</v>
+        <v>1452</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1352</v>
+        <v>1453</v>
       </c>
       <c r="O349" t="s" s="2">
-        <v>1353</v>
+        <v>1384</v>
       </c>
       <c r="P349" t="s" s="2">
-        <v>1354</v>
+        <v>1385</v>
       </c>
       <c r="Q349" t="s" s="2">
         <v>78</v>
@@ -43042,13 +43044,13 @@
         <v>78</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z349" t="s" s="2">
-        <v>1453</v>
+        <v>78</v>
       </c>
       <c r="AA349" t="s" s="2">
-        <v>1454</v>
+        <v>78</v>
       </c>
       <c r="AB349" t="s" s="2">
         <v>78</v>
@@ -43066,7 +43068,7 @@
         <v>78</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>76</v>
@@ -43083,17 +43085,17 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1241</v>
+        <v>1454</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1455</v>
+        <v>1246</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1455</v>
+        <v>1246</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
-        <v>78</v>
+        <v>1248</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" t="s" s="2">
@@ -43115,17 +43117,15 @@
         <v>79</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1456</v>
+        <v>1249</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1457</v>
+        <v>1250</v>
       </c>
       <c r="O350" t="s" s="2">
-        <v>1385</v>
-      </c>
-      <c r="P350" t="s" s="2">
-        <v>1386</v>
-      </c>
+        <v>1251</v>
+      </c>
+      <c r="P350" s="2"/>
       <c r="Q350" t="s" s="2">
         <v>78</v>
       </c>
@@ -43173,7 +43173,7 @@
         <v>78</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>1455</v>
+        <v>1246</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>76</v>
@@ -43185,18 +43185,18 @@
         <v>78</v>
       </c>
       <c r="AK350" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>301</v>
+        <v>1252</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>301</v>
+        <v>1252</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -43207,7 +43207,7 @@
         <v>76</v>
       </c>
       <c r="H351" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I351" t="s" s="2">
         <v>78</v>
@@ -43216,18 +43216,20 @@
         <v>78</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O351" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P351" s="2"/>
       <c r="Q351" t="s" s="2">
         <v>78</v>
@@ -43276,16 +43278,16 @@
         <v>78</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI351" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ351" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AK351" t="s" s="2">
         <v>78</v>
@@ -43293,13 +43295,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>820</v>
+        <v>1253</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>820</v>
+        <v>1253</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -43319,16 +43321,16 @@
         <v>78</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
@@ -43379,7 +43381,7 @@
         <v>78</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>76</v>
@@ -43391,18 +43393,18 @@
         <v>78</v>
       </c>
       <c r="AK352" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>821</v>
+        <v>1254</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>821</v>
+        <v>1254</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -43413,27 +43415,29 @@
         <v>76</v>
       </c>
       <c r="H353" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I353" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O353" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="P353" s="2"/>
       <c r="Q353" t="s" s="2">
         <v>78</v>
@@ -43470,42 +43474,42 @@
         <v>78</v>
       </c>
       <c r="AC353" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AD353" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="AE353" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF353" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK353" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>822</v>
+        <v>1255</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>822</v>
+        <v>1255</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -43513,7 +43517,7 @@
       </c>
       <c r="F354" s="2"/>
       <c r="G354" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H354" t="s" s="2">
         <v>83</v>
@@ -43528,16 +43532,16 @@
         <v>78</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>823</v>
+        <v>104</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>824</v>
+        <v>105</v>
       </c>
       <c r="O354" t="s" s="2">
-        <v>825</v>
+        <v>106</v>
       </c>
       <c r="P354" s="2"/>
       <c r="Q354" t="s" s="2">
@@ -43545,7 +43549,7 @@
       </c>
       <c r="R354" s="2"/>
       <c r="S354" t="s" s="2">
-        <v>1459</v>
+        <v>78</v>
       </c>
       <c r="T354" t="s" s="2">
         <v>78</v>
@@ -43563,13 +43567,13 @@
         <v>78</v>
       </c>
       <c r="Y354" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z354" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AA354" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AB354" t="s" s="2">
         <v>78</v>
@@ -43587,10 +43591,10 @@
         <v>78</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>822</v>
+        <v>110</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI354" t="s" s="2">
         <v>83</v>
@@ -43599,22 +43603,22 @@
         <v>78</v>
       </c>
       <c r="AK354" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>826</v>
+        <v>1256</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>826</v>
+        <v>1256</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" t="s" s="2">
@@ -43633,15 +43637,17 @@
         <v>78</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>827</v>
+        <v>114</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="O355" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O355" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P355" s="2"/>
       <c r="Q355" t="s" s="2">
         <v>78</v>
@@ -43678,17 +43684,19 @@
         <v>78</v>
       </c>
       <c r="AC355" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AD355" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE355" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF355" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>826</v>
+        <v>117</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>76</v>
@@ -43705,26 +43713,24 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1461</v>
+        <v>1257</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="D356" t="s" s="2">
-        <v>1462</v>
-      </c>
+        <v>1257</v>
+      </c>
+      <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H356" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I356" t="s" s="2">
         <v>78</v>
@@ -43736,15 +43742,17 @@
         <v>78</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>827</v>
+        <v>121</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="O356" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O356" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P356" s="2"/>
       <c r="Q356" t="s" s="2">
         <v>78</v>
@@ -43769,11 +43777,13 @@
         <v>78</v>
       </c>
       <c r="Y356" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z356" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AA356" t="s" s="2">
-        <v>1463</v>
+        <v>78</v>
       </c>
       <c r="AB356" t="s" s="2">
         <v>78</v>
@@ -43791,34 +43801,34 @@
         <v>78</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>826</v>
+        <v>124</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI356" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ356" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK356" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
-        <v>1248</v>
+        <v>126</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
@@ -43837,16 +43847,16 @@
         <v>78</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1249</v>
+        <v>128</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1250</v>
+        <v>129</v>
       </c>
       <c r="O357" t="s" s="2">
-        <v>1251</v>
+        <v>130</v>
       </c>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
@@ -43896,7 +43906,7 @@
         <v>78</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1246</v>
+        <v>131</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>76</v>
@@ -43908,52 +43918,54 @@
         <v>78</v>
       </c>
       <c r="AK357" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H358" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I358" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="O358" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P358" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="P358" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q358" t="s" s="2">
         <v>78</v>
       </c>
@@ -44001,30 +44013,30 @@
         <v>78</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI358" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ358" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK358" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -44035,7 +44047,7 @@
         <v>76</v>
       </c>
       <c r="H359" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I359" t="s" s="2">
         <v>78</v>
@@ -44047,16 +44059,18 @@
         <v>84</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>92</v>
+        <v>1261</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>93</v>
+        <v>1262</v>
       </c>
       <c r="O359" s="2"/>
-      <c r="P359" s="2"/>
+      <c r="P359" t="s" s="2">
+        <v>1263</v>
+      </c>
       <c r="Q359" t="s" s="2">
         <v>78</v>
       </c>
@@ -44104,13 +44118,13 @@
         <v>78</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>94</v>
+        <v>1260</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ359" t="s" s="2">
         <v>78</v>
@@ -44121,47 +44135,47 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1254</v>
+        <v>1264</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1254</v>
+        <v>1264</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
-        <v>78</v>
+        <v>1265</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H360" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I360" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K360" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>97</v>
+        <v>1266</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>98</v>
+        <v>1267</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O360" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="P360" s="2"/>
+        <v>1268</v>
+      </c>
+      <c r="O360" s="2"/>
+      <c r="P360" t="s" s="2">
+        <v>1269</v>
+      </c>
       <c r="Q360" t="s" s="2">
         <v>78</v>
       </c>
@@ -44209,13 +44223,13 @@
         <v>78</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>101</v>
+        <v>1264</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ360" t="s" s="2">
         <v>78</v>
@@ -44226,24 +44240,24 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
-        <v>78</v>
+        <v>1271</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H361" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I361" t="s" s="2">
         <v>78</v>
@@ -44252,19 +44266,19 @@
         <v>78</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>103</v>
+        <v>1272</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>104</v>
+        <v>1273</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>105</v>
+        <v>1274</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>106</v>
+        <v>1275</v>
       </c>
       <c r="P361" s="2"/>
       <c r="Q361" t="s" s="2">
@@ -44290,13 +44304,13 @@
         <v>78</v>
       </c>
       <c r="Y361" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z361" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AA361" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AB361" t="s" s="2">
         <v>78</v>
@@ -44314,13 +44328,13 @@
         <v>78</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>110</v>
+        <v>1270</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>78</v>
@@ -44331,21 +44345,21 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1256</v>
+        <v>1276</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1256</v>
+        <v>1276</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F362" s="2"/>
       <c r="G362" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H362" t="s" s="2">
         <v>83</v>
@@ -44354,24 +44368,26 @@
         <v>78</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>114</v>
+        <v>1277</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>115</v>
+        <v>1278</v>
       </c>
       <c r="O362" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P362" s="2"/>
+        <v>1279</v>
+      </c>
+      <c r="P362" t="s" s="2">
+        <v>1280</v>
+      </c>
       <c r="Q362" t="s" s="2">
         <v>78</v>
       </c>
@@ -44380,7 +44396,7 @@
         <v>78</v>
       </c>
       <c r="T362" t="s" s="2">
-        <v>78</v>
+        <v>1281</v>
       </c>
       <c r="U362" t="s" s="2">
         <v>78</v>
@@ -44395,13 +44411,13 @@
         <v>78</v>
       </c>
       <c r="Y362" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z362" t="s" s="2">
-        <v>78</v>
+        <v>1282</v>
       </c>
       <c r="AA362" t="s" s="2">
-        <v>78</v>
+        <v>1283</v>
       </c>
       <c r="AB362" t="s" s="2">
         <v>78</v>
@@ -44419,10 +44435,10 @@
         <v>78</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>117</v>
+        <v>1276</v>
       </c>
       <c r="AH362" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI362" t="s" s="2">
         <v>83</v>
@@ -44436,17 +44452,17 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1257</v>
+        <v>1284</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1257</v>
+        <v>1284</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" t="s" s="2">
@@ -44465,18 +44481,20 @@
         <v>78</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>121</v>
+        <v>1285</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>122</v>
+        <v>1286</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="P363" s="2"/>
+        <v>1287</v>
+      </c>
+      <c r="P363" t="s" s="2">
+        <v>1288</v>
+      </c>
       <c r="Q363" t="s" s="2">
         <v>78</v>
       </c>
@@ -44500,13 +44518,13 @@
         <v>78</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z363" t="s" s="2">
-        <v>78</v>
+        <v>1289</v>
       </c>
       <c r="AA363" t="s" s="2">
-        <v>78</v>
+        <v>1290</v>
       </c>
       <c r="AB363" t="s" s="2">
         <v>78</v>
@@ -44524,7 +44542,7 @@
         <v>78</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>124</v>
+        <v>1284</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>76</v>
@@ -44536,29 +44554,29 @@
         <v>78</v>
       </c>
       <c r="AK363" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1258</v>
+        <v>1291</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1258</v>
+        <v>1291</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
-        <v>126</v>
+        <v>1292</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H364" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I364" t="s" s="2">
         <v>78</v>
@@ -44567,21 +44585,23 @@
         <v>78</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>128</v>
+        <v>1293</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>129</v>
+        <v>1294</v>
       </c>
       <c r="O364" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P364" s="2"/>
+        <v>1295</v>
+      </c>
+      <c r="P364" t="s" s="2">
+        <v>1296</v>
+      </c>
       <c r="Q364" t="s" s="2">
         <v>78</v>
       </c>
@@ -44605,13 +44625,11 @@
         <v>78</v>
       </c>
       <c r="Y364" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z364" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Z364" s="2"/>
       <c r="AA364" t="s" s="2">
-        <v>78</v>
+        <v>1459</v>
       </c>
       <c r="AB364" t="s" s="2">
         <v>78</v>
@@ -44629,65 +44647,65 @@
         <v>78</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>131</v>
+        <v>1291</v>
       </c>
       <c r="AH364" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI364" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ364" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK364" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1259</v>
+        <v>1298</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1259</v>
+        <v>1298</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F365" s="2"/>
       <c r="G365" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H365" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I365" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K365" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K365" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="L365" t="s" s="2">
-        <v>127</v>
+        <v>1299</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>134</v>
+        <v>1300</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>135</v>
+        <v>1301</v>
       </c>
       <c r="O365" t="s" s="2">
-        <v>130</v>
+        <v>1302</v>
       </c>
       <c r="P365" t="s" s="2">
-        <v>136</v>
+        <v>1303</v>
       </c>
       <c r="Q365" t="s" s="2">
         <v>78</v>
@@ -44736,30 +44754,30 @@
         <v>78</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>137</v>
+        <v>1298</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI365" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ365" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK365" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1260</v>
+        <v>1304</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1260</v>
+        <v>1304</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -44782,18 +44800,18 @@
         <v>84</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1261</v>
+        <v>1305</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1262</v>
-      </c>
-      <c r="O366" s="2"/>
-      <c r="P366" t="s" s="2">
-        <v>1263</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="O366" t="s" s="2">
+        <v>1307</v>
+      </c>
+      <c r="P366" s="2"/>
       <c r="Q366" t="s" s="2">
         <v>78</v>
       </c>
@@ -44841,7 +44859,7 @@
         <v>78</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1260</v>
+        <v>1304</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>76</v>
@@ -44858,24 +44876,24 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1264</v>
+        <v>1308</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1264</v>
+        <v>1308</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
-        <v>1265</v>
+        <v>1309</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H367" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I367" t="s" s="2">
         <v>78</v>
@@ -44887,17 +44905,19 @@
         <v>84</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1266</v>
+        <v>205</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1267</v>
+        <v>1310</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1268</v>
-      </c>
-      <c r="O367" s="2"/>
+        <v>1311</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>1312</v>
+      </c>
       <c r="P367" t="s" s="2">
-        <v>1269</v>
+        <v>1313</v>
       </c>
       <c r="Q367" t="s" s="2">
         <v>78</v>
@@ -44946,13 +44966,13 @@
         <v>78</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1264</v>
+        <v>1308</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI367" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ367" t="s" s="2">
         <v>78</v>
@@ -44963,24 +44983,24 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1270</v>
+        <v>1314</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1270</v>
+        <v>1314</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
-        <v>1271</v>
+        <v>1315</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H368" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I368" t="s" s="2">
         <v>78</v>
@@ -44992,18 +45012,20 @@
         <v>84</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>1272</v>
+        <v>218</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1273</v>
+        <v>1316</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1274</v>
+        <v>1317</v>
       </c>
       <c r="O368" t="s" s="2">
-        <v>1275</v>
-      </c>
-      <c r="P368" s="2"/>
+        <v>1318</v>
+      </c>
+      <c r="P368" t="s" s="2">
+        <v>1319</v>
+      </c>
       <c r="Q368" t="s" s="2">
         <v>78</v>
       </c>
@@ -45039,25 +45061,23 @@
         <v>78</v>
       </c>
       <c r="AC368" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD368" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AD368" s="2"/>
       <c r="AE368" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF368" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1270</v>
+        <v>1314</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI368" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ368" t="s" s="2">
         <v>78</v>
@@ -45068,17 +45088,19 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1276</v>
+        <v>1320</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1276</v>
-      </c>
-      <c r="D369" s="2"/>
+        <v>1314</v>
+      </c>
+      <c r="D369" t="s" s="2">
+        <v>1321</v>
+      </c>
       <c r="E369" t="s" s="2">
-        <v>78</v>
+        <v>1315</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" t="s" s="2">
@@ -45091,25 +45113,25 @@
         <v>78</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K369" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>1277</v>
+        <v>1316</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>1278</v>
+        <v>1317</v>
       </c>
       <c r="O369" t="s" s="2">
-        <v>1279</v>
+        <v>1318</v>
       </c>
       <c r="P369" t="s" s="2">
-        <v>1280</v>
+        <v>1319</v>
       </c>
       <c r="Q369" t="s" s="2">
         <v>78</v>
@@ -45119,7 +45141,7 @@
         <v>78</v>
       </c>
       <c r="T369" t="s" s="2">
-        <v>1281</v>
+        <v>78</v>
       </c>
       <c r="U369" t="s" s="2">
         <v>78</v>
@@ -45134,13 +45156,13 @@
         <v>78</v>
       </c>
       <c r="Y369" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Z369" t="s" s="2">
-        <v>1282</v>
+        <v>78</v>
       </c>
       <c r="AA369" t="s" s="2">
-        <v>1283</v>
+        <v>78</v>
       </c>
       <c r="AB369" t="s" s="2">
         <v>78</v>
@@ -45158,10 +45180,10 @@
         <v>78</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>1276</v>
+        <v>1314</v>
       </c>
       <c r="AH369" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI369" t="s" s="2">
         <v>83</v>
@@ -45175,13 +45197,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1284</v>
+        <v>1322</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1284</v>
+        <v>1322</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -45192,7 +45214,7 @@
         <v>76</v>
       </c>
       <c r="H370" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I370" t="s" s="2">
         <v>78</v>
@@ -45201,23 +45223,21 @@
         <v>78</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>183</v>
+        <v>1323</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>1285</v>
+        <v>1324</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>1286</v>
+        <v>1325</v>
       </c>
       <c r="O370" t="s" s="2">
-        <v>1287</v>
-      </c>
-      <c r="P370" t="s" s="2">
-        <v>1288</v>
-      </c>
+        <v>1326</v>
+      </c>
+      <c r="P370" s="2"/>
       <c r="Q370" t="s" s="2">
         <v>78</v>
       </c>
@@ -45241,13 +45261,13 @@
         <v>78</v>
       </c>
       <c r="Y370" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z370" t="s" s="2">
-        <v>1289</v>
+        <v>78</v>
       </c>
       <c r="AA370" t="s" s="2">
-        <v>1290</v>
+        <v>78</v>
       </c>
       <c r="AB370" t="s" s="2">
         <v>78</v>
@@ -45265,13 +45285,13 @@
         <v>78</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>1284</v>
+        <v>1322</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ370" t="s" s="2">
         <v>78</v>
@@ -45282,24 +45302,24 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1291</v>
+        <v>1327</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1291</v>
+        <v>1327</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
-        <v>1292</v>
+        <v>78</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H371" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I371" t="s" s="2">
         <v>78</v>
@@ -45311,19 +45331,17 @@
         <v>84</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>183</v>
+        <v>1328</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>1293</v>
+        <v>1329</v>
       </c>
       <c r="N371" t="s" s="2">
-        <v>1294</v>
-      </c>
-      <c r="O371" t="s" s="2">
-        <v>1295</v>
-      </c>
+        <v>1330</v>
+      </c>
+      <c r="O371" s="2"/>
       <c r="P371" t="s" s="2">
-        <v>1296</v>
+        <v>1331</v>
       </c>
       <c r="Q371" t="s" s="2">
         <v>78</v>
@@ -45348,11 +45366,13 @@
         <v>78</v>
       </c>
       <c r="Y371" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z371" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AA371" t="s" s="2">
-        <v>1469</v>
+        <v>78</v>
       </c>
       <c r="AB371" t="s" s="2">
         <v>78</v>
@@ -45370,13 +45390,13 @@
         <v>78</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>1291</v>
+        <v>1327</v>
       </c>
       <c r="AH371" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI371" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ371" t="s" s="2">
         <v>78</v>
@@ -45387,13 +45407,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1298</v>
+        <v>1332</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1298</v>
+        <v>1332</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -45416,19 +45436,19 @@
         <v>84</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1299</v>
+        <v>1460</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1300</v>
+        <v>1334</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1301</v>
+        <v>1335</v>
       </c>
       <c r="O372" t="s" s="2">
-        <v>1302</v>
+        <v>1336</v>
       </c>
       <c r="P372" t="s" s="2">
-        <v>1303</v>
+        <v>1337</v>
       </c>
       <c r="Q372" t="s" s="2">
         <v>78</v>
@@ -45465,19 +45485,17 @@
         <v>78</v>
       </c>
       <c r="AC372" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD372" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AD372" s="2"/>
       <c r="AE372" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF372" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1298</v>
+        <v>1332</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>76</v>
@@ -45486,7 +45504,7 @@
         <v>83</v>
       </c>
       <c r="AJ372" t="s" s="2">
-        <v>78</v>
+        <v>1338</v>
       </c>
       <c r="AK372" t="s" s="2">
         <v>95</v>
@@ -45494,24 +45512,26 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1304</v>
+        <v>1461</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1304</v>
-      </c>
-      <c r="D373" s="2"/>
+        <v>1332</v>
+      </c>
+      <c r="D373" t="s" s="2">
+        <v>1462</v>
+      </c>
       <c r="E373" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F373" s="2"/>
       <c r="G373" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H373" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I373" t="s" s="2">
         <v>78</v>
@@ -45523,18 +45543,20 @@
         <v>84</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>242</v>
+        <v>1460</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1305</v>
+        <v>1334</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1306</v>
+        <v>1335</v>
       </c>
       <c r="O373" t="s" s="2">
-        <v>1307</v>
-      </c>
-      <c r="P373" s="2"/>
+        <v>1336</v>
+      </c>
+      <c r="P373" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="Q373" t="s" s="2">
         <v>78</v>
       </c>
@@ -45582,16 +45604,16 @@
         <v>78</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1304</v>
+        <v>1332</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI373" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ373" t="s" s="2">
-        <v>78</v>
+        <v>1338</v>
       </c>
       <c r="AK373" t="s" s="2">
         <v>95</v>
@@ -45599,21 +45621,21 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1308</v>
+        <v>1339</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1308</v>
+        <v>1339</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
-        <v>1309</v>
+        <v>78</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H374" t="s" s="2">
         <v>83</v>
@@ -45625,22 +45647,22 @@
         <v>78</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1310</v>
+        <v>1340</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1311</v>
+        <v>1341</v>
       </c>
       <c r="O374" t="s" s="2">
-        <v>1312</v>
+        <v>1342</v>
       </c>
       <c r="P374" t="s" s="2">
-        <v>1313</v>
+        <v>1343</v>
       </c>
       <c r="Q374" t="s" s="2">
         <v>78</v>
@@ -45665,13 +45687,13 @@
         <v>78</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z374" t="s" s="2">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="AA374" t="s" s="2">
-        <v>78</v>
+        <v>1345</v>
       </c>
       <c r="AB374" t="s" s="2">
         <v>78</v>
@@ -45689,7 +45711,7 @@
         <v>78</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1308</v>
+        <v>1339</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>76</v>
@@ -45698,7 +45720,7 @@
         <v>83</v>
       </c>
       <c r="AJ374" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AK374" t="s" s="2">
         <v>95</v>
@@ -45706,24 +45728,24 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1314</v>
+        <v>1347</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1314</v>
+        <v>1347</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
-        <v>1315</v>
+        <v>1348</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H375" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I375" t="s" s="2">
         <v>78</v>
@@ -45732,22 +45754,22 @@
         <v>78</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1316</v>
+        <v>1349</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>1317</v>
+        <v>1350</v>
       </c>
       <c r="O375" t="s" s="2">
-        <v>1318</v>
+        <v>1351</v>
       </c>
       <c r="P375" t="s" s="2">
-        <v>1319</v>
+        <v>1352</v>
       </c>
       <c r="Q375" t="s" s="2">
         <v>78</v>
@@ -45772,35 +45794,35 @@
         <v>78</v>
       </c>
       <c r="Y375" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z375" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Z375" s="2"/>
       <c r="AA375" t="s" s="2">
-        <v>78</v>
+        <v>1463</v>
       </c>
       <c r="AB375" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC375" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AD375" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE375" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF375" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1314</v>
+        <v>1347</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI375" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ375" t="s" s="2">
         <v>78</v>
@@ -45811,23 +45833,21 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1320</v>
+        <v>1355</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1314</v>
-      </c>
-      <c r="D376" t="s" s="2">
-        <v>1321</v>
-      </c>
+        <v>1355</v>
+      </c>
+      <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
-        <v>1315</v>
+        <v>78</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H376" t="s" s="2">
         <v>83</v>
@@ -45839,22 +45859,22 @@
         <v>78</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>1316</v>
+        <v>1356</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>1317</v>
+        <v>1357</v>
       </c>
       <c r="O376" t="s" s="2">
-        <v>1318</v>
+        <v>1358</v>
       </c>
       <c r="P376" t="s" s="2">
-        <v>1319</v>
+        <v>1359</v>
       </c>
       <c r="Q376" t="s" s="2">
         <v>78</v>
@@ -45903,13 +45923,13 @@
         <v>78</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>1314</v>
+        <v>1355</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI376" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ376" t="s" s="2">
         <v>78</v>
@@ -45920,13 +45940,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1322</v>
+        <v>1360</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1322</v>
+        <v>1360</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -45946,19 +45966,19 @@
         <v>78</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>1323</v>
+        <v>183</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>1324</v>
+        <v>1361</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>1325</v>
+        <v>1362</v>
       </c>
       <c r="O377" t="s" s="2">
-        <v>1326</v>
+        <v>1363</v>
       </c>
       <c r="P377" s="2"/>
       <c r="Q377" t="s" s="2">
@@ -45984,13 +46004,13 @@
         <v>78</v>
       </c>
       <c r="Y377" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z377" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="AA377" t="s" s="2">
-        <v>78</v>
+        <v>516</v>
       </c>
       <c r="AB377" t="s" s="2">
         <v>78</v>
@@ -46008,7 +46028,7 @@
         <v>78</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>1322</v>
+        <v>1360</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>76</v>
@@ -46025,13 +46045,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1327</v>
+        <v>1364</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1327</v>
+        <v>1364</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -46042,7 +46062,7 @@
         <v>76</v>
       </c>
       <c r="H378" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I378" t="s" s="2">
         <v>78</v>
@@ -46051,20 +46071,22 @@
         <v>78</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>1328</v>
+        <v>183</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>1329</v>
+        <v>1365</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>1330</v>
-      </c>
-      <c r="O378" s="2"/>
+        <v>1366</v>
+      </c>
+      <c r="O378" t="s" s="2">
+        <v>1367</v>
+      </c>
       <c r="P378" t="s" s="2">
-        <v>1331</v>
+        <v>1368</v>
       </c>
       <c r="Q378" t="s" s="2">
         <v>78</v>
@@ -46089,13 +46111,13 @@
         <v>78</v>
       </c>
       <c r="Y378" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z378" t="s" s="2">
-        <v>78</v>
+        <v>1369</v>
       </c>
       <c r="AA378" t="s" s="2">
-        <v>78</v>
+        <v>1370</v>
       </c>
       <c r="AB378" t="s" s="2">
         <v>78</v>
@@ -46113,13 +46135,13 @@
         <v>78</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>1327</v>
+        <v>1364</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI378" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ378" t="s" s="2">
         <v>78</v>
@@ -46130,13 +46152,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1332</v>
+        <v>1371</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1332</v>
+        <v>1371</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -46156,23 +46178,21 @@
         <v>78</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>1445</v>
+        <v>1372</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1334</v>
+        <v>1373</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1335</v>
+        <v>1374</v>
       </c>
       <c r="O379" t="s" s="2">
-        <v>1336</v>
-      </c>
-      <c r="P379" t="s" s="2">
-        <v>1337</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="P379" s="2"/>
       <c r="Q379" t="s" s="2">
         <v>78</v>
       </c>
@@ -46220,7 +46240,7 @@
         <v>78</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1332</v>
+        <v>1371</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>76</v>
@@ -46229,7 +46249,7 @@
         <v>83</v>
       </c>
       <c r="AJ379" t="s" s="2">
-        <v>1338</v>
+        <v>78</v>
       </c>
       <c r="AK379" t="s" s="2">
         <v>95</v>
@@ -46237,13 +46257,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1341</v>
+        <v>1376</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1341</v>
+        <v>1376</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -46266,20 +46286,18 @@
         <v>78</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>183</v>
+        <v>1377</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>1342</v>
+        <v>1378</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>1343</v>
+        <v>1379</v>
       </c>
       <c r="O380" t="s" s="2">
-        <v>1344</v>
-      </c>
-      <c r="P380" t="s" s="2">
-        <v>1345</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="P380" s="2"/>
       <c r="Q380" t="s" s="2">
         <v>78</v>
       </c>
@@ -46303,13 +46321,13 @@
         <v>78</v>
       </c>
       <c r="Y380" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z380" t="s" s="2">
-        <v>1346</v>
+        <v>78</v>
       </c>
       <c r="AA380" t="s" s="2">
-        <v>1347</v>
+        <v>78</v>
       </c>
       <c r="AB380" t="s" s="2">
         <v>78</v>
@@ -46327,7 +46345,7 @@
         <v>78</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>1341</v>
+        <v>1376</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>76</v>
@@ -46336,7 +46354,7 @@
         <v>83</v>
       </c>
       <c r="AJ380" t="s" s="2">
-        <v>1348</v>
+        <v>78</v>
       </c>
       <c r="AK380" t="s" s="2">
         <v>95</v>
@@ -46344,17 +46362,17 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1349</v>
+        <v>1381</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1349</v>
+        <v>1381</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
-        <v>1350</v>
+        <v>78</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" t="s" s="2">
@@ -46373,19 +46391,19 @@
         <v>78</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>1351</v>
+        <v>1382</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>1352</v>
+        <v>1383</v>
       </c>
       <c r="O381" t="s" s="2">
-        <v>1353</v>
+        <v>1384</v>
       </c>
       <c r="P381" t="s" s="2">
-        <v>1354</v>
+        <v>1385</v>
       </c>
       <c r="Q381" t="s" s="2">
         <v>78</v>
@@ -46410,13 +46428,13 @@
         <v>78</v>
       </c>
       <c r="Y381" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z381" t="s" s="2">
-        <v>1453</v>
+        <v>78</v>
       </c>
       <c r="AA381" t="s" s="2">
-        <v>1454</v>
+        <v>78</v>
       </c>
       <c r="AB381" t="s" s="2">
         <v>78</v>
@@ -46434,7 +46452,7 @@
         <v>78</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>1349</v>
+        <v>1381</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>76</v>
@@ -46446,18 +46464,18 @@
         <v>78</v>
       </c>
       <c r="AK381" t="s" s="2">
-        <v>95</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1356</v>
+        <v>1387</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1356</v>
+        <v>1387</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -46468,7 +46486,7 @@
         <v>76</v>
       </c>
       <c r="H382" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I382" t="s" s="2">
         <v>78</v>
@@ -46480,20 +46498,16 @@
         <v>78</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>1357</v>
+        <v>260</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>1358</v>
-      </c>
-      <c r="O382" t="s" s="2">
-        <v>1359</v>
-      </c>
-      <c r="P382" t="s" s="2">
-        <v>1360</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O382" s="2"/>
+      <c r="P382" s="2"/>
       <c r="Q382" t="s" s="2">
         <v>78</v>
       </c>
@@ -46541,41 +46555,41 @@
         <v>78</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>1356</v>
+        <v>262</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK382" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1361</v>
+        <v>1388</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1361</v>
+        <v>1388</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H383" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I383" t="s" s="2">
         <v>78</v>
@@ -46587,16 +46601,16 @@
         <v>78</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>1362</v>
+        <v>128</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>1363</v>
+        <v>264</v>
       </c>
       <c r="O383" t="s" s="2">
-        <v>1364</v>
+        <v>130</v>
       </c>
       <c r="P383" s="2"/>
       <c r="Q383" t="s" s="2">
@@ -46622,13 +46636,13 @@
         <v>78</v>
       </c>
       <c r="Y383" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z383" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="AA383" t="s" s="2">
-        <v>516</v>
+        <v>78</v>
       </c>
       <c r="AB383" t="s" s="2">
         <v>78</v>
@@ -46646,65 +46660,65 @@
         <v>78</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>1361</v>
+        <v>265</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI383" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ383" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK383" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1365</v>
+        <v>1389</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1365</v>
+        <v>1389</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H384" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I384" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>1366</v>
+        <v>268</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>1367</v>
+        <v>269</v>
       </c>
       <c r="O384" t="s" s="2">
-        <v>1368</v>
+        <v>130</v>
       </c>
       <c r="P384" t="s" s="2">
-        <v>1369</v>
+        <v>136</v>
       </c>
       <c r="Q384" t="s" s="2">
         <v>78</v>
@@ -46729,13 +46743,13 @@
         <v>78</v>
       </c>
       <c r="Y384" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z384" t="s" s="2">
-        <v>1370</v>
+        <v>78</v>
       </c>
       <c r="AA384" t="s" s="2">
-        <v>1371</v>
+        <v>78</v>
       </c>
       <c r="AB384" t="s" s="2">
         <v>78</v>
@@ -46753,30 +46767,30 @@
         <v>78</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>1365</v>
+        <v>270</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI384" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ384" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK384" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -46799,17 +46813,15 @@
         <v>78</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>1373</v>
+        <v>390</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1374</v>
+        <v>1391</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1375</v>
-      </c>
-      <c r="O385" t="s" s="2">
-        <v>1376</v>
-      </c>
+        <v>1392</v>
+      </c>
+      <c r="O385" s="2"/>
       <c r="P385" s="2"/>
       <c r="Q385" t="s" s="2">
         <v>78</v>
@@ -46858,7 +46870,7 @@
         <v>78</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>76</v>
@@ -46867,7 +46879,7 @@
         <v>83</v>
       </c>
       <c r="AJ385" t="s" s="2">
-        <v>78</v>
+        <v>1393</v>
       </c>
       <c r="AK385" t="s" s="2">
         <v>95</v>
@@ -46875,13 +46887,13 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -46904,17 +46916,15 @@
         <v>78</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>1378</v>
+        <v>390</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>1379</v>
+        <v>1395</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>1380</v>
-      </c>
-      <c r="O386" t="s" s="2">
-        <v>1381</v>
-      </c>
+        <v>1396</v>
+      </c>
+      <c r="O386" s="2"/>
       <c r="P386" s="2"/>
       <c r="Q386" t="s" s="2">
         <v>78</v>
@@ -46963,7 +46973,7 @@
         <v>78</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>76</v>
@@ -46972,7 +46982,7 @@
         <v>83</v>
       </c>
       <c r="AJ386" t="s" s="2">
-        <v>78</v>
+        <v>1393</v>
       </c>
       <c r="AK386" t="s" s="2">
         <v>95</v>
@@ -46980,13 +46990,13 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1382</v>
+        <v>1397</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1382</v>
+        <v>1397</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -46997,7 +47007,7 @@
         <v>76</v>
       </c>
       <c r="H387" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I387" t="s" s="2">
         <v>78</v>
@@ -47009,19 +47019,19 @@
         <v>78</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>1383</v>
+        <v>1398</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>1384</v>
+        <v>1399</v>
       </c>
       <c r="O387" t="s" s="2">
-        <v>1385</v>
+        <v>1400</v>
       </c>
       <c r="P387" t="s" s="2">
-        <v>1386</v>
+        <v>1401</v>
       </c>
       <c r="Q387" t="s" s="2">
         <v>78</v>
@@ -47046,13 +47056,13 @@
         <v>78</v>
       </c>
       <c r="Y387" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z387" t="s" s="2">
-        <v>78</v>
+        <v>1402</v>
       </c>
       <c r="AA387" t="s" s="2">
-        <v>78</v>
+        <v>1403</v>
       </c>
       <c r="AB387" t="s" s="2">
         <v>78</v>
@@ -47070,30 +47080,30 @@
         <v>78</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>1382</v>
+        <v>1397</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI387" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ387" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK387" t="s" s="2">
-        <v>1387</v>
+        <v>95</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1388</v>
+        <v>1404</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1388</v>
+        <v>1404</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -47104,7 +47114,7 @@
         <v>76</v>
       </c>
       <c r="H388" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I388" t="s" s="2">
         <v>78</v>
@@ -47116,16 +47126,20 @@
         <v>78</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M388" t="s" s="2">
-        <v>260</v>
+        <v>1405</v>
       </c>
       <c r="N388" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O388" s="2"/>
-      <c r="P388" s="2"/>
+        <v>1406</v>
+      </c>
+      <c r="O388" t="s" s="2">
+        <v>1407</v>
+      </c>
+      <c r="P388" t="s" s="2">
+        <v>1408</v>
+      </c>
       <c r="Q388" t="s" s="2">
         <v>78</v>
       </c>
@@ -47149,13 +47163,13 @@
         <v>78</v>
       </c>
       <c r="Y388" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z388" t="s" s="2">
-        <v>78</v>
+        <v>1409</v>
       </c>
       <c r="AA388" t="s" s="2">
-        <v>78</v>
+        <v>1410</v>
       </c>
       <c r="AB388" t="s" s="2">
         <v>78</v>
@@ -47173,41 +47187,41 @@
         <v>78</v>
       </c>
       <c r="AG388" t="s" s="2">
-        <v>262</v>
+        <v>1404</v>
       </c>
       <c r="AH388" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI388" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ388" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK388" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1389</v>
+        <v>1411</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1389</v>
+        <v>1411</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F389" s="2"/>
       <c r="G389" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H389" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I389" t="s" s="2">
         <v>78</v>
@@ -47219,18 +47233,18 @@
         <v>78</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>127</v>
+        <v>1412</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>128</v>
+        <v>1413</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O389" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P389" s="2"/>
+        <v>1414</v>
+      </c>
+      <c r="O389" s="2"/>
+      <c r="P389" t="s" s="2">
+        <v>1415</v>
+      </c>
       <c r="Q389" t="s" s="2">
         <v>78</v>
       </c>
@@ -47278,66 +47292,62 @@
         <v>78</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>265</v>
+        <v>1411</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK389" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1390</v>
+        <v>1416</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1390</v>
+        <v>1416</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H390" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I390" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J390" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>268</v>
+        <v>1417</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O390" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P390" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>1418</v>
+      </c>
+      <c r="O390" s="2"/>
+      <c r="P390" s="2"/>
       <c r="Q390" t="s" s="2">
         <v>78</v>
       </c>
@@ -47385,30 +47395,30 @@
         <v>78</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>270</v>
+        <v>1416</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI390" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ390" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK390" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1391</v>
+        <v>1419</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1391</v>
+        <v>1419</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -47419,7 +47429,7 @@
         <v>76</v>
       </c>
       <c r="H391" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I391" t="s" s="2">
         <v>78</v>
@@ -47428,18 +47438,20 @@
         <v>78</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>390</v>
+        <v>1420</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1392</v>
+        <v>1421</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1393</v>
-      </c>
-      <c r="O391" s="2"/>
+        <v>1422</v>
+      </c>
+      <c r="O391" t="s" s="2">
+        <v>1423</v>
+      </c>
       <c r="P391" s="2"/>
       <c r="Q391" t="s" s="2">
         <v>78</v>
@@ -47488,16 +47500,16 @@
         <v>78</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1391</v>
+        <v>1419</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>1394</v>
+        <v>78</v>
       </c>
       <c r="AK391" t="s" s="2">
         <v>95</v>
@@ -47505,13 +47517,13 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1395</v>
+        <v>1424</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1395</v>
+        <v>1424</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -47522,7 +47534,7 @@
         <v>76</v>
       </c>
       <c r="H392" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I392" t="s" s="2">
         <v>78</v>
@@ -47531,18 +47543,20 @@
         <v>78</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>390</v>
+        <v>1425</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1396</v>
+        <v>1426</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1397</v>
-      </c>
-      <c r="O392" s="2"/>
+        <v>1427</v>
+      </c>
+      <c r="O392" t="s" s="2">
+        <v>1428</v>
+      </c>
       <c r="P392" s="2"/>
       <c r="Q392" t="s" s="2">
         <v>78</v>
@@ -47591,16 +47605,16 @@
         <v>78</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1395</v>
+        <v>1424</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI392" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ392" t="s" s="2">
-        <v>1394</v>
+        <v>78</v>
       </c>
       <c r="AK392" t="s" s="2">
         <v>95</v>
@@ -47608,13 +47622,13 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -47625,7 +47639,7 @@
         <v>76</v>
       </c>
       <c r="H393" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I393" t="s" s="2">
         <v>78</v>
@@ -47634,22 +47648,22 @@
         <v>78</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1399</v>
+        <v>1430</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1400</v>
+        <v>1431</v>
       </c>
       <c r="O393" t="s" s="2">
-        <v>1401</v>
+        <v>1432</v>
       </c>
       <c r="P393" t="s" s="2">
-        <v>1402</v>
+        <v>1433</v>
       </c>
       <c r="Q393" t="s" s="2">
         <v>78</v>
@@ -47674,13 +47688,13 @@
         <v>78</v>
       </c>
       <c r="Y393" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z393" t="s" s="2">
-        <v>1403</v>
+        <v>78</v>
       </c>
       <c r="AA393" t="s" s="2">
-        <v>1404</v>
+        <v>78</v>
       </c>
       <c r="AB393" t="s" s="2">
         <v>78</v>
@@ -47698,13 +47712,13 @@
         <v>78</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI393" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ393" t="s" s="2">
         <v>78</v>
@@ -47715,13 +47729,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1405</v>
+        <v>1434</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1405</v>
+        <v>1434</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -47732,7 +47746,7 @@
         <v>76</v>
       </c>
       <c r="H394" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I394" t="s" s="2">
         <v>78</v>
@@ -47744,20 +47758,16 @@
         <v>78</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1406</v>
+        <v>260</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1407</v>
-      </c>
-      <c r="O394" t="s" s="2">
-        <v>1408</v>
-      </c>
-      <c r="P394" t="s" s="2">
-        <v>1409</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O394" s="2"/>
+      <c r="P394" s="2"/>
       <c r="Q394" t="s" s="2">
         <v>78</v>
       </c>
@@ -47781,13 +47791,13 @@
         <v>78</v>
       </c>
       <c r="Y394" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z394" t="s" s="2">
-        <v>1410</v>
+        <v>78</v>
       </c>
       <c r="AA394" t="s" s="2">
-        <v>1411</v>
+        <v>78</v>
       </c>
       <c r="AB394" t="s" s="2">
         <v>78</v>
@@ -47805,41 +47815,41 @@
         <v>78</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1405</v>
+        <v>262</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI394" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ394" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK394" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1412</v>
+        <v>1435</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1412</v>
+        <v>1435</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H395" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I395" t="s" s="2">
         <v>78</v>
@@ -47851,18 +47861,18 @@
         <v>78</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>1413</v>
+        <v>127</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1414</v>
+        <v>128</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1415</v>
-      </c>
-      <c r="O395" s="2"/>
-      <c r="P395" t="s" s="2">
-        <v>1416</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P395" s="2"/>
       <c r="Q395" t="s" s="2">
         <v>78</v>
       </c>
@@ -47910,62 +47920,66 @@
         <v>78</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>1412</v>
+        <v>265</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI395" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ395" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK395" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1417</v>
+        <v>1436</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1417</v>
+        <v>1436</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H396" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I396" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J396" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>1418</v>
+        <v>268</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>1419</v>
-      </c>
-      <c r="O396" s="2"/>
-      <c r="P396" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O396" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P396" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q396" t="s" s="2">
         <v>78</v>
       </c>
@@ -48013,30 +48027,30 @@
         <v>78</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>1417</v>
+        <v>270</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI396" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ396" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK396" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1420</v>
+        <v>1437</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1420</v>
+        <v>1437</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -48044,10 +48058,10 @@
       </c>
       <c r="F397" s="2"/>
       <c r="G397" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H397" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I397" t="s" s="2">
         <v>78</v>
@@ -48059,18 +48073,20 @@
         <v>84</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>1421</v>
+        <v>183</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>1422</v>
+        <v>1438</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>1423</v>
+        <v>1439</v>
       </c>
       <c r="O397" t="s" s="2">
-        <v>1424</v>
-      </c>
-      <c r="P397" s="2"/>
+        <v>1440</v>
+      </c>
+      <c r="P397" t="s" s="2">
+        <v>1296</v>
+      </c>
       <c r="Q397" t="s" s="2">
         <v>78</v>
       </c>
@@ -48094,13 +48110,13 @@
         <v>78</v>
       </c>
       <c r="Y397" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z397" t="s" s="2">
-        <v>78</v>
+        <v>1441</v>
       </c>
       <c r="AA397" t="s" s="2">
-        <v>78</v>
+        <v>1442</v>
       </c>
       <c r="AB397" t="s" s="2">
         <v>78</v>
@@ -48118,13 +48134,13 @@
         <v>78</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>1420</v>
+        <v>1437</v>
       </c>
       <c r="AH397" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI397" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ397" t="s" s="2">
         <v>78</v>
@@ -48135,13 +48151,13 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -48152,7 +48168,7 @@
         <v>76</v>
       </c>
       <c r="H398" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I398" t="s" s="2">
         <v>78</v>
@@ -48164,18 +48180,20 @@
         <v>84</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>1426</v>
+        <v>1333</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1427</v>
+        <v>1444</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1428</v>
+        <v>1335</v>
       </c>
       <c r="O398" t="s" s="2">
-        <v>1429</v>
-      </c>
-      <c r="P398" s="2"/>
+        <v>1445</v>
+      </c>
+      <c r="P398" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="Q398" t="s" s="2">
         <v>78</v>
       </c>
@@ -48223,13 +48241,13 @@
         <v>78</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI398" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ398" t="s" s="2">
         <v>78</v>
@@ -48240,13 +48258,13 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1430</v>
+        <v>1446</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1430</v>
+        <v>1446</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -48257,7 +48275,7 @@
         <v>76</v>
       </c>
       <c r="H399" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I399" t="s" s="2">
         <v>78</v>
@@ -48266,22 +48284,22 @@
         <v>78</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1431</v>
+        <v>1447</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1432</v>
+        <v>1448</v>
       </c>
       <c r="O399" t="s" s="2">
-        <v>1433</v>
+        <v>1449</v>
       </c>
       <c r="P399" t="s" s="2">
-        <v>1434</v>
+        <v>1343</v>
       </c>
       <c r="Q399" t="s" s="2">
         <v>78</v>
@@ -48306,13 +48324,13 @@
         <v>78</v>
       </c>
       <c r="Y399" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z399" t="s" s="2">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="AA399" t="s" s="2">
-        <v>78</v>
+        <v>1345</v>
       </c>
       <c r="AB399" t="s" s="2">
         <v>78</v>
@@ -48330,16 +48348,16 @@
         <v>78</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1430</v>
+        <v>1446</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI399" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ399" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AK399" t="s" s="2">
         <v>95</v>
@@ -48347,24 +48365,24 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1435</v>
+        <v>1450</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1435</v>
+        <v>1450</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H400" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I400" t="s" s="2">
         <v>78</v>
@@ -48376,16 +48394,20 @@
         <v>78</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>260</v>
+        <v>1349</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O400" s="2"/>
-      <c r="P400" s="2"/>
+        <v>1350</v>
+      </c>
+      <c r="O400" t="s" s="2">
+        <v>1351</v>
+      </c>
+      <c r="P400" t="s" s="2">
+        <v>1352</v>
+      </c>
       <c r="Q400" t="s" s="2">
         <v>78</v>
       </c>
@@ -48409,13 +48431,13 @@
         <v>78</v>
       </c>
       <c r="Y400" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z400" t="s" s="2">
-        <v>78</v>
+        <v>1353</v>
       </c>
       <c r="AA400" t="s" s="2">
-        <v>78</v>
+        <v>1354</v>
       </c>
       <c r="AB400" t="s" s="2">
         <v>78</v>
@@ -48433,34 +48455,34 @@
         <v>78</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>262</v>
+        <v>1450</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI400" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ400" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK400" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1436</v>
+        <v>1451</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1436</v>
+        <v>1451</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" t="s" s="2">
@@ -48479,18 +48501,20 @@
         <v>78</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>128</v>
+        <v>1452</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>264</v>
+        <v>1453</v>
       </c>
       <c r="O401" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P401" s="2"/>
+        <v>1384</v>
+      </c>
+      <c r="P401" t="s" s="2">
+        <v>1385</v>
+      </c>
       <c r="Q401" t="s" s="2">
         <v>78</v>
       </c>
@@ -48538,7 +48562,7 @@
         <v>78</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>265</v>
+        <v>1451</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>76</v>
@@ -48550,7 +48574,7 @@
         <v>78</v>
       </c>
       <c r="AK401" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="402">
@@ -48558,14 +48582,14 @@
         <v>1464</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1437</v>
+        <v>301</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1437</v>
+        <v>301</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" t="s" s="2">
@@ -48578,26 +48602,22 @@
         <v>78</v>
       </c>
       <c r="J402" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O402" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P402" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O402" s="2"/>
+      <c r="P402" s="2"/>
       <c r="Q402" t="s" s="2">
         <v>78</v>
       </c>
@@ -48645,7 +48665,7 @@
         <v>78</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>76</v>
@@ -48654,10 +48674,10 @@
         <v>77</v>
       </c>
       <c r="AJ402" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AK402" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="403">
@@ -48665,10 +48685,10 @@
         <v>1464</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1438</v>
+        <v>820</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1438</v>
+        <v>820</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -48676,7 +48696,7 @@
       </c>
       <c r="F403" s="2"/>
       <c r="G403" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H403" t="s" s="2">
         <v>83</v>
@@ -48688,23 +48708,19 @@
         <v>78</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1439</v>
+        <v>260</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1440</v>
-      </c>
-      <c r="O403" t="s" s="2">
-        <v>1441</v>
-      </c>
-      <c r="P403" t="s" s="2">
-        <v>1296</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O403" s="2"/>
+      <c r="P403" s="2"/>
       <c r="Q403" t="s" s="2">
         <v>78</v>
       </c>
@@ -48728,13 +48744,13 @@
         <v>78</v>
       </c>
       <c r="Y403" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z403" t="s" s="2">
-        <v>1442</v>
+        <v>78</v>
       </c>
       <c r="AA403" t="s" s="2">
-        <v>1443</v>
+        <v>78</v>
       </c>
       <c r="AB403" t="s" s="2">
         <v>78</v>
@@ -48752,10 +48768,10 @@
         <v>78</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1438</v>
+        <v>262</v>
       </c>
       <c r="AH403" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI403" t="s" s="2">
         <v>83</v>
@@ -48764,7 +48780,7 @@
         <v>78</v>
       </c>
       <c r="AK403" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="404">
@@ -48772,10 +48788,10 @@
         <v>1464</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1444</v>
+        <v>821</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1444</v>
+        <v>821</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -48786,7 +48802,7 @@
         <v>76</v>
       </c>
       <c r="H404" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I404" t="s" s="2">
         <v>78</v>
@@ -48795,23 +48811,19 @@
         <v>78</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1445</v>
+        <v>127</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1446</v>
+        <v>301</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1335</v>
-      </c>
-      <c r="O404" t="s" s="2">
-        <v>1447</v>
-      </c>
-      <c r="P404" t="s" s="2">
-        <v>1337</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O404" s="2"/>
+      <c r="P404" s="2"/>
       <c r="Q404" t="s" s="2">
         <v>78</v>
       </c>
@@ -48847,31 +48859,31 @@
         <v>78</v>
       </c>
       <c r="AC404" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AD404" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AE404" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF404" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1444</v>
+        <v>265</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI404" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ404" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK404" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="405">
@@ -48879,10 +48891,10 @@
         <v>1464</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1448</v>
+        <v>822</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1448</v>
+        <v>822</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -48890,7 +48902,7 @@
       </c>
       <c r="F405" s="2"/>
       <c r="G405" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H405" t="s" s="2">
         <v>83</v>
@@ -48905,26 +48917,24 @@
         <v>78</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1449</v>
+        <v>823</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1450</v>
+        <v>824</v>
       </c>
       <c r="O405" t="s" s="2">
-        <v>1451</v>
-      </c>
-      <c r="P405" t="s" s="2">
-        <v>1345</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="P405" s="2"/>
       <c r="Q405" t="s" s="2">
         <v>78</v>
       </c>
       <c r="R405" s="2"/>
       <c r="S405" t="s" s="2">
-        <v>78</v>
+        <v>1465</v>
       </c>
       <c r="T405" t="s" s="2">
         <v>78</v>
@@ -48942,13 +48952,13 @@
         <v>78</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z405" t="s" s="2">
-        <v>1346</v>
+        <v>78</v>
       </c>
       <c r="AA405" t="s" s="2">
-        <v>1347</v>
+        <v>78</v>
       </c>
       <c r="AB405" t="s" s="2">
         <v>78</v>
@@ -48966,19 +48976,19 @@
         <v>78</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>1448</v>
+        <v>822</v>
       </c>
       <c r="AH405" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI405" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ405" t="s" s="2">
-        <v>1348</v>
+        <v>78</v>
       </c>
       <c r="AK405" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="406">
@@ -48986,21 +48996,21 @@
         <v>1464</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1452</v>
+        <v>826</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1452</v>
+        <v>826</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
-        <v>1350</v>
+        <v>78</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H406" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I406" t="s" s="2">
         <v>78</v>
@@ -49015,17 +49025,13 @@
         <v>183</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>1351</v>
+        <v>827</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>1352</v>
-      </c>
-      <c r="O406" t="s" s="2">
-        <v>1353</v>
-      </c>
-      <c r="P406" t="s" s="2">
-        <v>1354</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="O406" s="2"/>
+      <c r="P406" s="2"/>
       <c r="Q406" t="s" s="2">
         <v>78</v>
       </c>
@@ -49049,37 +49055,35 @@
         <v>78</v>
       </c>
       <c r="Y406" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z406" t="s" s="2">
-        <v>1453</v>
+        <v>78</v>
       </c>
       <c r="AA406" t="s" s="2">
-        <v>1454</v>
+        <v>78</v>
       </c>
       <c r="AB406" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC406" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD406" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AD406" s="2"/>
       <c r="AE406" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF406" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>1452</v>
+        <v>826</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI406" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ406" t="s" s="2">
         <v>78</v>
@@ -49093,12 +49097,14 @@
         <v>1464</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1455</v>
+        <v>1467</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1455</v>
-      </c>
-      <c r="D407" s="2"/>
+        <v>826</v>
+      </c>
+      <c r="D407" t="s" s="2">
+        <v>1468</v>
+      </c>
       <c r="E407" t="s" s="2">
         <v>78</v>
       </c>
@@ -49107,7 +49113,7 @@
         <v>76</v>
       </c>
       <c r="H407" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I407" t="s" s="2">
         <v>78</v>
@@ -49119,20 +49125,16 @@
         <v>78</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>1456</v>
+        <v>827</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>1457</v>
-      </c>
-      <c r="O407" t="s" s="2">
-        <v>1385</v>
-      </c>
-      <c r="P407" t="s" s="2">
-        <v>1386</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="O407" s="2"/>
+      <c r="P407" s="2"/>
       <c r="Q407" t="s" s="2">
         <v>78</v>
       </c>
@@ -49156,13 +49158,11 @@
         <v>78</v>
       </c>
       <c r="Y407" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z407" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Z407" s="2"/>
       <c r="AA407" t="s" s="2">
-        <v>78</v>
+        <v>1469</v>
       </c>
       <c r="AB407" t="s" s="2">
         <v>78</v>
@@ -49180,13 +49180,13 @@
         <v>78</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>1455</v>
+        <v>826</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI407" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ407" t="s" s="2">
         <v>78</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16255" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17994" uniqueCount="1481">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:29:47+00:00</t>
+    <t>2023-02-13T07:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4583,6 +4583,24 @@
   </si>
   <si>
     <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-artregimen-lines</t>
+  </si>
+  <si>
+    <t>date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>DateHIVTestDone</t>
+  </si>
+  <si>
+    <t>Date HIV Test Done</t>
+  </si>
+  <si>
+    <t>This profile is to record the Date when HIV test was done for a patient</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-test-done</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>
@@ -4731,7 +4749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B213"/>
+  <dimension ref="A2:B234"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6350,7 +6368,7 @@
         <v>31</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="211">
@@ -6358,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>1013</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="212">
@@ -6374,6 +6392,168 @@
         <v>37</v>
       </c>
       <c r="B213" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B234" t="s" s="2">
         <v>38</v>
       </c>
     </row>
@@ -6384,7 +6564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK480"/>
+  <dimension ref="A1:AK531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -49200,14 +49380,14 @@
         <v>1470</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
-        <v>1014</v>
+        <v>1248</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" t="s" s="2">
@@ -49229,12 +49409,14 @@
         <v>79</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>1015</v>
+        <v>1249</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>1016</v>
-      </c>
-      <c r="O408" s="2"/>
+        <v>1250</v>
+      </c>
+      <c r="O408" t="s" s="2">
+        <v>1251</v>
+      </c>
       <c r="P408" s="2"/>
       <c r="Q408" t="s" s="2">
         <v>78</v>
@@ -49283,7 +49465,7 @@
         <v>78</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>76</v>
@@ -49303,10 +49485,10 @@
         <v>1470</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1017</v>
+        <v>1252</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1017</v>
+        <v>1252</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -49408,10 +49590,10 @@
         <v>1470</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1018</v>
+        <v>1253</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1018</v>
+        <v>1253</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -49511,10 +49693,10 @@
         <v>1470</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1019</v>
+        <v>1254</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1019</v>
+        <v>1254</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -49616,10 +49798,10 @@
         <v>1470</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1020</v>
+        <v>1255</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1020</v>
+        <v>1255</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -49721,10 +49903,10 @@
         <v>1470</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1021</v>
+        <v>1256</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1021</v>
+        <v>1256</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -49826,10 +50008,10 @@
         <v>1470</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -49931,10 +50113,10 @@
         <v>1470</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1023</v>
+        <v>1258</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1023</v>
+        <v>1258</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -50036,10 +50218,10 @@
         <v>1470</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1027</v>
+        <v>1259</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1027</v>
+        <v>1259</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -50143,10 +50325,10 @@
         <v>1470</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -50172,13 +50354,15 @@
         <v>139</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1029</v>
+        <v>1261</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1030</v>
+        <v>1262</v>
       </c>
       <c r="O417" s="2"/>
-      <c r="P417" s="2"/>
+      <c r="P417" t="s" s="2">
+        <v>1263</v>
+      </c>
       <c r="Q417" t="s" s="2">
         <v>78</v>
       </c>
@@ -50226,7 +50410,7 @@
         <v>78</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>76</v>
@@ -50246,44 +50430,44 @@
         <v>1470</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
-        <v>78</v>
+        <v>1265</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H418" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I418" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J418" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K418" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>103</v>
+        <v>1266</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>1032</v>
+        <v>1267</v>
       </c>
       <c r="N418" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O418" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="P418" s="2"/>
+        <v>1268</v>
+      </c>
+      <c r="O418" s="2"/>
+      <c r="P418" t="s" s="2">
+        <v>1269</v>
+      </c>
       <c r="Q418" t="s" s="2">
         <v>78</v>
       </c>
@@ -50307,13 +50491,13 @@
         <v>78</v>
       </c>
       <c r="Y418" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Z418" t="s" s="2">
-        <v>1035</v>
+        <v>78</v>
       </c>
       <c r="AA418" t="s" s="2">
-        <v>1036</v>
+        <v>78</v>
       </c>
       <c r="AB418" t="s" s="2">
         <v>78</v>
@@ -50331,13 +50515,13 @@
         <v>78</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="AH418" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI418" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ418" t="s" s="2">
         <v>78</v>
@@ -50351,14 +50535,14 @@
         <v>1470</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
-        <v>78</v>
+        <v>1271</v>
       </c>
       <c r="F419" s="2"/>
       <c r="G419" t="s" s="2">
@@ -50374,19 +50558,19 @@
         <v>78</v>
       </c>
       <c r="K419" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>254</v>
+        <v>1272</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>1038</v>
+        <v>1273</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>1039</v>
+        <v>1274</v>
       </c>
       <c r="O419" t="s" s="2">
-        <v>1040</v>
+        <v>1275</v>
       </c>
       <c r="P419" s="2"/>
       <c r="Q419" t="s" s="2">
@@ -50436,7 +50620,7 @@
         <v>78</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>76</v>
@@ -50456,10 +50640,10 @@
         <v>1470</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1041</v>
+        <v>1276</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1041</v>
+        <v>1276</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -50467,7 +50651,7 @@
       </c>
       <c r="F420" s="2"/>
       <c r="G420" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H420" t="s" s="2">
         <v>83</v>
@@ -50476,22 +50660,26 @@
         <v>78</v>
       </c>
       <c r="J420" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>260</v>
+        <v>1277</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O420" s="2"/>
-      <c r="P420" s="2"/>
+        <v>1278</v>
+      </c>
+      <c r="O420" t="s" s="2">
+        <v>1279</v>
+      </c>
+      <c r="P420" t="s" s="2">
+        <v>1280</v>
+      </c>
       <c r="Q420" t="s" s="2">
         <v>78</v>
       </c>
@@ -50500,7 +50688,7 @@
         <v>78</v>
       </c>
       <c r="T420" t="s" s="2">
-        <v>78</v>
+        <v>1281</v>
       </c>
       <c r="U420" t="s" s="2">
         <v>78</v>
@@ -50515,13 +50703,13 @@
         <v>78</v>
       </c>
       <c r="Y420" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z420" t="s" s="2">
-        <v>78</v>
+        <v>1282</v>
       </c>
       <c r="AA420" t="s" s="2">
-        <v>78</v>
+        <v>1283</v>
       </c>
       <c r="AB420" t="s" s="2">
         <v>78</v>
@@ -50539,10 +50727,10 @@
         <v>78</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>262</v>
+        <v>1276</v>
       </c>
       <c r="AH420" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI420" t="s" s="2">
         <v>83</v>
@@ -50551,7 +50739,7 @@
         <v>78</v>
       </c>
       <c r="AK420" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="421">
@@ -50559,14 +50747,14 @@
         <v>1470</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1042</v>
+        <v>1284</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1042</v>
+        <v>1284</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" t="s" s="2">
@@ -50585,18 +50773,20 @@
         <v>78</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>128</v>
+        <v>1285</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>264</v>
+        <v>1286</v>
       </c>
       <c r="O421" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P421" s="2"/>
+        <v>1287</v>
+      </c>
+      <c r="P421" t="s" s="2">
+        <v>1288</v>
+      </c>
       <c r="Q421" t="s" s="2">
         <v>78</v>
       </c>
@@ -50620,13 +50810,13 @@
         <v>78</v>
       </c>
       <c r="Y421" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z421" t="s" s="2">
-        <v>78</v>
+        <v>1289</v>
       </c>
       <c r="AA421" t="s" s="2">
-        <v>78</v>
+        <v>1290</v>
       </c>
       <c r="AB421" t="s" s="2">
         <v>78</v>
@@ -50644,7 +50834,7 @@
         <v>78</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>265</v>
+        <v>1284</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>76</v>
@@ -50656,7 +50846,7 @@
         <v>78</v>
       </c>
       <c r="AK421" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="422">
@@ -50664,45 +50854,45 @@
         <v>1470</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1043</v>
+        <v>1291</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1043</v>
+        <v>1291</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
-        <v>267</v>
+        <v>1292</v>
       </c>
       <c r="F422" s="2"/>
       <c r="G422" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H422" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I422" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K422" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>268</v>
+        <v>1293</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>269</v>
+        <v>1294</v>
       </c>
       <c r="O422" t="s" s="2">
-        <v>130</v>
+        <v>1295</v>
       </c>
       <c r="P422" t="s" s="2">
-        <v>136</v>
+        <v>1296</v>
       </c>
       <c r="Q422" t="s" s="2">
         <v>78</v>
@@ -50727,13 +50917,11 @@
         <v>78</v>
       </c>
       <c r="Y422" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z422" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Z422" s="2"/>
       <c r="AA422" t="s" s="2">
-        <v>78</v>
+        <v>1475</v>
       </c>
       <c r="AB422" t="s" s="2">
         <v>78</v>
@@ -50751,19 +50939,19 @@
         <v>78</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>270</v>
+        <v>1291</v>
       </c>
       <c r="AH422" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI422" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ422" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK422" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="423">
@@ -50771,10 +50959,10 @@
         <v>1470</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -50794,19 +50982,23 @@
         <v>78</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>103</v>
+        <v>1299</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1032</v>
+        <v>1300</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O423" s="2"/>
-      <c r="P423" s="2"/>
+        <v>1301</v>
+      </c>
+      <c r="O423" t="s" s="2">
+        <v>1302</v>
+      </c>
+      <c r="P423" t="s" s="2">
+        <v>1303</v>
+      </c>
       <c r="Q423" t="s" s="2">
         <v>78</v>
       </c>
@@ -50830,13 +51022,13 @@
         <v>78</v>
       </c>
       <c r="Y423" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Z423" t="s" s="2">
-        <v>1035</v>
+        <v>78</v>
       </c>
       <c r="AA423" t="s" s="2">
-        <v>1036</v>
+        <v>78</v>
       </c>
       <c r="AB423" t="s" s="2">
         <v>78</v>
@@ -50854,10 +51046,10 @@
         <v>78</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="AH423" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI423" t="s" s="2">
         <v>83</v>
@@ -50874,10 +51066,10 @@
         <v>1470</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -50885,10 +51077,10 @@
       </c>
       <c r="F424" s="2"/>
       <c r="G424" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H424" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I424" t="s" s="2">
         <v>78</v>
@@ -50897,18 +51089,20 @@
         <v>78</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>1046</v>
+        <v>1305</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O424" s="2"/>
+        <v>1306</v>
+      </c>
+      <c r="O424" t="s" s="2">
+        <v>1307</v>
+      </c>
       <c r="P424" s="2"/>
       <c r="Q424" t="s" s="2">
         <v>78</v>
@@ -50957,13 +51151,13 @@
         <v>78</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="AH424" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI424" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ424" t="s" s="2">
         <v>78</v>
@@ -50977,14 +51171,14 @@
         <v>1470</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
-        <v>78</v>
+        <v>1309</v>
       </c>
       <c r="F425" s="2"/>
       <c r="G425" t="s" s="2">
@@ -51003,16 +51197,20 @@
         <v>84</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>1049</v>
+        <v>205</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1050</v>
+        <v>1310</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="O425" s="2"/>
-      <c r="P425" s="2"/>
+        <v>1311</v>
+      </c>
+      <c r="O425" t="s" s="2">
+        <v>1312</v>
+      </c>
+      <c r="P425" t="s" s="2">
+        <v>1313</v>
+      </c>
       <c r="Q425" t="s" s="2">
         <v>78</v>
       </c>
@@ -51036,13 +51234,13 @@
         <v>78</v>
       </c>
       <c r="Y425" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z425" t="s" s="2">
-        <v>1052</v>
+        <v>78</v>
       </c>
       <c r="AA425" t="s" s="2">
-        <v>1053</v>
+        <v>78</v>
       </c>
       <c r="AB425" t="s" s="2">
         <v>78</v>
@@ -51060,10 +51258,10 @@
         <v>78</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="AH425" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI425" t="s" s="2">
         <v>83</v>
@@ -51080,21 +51278,21 @@
         <v>1470</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
-        <v>78</v>
+        <v>1315</v>
       </c>
       <c r="F426" s="2"/>
       <c r="G426" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H426" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I426" t="s" s="2">
         <v>78</v>
@@ -51103,19 +51301,23 @@
         <v>78</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1055</v>
+        <v>1316</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>1056</v>
-      </c>
-      <c r="O426" s="2"/>
-      <c r="P426" s="2"/>
+        <v>1317</v>
+      </c>
+      <c r="O426" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="P426" t="s" s="2">
+        <v>1319</v>
+      </c>
       <c r="Q426" t="s" s="2">
         <v>78</v>
       </c>
@@ -51151,25 +51353,23 @@
         <v>78</v>
       </c>
       <c r="AC426" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD426" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AD426" s="2"/>
       <c r="AE426" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF426" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI426" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ426" t="s" s="2">
         <v>78</v>
@@ -51183,18 +51383,20 @@
         <v>1470</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1057</v>
+        <v>1320</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="D427" s="2"/>
+        <v>1314</v>
+      </c>
+      <c r="D427" t="s" s="2">
+        <v>1321</v>
+      </c>
       <c r="E427" t="s" s="2">
-        <v>78</v>
+        <v>1315</v>
       </c>
       <c r="F427" s="2"/>
       <c r="G427" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H427" t="s" s="2">
         <v>83</v>
@@ -51206,19 +51408,23 @@
         <v>78</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>260</v>
+        <v>1316</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O427" s="2"/>
-      <c r="P427" s="2"/>
+        <v>1317</v>
+      </c>
+      <c r="O427" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="P427" t="s" s="2">
+        <v>1319</v>
+      </c>
       <c r="Q427" t="s" s="2">
         <v>78</v>
       </c>
@@ -51266,7 +51472,7 @@
         <v>78</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>262</v>
+        <v>1314</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>76</v>
@@ -51278,7 +51484,7 @@
         <v>78</v>
       </c>
       <c r="AK427" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="428">
@@ -51286,21 +51492,21 @@
         <v>1470</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1058</v>
+        <v>1322</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1058</v>
+        <v>1322</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F428" s="2"/>
       <c r="G428" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I428" t="s" s="2">
         <v>78</v>
@@ -51309,19 +51515,19 @@
         <v>78</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>127</v>
+        <v>1323</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>128</v>
+        <v>1324</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>264</v>
+        <v>1325</v>
       </c>
       <c r="O428" t="s" s="2">
-        <v>130</v>
+        <v>1326</v>
       </c>
       <c r="P428" s="2"/>
       <c r="Q428" t="s" s="2">
@@ -51371,19 +51577,19 @@
         <v>78</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>265</v>
+        <v>1322</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK428" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="429">
@@ -51391,14 +51597,14 @@
         <v>1470</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1059</v>
+        <v>1327</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1059</v>
+        <v>1327</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
@@ -51411,25 +51617,23 @@
         <v>78</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K429" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>127</v>
+        <v>1328</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>268</v>
+        <v>1329</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O429" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>1330</v>
+      </c>
+      <c r="O429" s="2"/>
       <c r="P429" t="s" s="2">
-        <v>136</v>
+        <v>1331</v>
       </c>
       <c r="Q429" t="s" s="2">
         <v>78</v>
@@ -51478,7 +51682,7 @@
         <v>78</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>270</v>
+        <v>1327</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>76</v>
@@ -51490,7 +51694,7 @@
         <v>78</v>
       </c>
       <c r="AK429" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="430">
@@ -51498,10 +51702,10 @@
         <v>1470</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -51509,7 +51713,7 @@
       </c>
       <c r="F430" s="2"/>
       <c r="G430" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H430" t="s" s="2">
         <v>83</v>
@@ -51521,19 +51725,23 @@
         <v>78</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>1049</v>
+        <v>1333</v>
       </c>
       <c r="M430" t="s" s="2">
-        <v>1061</v>
+        <v>1334</v>
       </c>
       <c r="N430" t="s" s="2">
-        <v>1062</v>
-      </c>
-      <c r="O430" s="2"/>
-      <c r="P430" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="O430" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="P430" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="Q430" t="s" s="2">
         <v>78</v>
       </c>
@@ -51557,13 +51765,13 @@
         <v>78</v>
       </c>
       <c r="Y430" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z430" t="s" s="2">
-        <v>1052</v>
+        <v>78</v>
       </c>
       <c r="AA430" t="s" s="2">
-        <v>1053</v>
+        <v>78</v>
       </c>
       <c r="AB430" t="s" s="2">
         <v>78</v>
@@ -51581,16 +51789,16 @@
         <v>78</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="AH430" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI430" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ430" t="s" s="2">
-        <v>78</v>
+        <v>1338</v>
       </c>
       <c r="AK430" t="s" s="2">
         <v>95</v>
@@ -51601,10 +51809,10 @@
         <v>1470</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1063</v>
+        <v>1339</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1063</v>
+        <v>1339</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -51612,7 +51820,7 @@
       </c>
       <c r="F431" s="2"/>
       <c r="G431" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H431" t="s" s="2">
         <v>83</v>
@@ -51627,16 +51835,20 @@
         <v>78</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>1064</v>
+        <v>1340</v>
       </c>
       <c r="N431" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="O431" s="2"/>
-      <c r="P431" s="2"/>
+        <v>1341</v>
+      </c>
+      <c r="O431" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="P431" t="s" s="2">
+        <v>1343</v>
+      </c>
       <c r="Q431" t="s" s="2">
         <v>78</v>
       </c>
@@ -51660,13 +51872,13 @@
         <v>78</v>
       </c>
       <c r="Y431" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z431" t="s" s="2">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="AA431" t="s" s="2">
-        <v>78</v>
+        <v>1345</v>
       </c>
       <c r="AB431" t="s" s="2">
         <v>78</v>
@@ -51684,16 +51896,16 @@
         <v>78</v>
       </c>
       <c r="AG431" t="s" s="2">
-        <v>1063</v>
+        <v>1339</v>
       </c>
       <c r="AH431" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI431" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ431" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AK431" t="s" s="2">
         <v>95</v>
@@ -51704,14 +51916,14 @@
         <v>1470</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1066</v>
+        <v>1347</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1066</v>
+        <v>1347</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="F432" s="2"/>
       <c r="G432" t="s" s="2">
@@ -51727,21 +51939,23 @@
         <v>78</v>
       </c>
       <c r="K432" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L432" t="s" s="2">
         <v>183</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>1067</v>
+        <v>1349</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>1068</v>
+        <v>1350</v>
       </c>
       <c r="O432" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="P432" s="2"/>
+        <v>1351</v>
+      </c>
+      <c r="P432" t="s" s="2">
+        <v>1352</v>
+      </c>
       <c r="Q432" t="s" s="2">
         <v>78</v>
       </c>
@@ -51765,13 +51979,13 @@
         <v>78</v>
       </c>
       <c r="Y432" t="s" s="2">
-        <v>188</v>
+        <v>449</v>
       </c>
       <c r="Z432" t="s" s="2">
-        <v>1070</v>
+        <v>1353</v>
       </c>
       <c r="AA432" t="s" s="2">
-        <v>1071</v>
+        <v>1354</v>
       </c>
       <c r="AB432" t="s" s="2">
         <v>78</v>
@@ -51789,7 +52003,7 @@
         <v>78</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>1066</v>
+        <v>1347</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>76</v>
@@ -51809,10 +52023,10 @@
         <v>1470</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1072</v>
+        <v>1355</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1072</v>
+        <v>1355</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -51832,19 +52046,23 @@
         <v>78</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>1073</v>
+        <v>1356</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>1074</v>
-      </c>
-      <c r="O433" s="2"/>
-      <c r="P433" s="2"/>
+        <v>1357</v>
+      </c>
+      <c r="O433" t="s" s="2">
+        <v>1358</v>
+      </c>
+      <c r="P433" t="s" s="2">
+        <v>1359</v>
+      </c>
       <c r="Q433" t="s" s="2">
         <v>78</v>
       </c>
@@ -51868,13 +52086,13 @@
         <v>78</v>
       </c>
       <c r="Y433" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z433" t="s" s="2">
-        <v>1075</v>
+        <v>78</v>
       </c>
       <c r="AA433" t="s" s="2">
-        <v>1076</v>
+        <v>78</v>
       </c>
       <c r="AB433" t="s" s="2">
         <v>78</v>
@@ -51892,13 +52110,13 @@
         <v>78</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>1072</v>
+        <v>1355</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI433" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ433" t="s" s="2">
         <v>78</v>
@@ -51912,10 +52130,10 @@
         <v>1470</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1077</v>
+        <v>1360</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1077</v>
+        <v>1360</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -51941,12 +52159,14 @@
         <v>183</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1078</v>
+        <v>1361</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="O434" s="2"/>
+        <v>1362</v>
+      </c>
+      <c r="O434" t="s" s="2">
+        <v>1363</v>
+      </c>
       <c r="P434" s="2"/>
       <c r="Q434" t="s" s="2">
         <v>78</v>
@@ -51974,10 +52194,10 @@
         <v>188</v>
       </c>
       <c r="Z434" t="s" s="2">
-        <v>1079</v>
+        <v>515</v>
       </c>
       <c r="AA434" t="s" s="2">
-        <v>1080</v>
+        <v>516</v>
       </c>
       <c r="AB434" t="s" s="2">
         <v>78</v>
@@ -51995,7 +52215,7 @@
         <v>78</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>1077</v>
+        <v>1360</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>76</v>
@@ -52015,14 +52235,14 @@
         <v>1470</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1081</v>
+        <v>1364</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1081</v>
+        <v>1364</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" t="s" s="2">
@@ -52038,21 +52258,23 @@
         <v>78</v>
       </c>
       <c r="K435" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1082</v>
+        <v>1365</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>1083</v>
+        <v>1366</v>
       </c>
       <c r="O435" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="P435" s="2"/>
+        <v>1367</v>
+      </c>
+      <c r="P435" t="s" s="2">
+        <v>1368</v>
+      </c>
       <c r="Q435" t="s" s="2">
         <v>78</v>
       </c>
@@ -52076,13 +52298,13 @@
         <v>78</v>
       </c>
       <c r="Y435" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z435" t="s" s="2">
-        <v>78</v>
+        <v>1369</v>
       </c>
       <c r="AA435" t="s" s="2">
-        <v>78</v>
+        <v>1370</v>
       </c>
       <c r="AB435" t="s" s="2">
         <v>78</v>
@@ -52100,7 +52322,7 @@
         <v>78</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>1081</v>
+        <v>1364</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>76</v>
@@ -52120,10 +52342,10 @@
         <v>1470</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1085</v>
+        <v>1371</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1085</v>
+        <v>1371</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -52134,7 +52356,7 @@
         <v>76</v>
       </c>
       <c r="H436" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I436" t="s" s="2">
         <v>78</v>
@@ -52143,18 +52365,20 @@
         <v>78</v>
       </c>
       <c r="K436" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>1086</v>
+        <v>1372</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>1087</v>
+        <v>1373</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="O436" s="2"/>
+        <v>1374</v>
+      </c>
+      <c r="O436" t="s" s="2">
+        <v>1375</v>
+      </c>
       <c r="P436" s="2"/>
       <c r="Q436" t="s" s="2">
         <v>78</v>
@@ -52203,13 +52427,13 @@
         <v>78</v>
       </c>
       <c r="AG436" t="s" s="2">
-        <v>1085</v>
+        <v>1371</v>
       </c>
       <c r="AH436" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI436" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ436" t="s" s="2">
         <v>78</v>
@@ -52223,21 +52447,21 @@
         <v>1470</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1089</v>
+        <v>1376</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1089</v>
+        <v>1376</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
-        <v>1090</v>
+        <v>78</v>
       </c>
       <c r="F437" s="2"/>
       <c r="G437" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H437" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I437" t="s" s="2">
         <v>78</v>
@@ -52249,15 +52473,17 @@
         <v>78</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>1091</v>
+        <v>1377</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1092</v>
+        <v>1378</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="O437" s="2"/>
+        <v>1379</v>
+      </c>
+      <c r="O437" t="s" s="2">
+        <v>1380</v>
+      </c>
       <c r="P437" s="2"/>
       <c r="Q437" t="s" s="2">
         <v>78</v>
@@ -52306,13 +52532,13 @@
         <v>78</v>
       </c>
       <c r="AG437" t="s" s="2">
-        <v>1089</v>
+        <v>1376</v>
       </c>
       <c r="AH437" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI437" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ437" t="s" s="2">
         <v>78</v>
@@ -52326,10 +52552,10 @@
         <v>1470</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1094</v>
+        <v>1381</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1094</v>
+        <v>1381</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -52349,19 +52575,23 @@
         <v>78</v>
       </c>
       <c r="K438" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L438" t="s" s="2">
         <v>254</v>
       </c>
       <c r="M438" t="s" s="2">
-        <v>1095</v>
+        <v>1382</v>
       </c>
       <c r="N438" t="s" s="2">
-        <v>1096</v>
-      </c>
-      <c r="O438" s="2"/>
-      <c r="P438" s="2"/>
+        <v>1383</v>
+      </c>
+      <c r="O438" t="s" s="2">
+        <v>1384</v>
+      </c>
+      <c r="P438" t="s" s="2">
+        <v>1385</v>
+      </c>
       <c r="Q438" t="s" s="2">
         <v>78</v>
       </c>
@@ -52409,7 +52639,7 @@
         <v>78</v>
       </c>
       <c r="AG438" t="s" s="2">
-        <v>1094</v>
+        <v>1381</v>
       </c>
       <c r="AH438" t="s" s="2">
         <v>76</v>
@@ -52421,7 +52651,7 @@
         <v>78</v>
       </c>
       <c r="AK438" t="s" s="2">
-        <v>95</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="439">
@@ -52429,10 +52659,10 @@
         <v>1470</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1097</v>
+        <v>1387</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1097</v>
+        <v>1387</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
@@ -52532,10 +52762,10 @@
         <v>1470</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1098</v>
+        <v>1388</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1098</v>
+        <v>1388</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -52637,10 +52867,10 @@
         <v>1470</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1099</v>
+        <v>1389</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1099</v>
+        <v>1389</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -52744,10 +52974,10 @@
         <v>1470</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1100</v>
+        <v>1390</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1100</v>
+        <v>1390</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -52758,7 +52988,7 @@
         <v>76</v>
       </c>
       <c r="H442" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I442" t="s" s="2">
         <v>78</v>
@@ -52767,20 +52997,18 @@
         <v>78</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>183</v>
+        <v>390</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1101</v>
+        <v>1391</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>1102</v>
-      </c>
-      <c r="O442" t="s" s="2">
-        <v>1103</v>
-      </c>
+        <v>1392</v>
+      </c>
+      <c r="O442" s="2"/>
       <c r="P442" s="2"/>
       <c r="Q442" t="s" s="2">
         <v>78</v>
@@ -52805,13 +53033,13 @@
         <v>78</v>
       </c>
       <c r="Y442" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z442" t="s" s="2">
-        <v>1102</v>
+        <v>78</v>
       </c>
       <c r="AA442" t="s" s="2">
-        <v>1104</v>
+        <v>78</v>
       </c>
       <c r="AB442" t="s" s="2">
         <v>78</v>
@@ -52829,16 +53057,16 @@
         <v>78</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>1100</v>
+        <v>1390</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI442" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ442" t="s" s="2">
-        <v>78</v>
+        <v>1393</v>
       </c>
       <c r="AK442" t="s" s="2">
         <v>95</v>
@@ -52849,10 +53077,10 @@
         <v>1470</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1105</v>
+        <v>1394</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1105</v>
+        <v>1394</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -52875,13 +53103,13 @@
         <v>78</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="M443" t="s" s="2">
-        <v>1106</v>
+        <v>1395</v>
       </c>
       <c r="N443" t="s" s="2">
-        <v>1107</v>
+        <v>1396</v>
       </c>
       <c r="O443" s="2"/>
       <c r="P443" s="2"/>
@@ -52932,7 +53160,7 @@
         <v>78</v>
       </c>
       <c r="AG443" t="s" s="2">
-        <v>1105</v>
+        <v>1394</v>
       </c>
       <c r="AH443" t="s" s="2">
         <v>76</v>
@@ -52941,7 +53169,7 @@
         <v>83</v>
       </c>
       <c r="AJ443" t="s" s="2">
-        <v>78</v>
+        <v>1393</v>
       </c>
       <c r="AK443" t="s" s="2">
         <v>95</v>
@@ -52952,10 +53180,10 @@
         <v>1470</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1108</v>
+        <v>1397</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1108</v>
+        <v>1397</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -52975,19 +53203,23 @@
         <v>78</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>1109</v>
+        <v>183</v>
       </c>
       <c r="M444" t="s" s="2">
-        <v>1110</v>
+        <v>1398</v>
       </c>
       <c r="N444" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="O444" s="2"/>
-      <c r="P444" s="2"/>
+        <v>1399</v>
+      </c>
+      <c r="O444" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="P444" t="s" s="2">
+        <v>1401</v>
+      </c>
       <c r="Q444" t="s" s="2">
         <v>78</v>
       </c>
@@ -53011,13 +53243,13 @@
         <v>78</v>
       </c>
       <c r="Y444" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z444" t="s" s="2">
-        <v>78</v>
+        <v>1402</v>
       </c>
       <c r="AA444" t="s" s="2">
-        <v>78</v>
+        <v>1403</v>
       </c>
       <c r="AB444" t="s" s="2">
         <v>78</v>
@@ -53035,7 +53267,7 @@
         <v>78</v>
       </c>
       <c r="AG444" t="s" s="2">
-        <v>1108</v>
+        <v>1397</v>
       </c>
       <c r="AH444" t="s" s="2">
         <v>76</v>
@@ -53055,10 +53287,10 @@
         <v>1470</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1112</v>
+        <v>1404</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1112</v>
+        <v>1404</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -53078,19 +53310,23 @@
         <v>78</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>1113</v>
+        <v>183</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>1114</v>
+        <v>1405</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>1115</v>
-      </c>
-      <c r="O445" s="2"/>
-      <c r="P445" s="2"/>
+        <v>1406</v>
+      </c>
+      <c r="O445" t="s" s="2">
+        <v>1407</v>
+      </c>
+      <c r="P445" t="s" s="2">
+        <v>1408</v>
+      </c>
       <c r="Q445" t="s" s="2">
         <v>78</v>
       </c>
@@ -53114,13 +53350,13 @@
         <v>78</v>
       </c>
       <c r="Y445" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z445" t="s" s="2">
-        <v>78</v>
+        <v>1409</v>
       </c>
       <c r="AA445" t="s" s="2">
-        <v>78</v>
+        <v>1410</v>
       </c>
       <c r="AB445" t="s" s="2">
         <v>78</v>
@@ -53138,7 +53374,7 @@
         <v>78</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>1112</v>
+        <v>1404</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>76</v>
@@ -53158,10 +53394,10 @@
         <v>1470</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1116</v>
+        <v>1411</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1116</v>
+        <v>1411</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -53169,7 +53405,7 @@
       </c>
       <c r="F446" s="2"/>
       <c r="G446" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H446" t="s" s="2">
         <v>83</v>
@@ -53184,18 +53420,18 @@
         <v>78</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>211</v>
+        <v>1412</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>1117</v>
+        <v>1413</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>1118</v>
-      </c>
-      <c r="O446" t="s" s="2">
-        <v>1119</v>
-      </c>
-      <c r="P446" s="2"/>
+        <v>1414</v>
+      </c>
+      <c r="O446" s="2"/>
+      <c r="P446" t="s" s="2">
+        <v>1415</v>
+      </c>
       <c r="Q446" t="s" s="2">
         <v>78</v>
       </c>
@@ -53243,7 +53479,7 @@
         <v>78</v>
       </c>
       <c r="AG446" t="s" s="2">
-        <v>1116</v>
+        <v>1411</v>
       </c>
       <c r="AH446" t="s" s="2">
         <v>76</v>
@@ -53263,10 +53499,10 @@
         <v>1470</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1120</v>
+        <v>1416</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1120</v>
+        <v>1416</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -53289,17 +53525,15 @@
         <v>78</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>1121</v>
+        <v>192</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>1122</v>
+        <v>1417</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>1123</v>
-      </c>
-      <c r="O447" t="s" s="2">
-        <v>1124</v>
-      </c>
+        <v>1418</v>
+      </c>
+      <c r="O447" s="2"/>
       <c r="P447" s="2"/>
       <c r="Q447" t="s" s="2">
         <v>78</v>
@@ -53348,7 +53582,7 @@
         <v>78</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>1120</v>
+        <v>1416</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>76</v>
@@ -53368,14 +53602,14 @@
         <v>1470</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1125</v>
+        <v>1419</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1125</v>
+        <v>1419</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
-        <v>1126</v>
+        <v>78</v>
       </c>
       <c r="F448" s="2"/>
       <c r="G448" t="s" s="2">
@@ -53394,16 +53628,16 @@
         <v>84</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>183</v>
+        <v>1420</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>1127</v>
+        <v>1421</v>
       </c>
       <c r="N448" t="s" s="2">
-        <v>1128</v>
+        <v>1422</v>
       </c>
       <c r="O448" t="s" s="2">
-        <v>1129</v>
+        <v>1423</v>
       </c>
       <c r="P448" s="2"/>
       <c r="Q448" t="s" s="2">
@@ -53429,13 +53663,13 @@
         <v>78</v>
       </c>
       <c r="Y448" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z448" t="s" s="2">
-        <v>1130</v>
+        <v>78</v>
       </c>
       <c r="AA448" t="s" s="2">
-        <v>1131</v>
+        <v>78</v>
       </c>
       <c r="AB448" t="s" s="2">
         <v>78</v>
@@ -53453,7 +53687,7 @@
         <v>78</v>
       </c>
       <c r="AG448" t="s" s="2">
-        <v>1125</v>
+        <v>1419</v>
       </c>
       <c r="AH448" t="s" s="2">
         <v>76</v>
@@ -53473,14 +53707,14 @@
         <v>1470</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1132</v>
+        <v>1424</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1132</v>
+        <v>1424</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
-        <v>1126</v>
+        <v>78</v>
       </c>
       <c r="F449" s="2"/>
       <c r="G449" t="s" s="2">
@@ -53499,16 +53733,16 @@
         <v>84</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>1133</v>
+        <v>1425</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>1134</v>
+        <v>1426</v>
       </c>
       <c r="N449" t="s" s="2">
-        <v>1128</v>
+        <v>1427</v>
       </c>
       <c r="O449" t="s" s="2">
-        <v>1129</v>
+        <v>1428</v>
       </c>
       <c r="P449" s="2"/>
       <c r="Q449" t="s" s="2">
@@ -53558,7 +53792,7 @@
         <v>78</v>
       </c>
       <c r="AG449" t="s" s="2">
-        <v>1132</v>
+        <v>1424</v>
       </c>
       <c r="AH449" t="s" s="2">
         <v>76</v>
@@ -53578,10 +53812,10 @@
         <v>1470</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1135</v>
+        <v>1429</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1135</v>
+        <v>1429</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -53607,13 +53841,17 @@
         <v>254</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>1136</v>
+        <v>1430</v>
       </c>
       <c r="N450" t="s" s="2">
-        <v>1137</v>
-      </c>
-      <c r="O450" s="2"/>
-      <c r="P450" s="2"/>
+        <v>1431</v>
+      </c>
+      <c r="O450" t="s" s="2">
+        <v>1432</v>
+      </c>
+      <c r="P450" t="s" s="2">
+        <v>1433</v>
+      </c>
       <c r="Q450" t="s" s="2">
         <v>78</v>
       </c>
@@ -53661,7 +53899,7 @@
         <v>78</v>
       </c>
       <c r="AG450" t="s" s="2">
-        <v>1135</v>
+        <v>1429</v>
       </c>
       <c r="AH450" t="s" s="2">
         <v>76</v>
@@ -53681,10 +53919,10 @@
         <v>1470</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1138</v>
+        <v>1434</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1138</v>
+        <v>1434</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -53784,10 +54022,10 @@
         <v>1470</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1139</v>
+        <v>1435</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1139</v>
+        <v>1435</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -53889,10 +54127,10 @@
         <v>1470</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1140</v>
+        <v>1436</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1140</v>
+        <v>1436</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -53996,14 +54234,14 @@
         <v>1470</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1141</v>
+        <v>1437</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1141</v>
+        <v>1437</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
-        <v>1142</v>
+        <v>78</v>
       </c>
       <c r="F454" s="2"/>
       <c r="G454" t="s" s="2">
@@ -54022,18 +54260,20 @@
         <v>84</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>1143</v>
+        <v>183</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>1144</v>
+        <v>1438</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>1145</v>
+        <v>1439</v>
       </c>
       <c r="O454" t="s" s="2">
-        <v>1129</v>
-      </c>
-      <c r="P454" s="2"/>
+        <v>1440</v>
+      </c>
+      <c r="P454" t="s" s="2">
+        <v>1296</v>
+      </c>
       <c r="Q454" t="s" s="2">
         <v>78</v>
       </c>
@@ -54057,13 +54297,13 @@
         <v>78</v>
       </c>
       <c r="Y454" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z454" t="s" s="2">
-        <v>78</v>
+        <v>1441</v>
       </c>
       <c r="AA454" t="s" s="2">
-        <v>78</v>
+        <v>1442</v>
       </c>
       <c r="AB454" t="s" s="2">
         <v>78</v>
@@ -54081,7 +54321,7 @@
         <v>78</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>1141</v>
+        <v>1437</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>83</v>
@@ -54101,10 +54341,10 @@
         <v>1470</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1146</v>
+        <v>1443</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1146</v>
+        <v>1443</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -54124,19 +54364,23 @@
         <v>78</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>183</v>
+        <v>1333</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>1147</v>
+        <v>1444</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>1148</v>
-      </c>
-      <c r="O455" s="2"/>
-      <c r="P455" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="O455" t="s" s="2">
+        <v>1445</v>
+      </c>
+      <c r="P455" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="Q455" t="s" s="2">
         <v>78</v>
       </c>
@@ -54160,13 +54404,13 @@
         <v>78</v>
       </c>
       <c r="Y455" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z455" t="s" s="2">
-        <v>1149</v>
+        <v>78</v>
       </c>
       <c r="AA455" t="s" s="2">
-        <v>1150</v>
+        <v>78</v>
       </c>
       <c r="AB455" t="s" s="2">
         <v>78</v>
@@ -54184,7 +54428,7 @@
         <v>78</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>1146</v>
+        <v>1443</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>76</v>
@@ -54204,10 +54448,10 @@
         <v>1470</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1151</v>
+        <v>1446</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1151</v>
+        <v>1446</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -54230,16 +54474,20 @@
         <v>78</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>1152</v>
+        <v>183</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>1153</v>
+        <v>1447</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O456" s="2"/>
-      <c r="P456" s="2"/>
+        <v>1448</v>
+      </c>
+      <c r="O456" t="s" s="2">
+        <v>1449</v>
+      </c>
+      <c r="P456" t="s" s="2">
+        <v>1343</v>
+      </c>
       <c r="Q456" t="s" s="2">
         <v>78</v>
       </c>
@@ -54263,13 +54511,13 @@
         <v>78</v>
       </c>
       <c r="Y456" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z456" t="s" s="2">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="AA456" t="s" s="2">
-        <v>78</v>
+        <v>1345</v>
       </c>
       <c r="AB456" t="s" s="2">
         <v>78</v>
@@ -54287,7 +54535,7 @@
         <v>78</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>1151</v>
+        <v>1446</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>76</v>
@@ -54296,7 +54544,7 @@
         <v>83</v>
       </c>
       <c r="AJ456" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AK456" t="s" s="2">
         <v>95</v>
@@ -54307,14 +54555,14 @@
         <v>1470</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1155</v>
+        <v>1450</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1155</v>
+        <v>1450</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" t="s" s="2">
@@ -54333,18 +54581,20 @@
         <v>78</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>1156</v>
+        <v>183</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1157</v>
+        <v>1349</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1158</v>
+        <v>1350</v>
       </c>
       <c r="O457" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="P457" s="2"/>
+        <v>1351</v>
+      </c>
+      <c r="P457" t="s" s="2">
+        <v>1352</v>
+      </c>
       <c r="Q457" t="s" s="2">
         <v>78</v>
       </c>
@@ -54368,13 +54618,13 @@
         <v>78</v>
       </c>
       <c r="Y457" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z457" t="s" s="2">
-        <v>78</v>
+        <v>1353</v>
       </c>
       <c r="AA457" t="s" s="2">
-        <v>78</v>
+        <v>1354</v>
       </c>
       <c r="AB457" t="s" s="2">
         <v>78</v>
@@ -54392,7 +54642,7 @@
         <v>78</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1155</v>
+        <v>1450</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>76</v>
@@ -54412,10 +54662,10 @@
         <v>1470</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1160</v>
+        <v>1451</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1160</v>
+        <v>1451</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -54426,7 +54676,7 @@
         <v>76</v>
       </c>
       <c r="H458" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I458" t="s" s="2">
         <v>78</v>
@@ -54438,18 +54688,20 @@
         <v>78</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>1161</v>
+        <v>1452</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>1162</v>
+        <v>1453</v>
       </c>
       <c r="O458" t="s" s="2">
-        <v>1163</v>
-      </c>
-      <c r="P458" s="2"/>
+        <v>1384</v>
+      </c>
+      <c r="P458" t="s" s="2">
+        <v>1385</v>
+      </c>
       <c r="Q458" t="s" s="2">
         <v>78</v>
       </c>
@@ -54497,13 +54749,13 @@
         <v>78</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>1160</v>
+        <v>1451</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI458" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ458" t="s" s="2">
         <v>78</v>
@@ -54514,24 +54766,24 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1164</v>
+        <v>1012</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1164</v>
+        <v>1012</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
-        <v>78</v>
+        <v>1014</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H459" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I459" t="s" s="2">
         <v>78</v>
@@ -54543,13 +54795,13 @@
         <v>78</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>260</v>
+        <v>1015</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>261</v>
+        <v>1016</v>
       </c>
       <c r="O459" s="2"/>
       <c r="P459" s="2"/>
@@ -54600,13 +54852,13 @@
         <v>78</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>262</v>
+        <v>1012</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI459" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ459" t="s" s="2">
         <v>78</v>
@@ -54617,24 +54869,24 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1165</v>
+        <v>1017</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1165</v>
+        <v>1017</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F460" s="2"/>
       <c r="G460" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H460" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I460" t="s" s="2">
         <v>78</v>
@@ -54643,19 +54895,19 @@
         <v>78</v>
       </c>
       <c r="K460" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="O460" t="s" s="2">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="P460" s="2"/>
       <c r="Q460" t="s" s="2">
@@ -54705,66 +54957,62 @@
         <v>78</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="AH460" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI460" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ460" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK460" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1166</v>
+        <v>1018</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1166</v>
+        <v>1018</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F461" s="2"/>
       <c r="G461" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H461" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I461" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J461" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K461" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O461" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P461" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="O461" s="2"/>
+      <c r="P461" s="2"/>
       <c r="Q461" t="s" s="2">
         <v>78</v>
       </c>
@@ -54812,30 +55060,30 @@
         <v>78</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI461" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ461" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK461" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1167</v>
+        <v>1019</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1167</v>
+        <v>1019</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -54852,21 +55100,23 @@
         <v>78</v>
       </c>
       <c r="J462" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K462" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1168</v>
+        <v>98</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1169</v>
-      </c>
-      <c r="O462" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O462" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="P462" s="2"/>
       <c r="Q462" t="s" s="2">
         <v>78</v>
@@ -54915,7 +55165,7 @@
         <v>78</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1167</v>
+        <v>101</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>76</v>
@@ -54932,13 +55182,13 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -54961,15 +55211,17 @@
         <v>78</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>1171</v>
+        <v>103</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1172</v>
+        <v>104</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1173</v>
-      </c>
-      <c r="O463" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="O463" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="P463" s="2"/>
       <c r="Q463" t="s" s="2">
         <v>78</v>
@@ -54994,13 +55246,13 @@
         <v>78</v>
       </c>
       <c r="Y463" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z463" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AA463" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AB463" t="s" s="2">
         <v>78</v>
@@ -55018,7 +55270,7 @@
         <v>78</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1170</v>
+        <v>110</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>76</v>
@@ -55035,17 +55287,17 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1174</v>
+        <v>1021</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1174</v>
+        <v>1021</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F464" s="2"/>
       <c r="G464" t="s" s="2">
@@ -55064,15 +55316,17 @@
         <v>78</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1175</v>
+        <v>114</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="O464" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O464" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P464" s="2"/>
       <c r="Q464" t="s" s="2">
         <v>78</v>
@@ -55097,13 +55351,13 @@
         <v>78</v>
       </c>
       <c r="Y464" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z464" t="s" s="2">
-        <v>1177</v>
+        <v>78</v>
       </c>
       <c r="AA464" t="s" s="2">
-        <v>1178</v>
+        <v>78</v>
       </c>
       <c r="AB464" t="s" s="2">
         <v>78</v>
@@ -55121,7 +55375,7 @@
         <v>78</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1174</v>
+        <v>117</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>76</v>
@@ -55138,24 +55392,24 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1179</v>
+        <v>1022</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1179</v>
+        <v>1022</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H465" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I465" t="s" s="2">
         <v>78</v>
@@ -55167,15 +55421,17 @@
         <v>78</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1180</v>
+        <v>121</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1181</v>
-      </c>
-      <c r="O465" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O465" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P465" s="2"/>
       <c r="Q465" t="s" s="2">
         <v>78</v>
@@ -55200,13 +55456,13 @@
         <v>78</v>
       </c>
       <c r="Y465" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z465" t="s" s="2">
-        <v>1182</v>
+        <v>78</v>
       </c>
       <c r="AA465" t="s" s="2">
-        <v>1183</v>
+        <v>78</v>
       </c>
       <c r="AB465" t="s" s="2">
         <v>78</v>
@@ -55224,34 +55480,34 @@
         <v>78</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1179</v>
+        <v>124</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI465" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ465" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK465" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1184</v>
+        <v>1023</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1184</v>
+        <v>1023</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F466" s="2"/>
       <c r="G466" t="s" s="2">
@@ -55270,20 +55526,18 @@
         <v>78</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>1185</v>
+        <v>128</v>
       </c>
       <c r="N466" t="s" s="2">
-        <v>1186</v>
+        <v>129</v>
       </c>
       <c r="O466" t="s" s="2">
-        <v>1187</v>
-      </c>
-      <c r="P466" t="s" s="2">
-        <v>1188</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P466" s="2"/>
       <c r="Q466" t="s" s="2">
         <v>78</v>
       </c>
@@ -55307,13 +55561,13 @@
         <v>78</v>
       </c>
       <c r="Y466" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z466" t="s" s="2">
-        <v>1189</v>
+        <v>78</v>
       </c>
       <c r="AA466" t="s" s="2">
-        <v>1190</v>
+        <v>78</v>
       </c>
       <c r="AB466" t="s" s="2">
         <v>78</v>
@@ -55331,7 +55585,7 @@
         <v>78</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>1184</v>
+        <v>131</v>
       </c>
       <c r="AH466" t="s" s="2">
         <v>76</v>
@@ -55343,22 +55597,22 @@
         <v>78</v>
       </c>
       <c r="AK466" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1191</v>
+        <v>1027</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1191</v>
+        <v>1027</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" t="s" s="2">
@@ -55371,22 +55625,26 @@
         <v>78</v>
       </c>
       <c r="J467" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K467" t="s" s="2">
         <v>78</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>1192</v>
+        <v>134</v>
       </c>
       <c r="N467" t="s" s="2">
-        <v>1193</v>
-      </c>
-      <c r="O467" s="2"/>
-      <c r="P467" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O467" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P467" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q467" t="s" s="2">
         <v>78</v>
       </c>
@@ -55410,13 +55668,13 @@
         <v>78</v>
       </c>
       <c r="Y467" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z467" t="s" s="2">
-        <v>1194</v>
+        <v>78</v>
       </c>
       <c r="AA467" t="s" s="2">
-        <v>1195</v>
+        <v>78</v>
       </c>
       <c r="AB467" t="s" s="2">
         <v>78</v>
@@ -55434,7 +55692,7 @@
         <v>78</v>
       </c>
       <c r="AG467" t="s" s="2">
-        <v>1191</v>
+        <v>137</v>
       </c>
       <c r="AH467" t="s" s="2">
         <v>76</v>
@@ -55446,18 +55704,18 @@
         <v>78</v>
       </c>
       <c r="AK467" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -55477,16 +55735,16 @@
         <v>78</v>
       </c>
       <c r="K468" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>1197</v>
+        <v>1029</v>
       </c>
       <c r="N468" t="s" s="2">
-        <v>1198</v>
+        <v>1030</v>
       </c>
       <c r="O468" s="2"/>
       <c r="P468" s="2"/>
@@ -55513,13 +55771,13 @@
         <v>78</v>
       </c>
       <c r="Y468" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z468" t="s" s="2">
-        <v>1199</v>
+        <v>78</v>
       </c>
       <c r="AA468" t="s" s="2">
-        <v>1200</v>
+        <v>78</v>
       </c>
       <c r="AB468" t="s" s="2">
         <v>78</v>
@@ -55537,7 +55795,7 @@
         <v>78</v>
       </c>
       <c r="AG468" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="AH468" t="s" s="2">
         <v>76</v>
@@ -55554,13 +55812,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -55568,7 +55826,7 @@
       </c>
       <c r="F469" s="2"/>
       <c r="G469" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H469" t="s" s="2">
         <v>83</v>
@@ -55577,21 +55835,23 @@
         <v>78</v>
       </c>
       <c r="J469" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L469" t="s" s="2">
-        <v>1171</v>
+        <v>103</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1202</v>
+        <v>1032</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1203</v>
-      </c>
-      <c r="O469" s="2"/>
+        <v>1033</v>
+      </c>
+      <c r="O469" t="s" s="2">
+        <v>1034</v>
+      </c>
       <c r="P469" s="2"/>
       <c r="Q469" t="s" s="2">
         <v>78</v>
@@ -55616,13 +55876,13 @@
         <v>78</v>
       </c>
       <c r="Y469" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z469" t="s" s="2">
-        <v>78</v>
+        <v>1035</v>
       </c>
       <c r="AA469" t="s" s="2">
-        <v>78</v>
+        <v>1036</v>
       </c>
       <c r="AB469" t="s" s="2">
         <v>78</v>
@@ -55640,10 +55900,10 @@
         <v>78</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="AH469" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI469" t="s" s="2">
         <v>83</v>
@@ -55657,13 +55917,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -55674,7 +55934,7 @@
         <v>76</v>
       </c>
       <c r="H470" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I470" t="s" s="2">
         <v>78</v>
@@ -55686,15 +55946,17 @@
         <v>78</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1205</v>
+        <v>1038</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1206</v>
-      </c>
-      <c r="O470" s="2"/>
+        <v>1039</v>
+      </c>
+      <c r="O470" t="s" s="2">
+        <v>1040</v>
+      </c>
       <c r="P470" s="2"/>
       <c r="Q470" t="s" s="2">
         <v>78</v>
@@ -55719,13 +55981,13 @@
         <v>78</v>
       </c>
       <c r="Y470" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z470" t="s" s="2">
-        <v>1207</v>
+        <v>78</v>
       </c>
       <c r="AA470" t="s" s="2">
-        <v>1208</v>
+        <v>78</v>
       </c>
       <c r="AB470" t="s" s="2">
         <v>78</v>
@@ -55743,13 +56005,13 @@
         <v>78</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI470" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ470" t="s" s="2">
         <v>78</v>
@@ -55760,13 +56022,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1209</v>
+        <v>1041</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1209</v>
+        <v>1041</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -55777,7 +56039,7 @@
         <v>76</v>
       </c>
       <c r="H471" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I471" t="s" s="2">
         <v>78</v>
@@ -55789,17 +56051,15 @@
         <v>78</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1210</v>
+        <v>260</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1211</v>
-      </c>
-      <c r="O471" t="s" s="2">
-        <v>1212</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O471" s="2"/>
       <c r="P471" s="2"/>
       <c r="Q471" t="s" s="2">
         <v>78</v>
@@ -55848,41 +56108,41 @@
         <v>78</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1209</v>
+        <v>262</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI471" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ471" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1213</v>
+        <v>1042</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1213</v>
+        <v>1042</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F472" s="2"/>
       <c r="G472" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H472" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I472" t="s" s="2">
         <v>78</v>
@@ -55894,15 +56154,17 @@
         <v>78</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O472" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O472" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P472" s="2"/>
       <c r="Q472" t="s" s="2">
         <v>78</v>
@@ -55951,34 +56213,34 @@
         <v>78</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI472" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ472" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK472" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1214</v>
+        <v>1043</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1214</v>
+        <v>1043</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="F473" s="2"/>
       <c r="G473" t="s" s="2">
@@ -55991,24 +56253,26 @@
         <v>78</v>
       </c>
       <c r="J473" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K473" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L473" t="s" s="2">
         <v>127</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O473" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="P473" s="2"/>
+      <c r="P473" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q473" t="s" s="2">
         <v>78</v>
       </c>
@@ -56056,7 +56320,7 @@
         <v>78</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>76</v>
@@ -56073,49 +56337,45 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1215</v>
+        <v>1044</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1215</v>
+        <v>1044</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F474" s="2"/>
       <c r="G474" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H474" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I474" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J474" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K474" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L474" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>268</v>
+        <v>1032</v>
       </c>
       <c r="N474" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O474" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P474" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="O474" s="2"/>
+      <c r="P474" s="2"/>
       <c r="Q474" t="s" s="2">
         <v>78</v>
       </c>
@@ -56139,13 +56399,13 @@
         <v>78</v>
       </c>
       <c r="Y474" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z474" t="s" s="2">
-        <v>78</v>
+        <v>1035</v>
       </c>
       <c r="AA474" t="s" s="2">
-        <v>78</v>
+        <v>1036</v>
       </c>
       <c r="AB474" t="s" s="2">
         <v>78</v>
@@ -56163,30 +56423,30 @@
         <v>78</v>
       </c>
       <c r="AG474" t="s" s="2">
-        <v>270</v>
+        <v>1044</v>
       </c>
       <c r="AH474" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI474" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ474" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK474" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -56209,13 +56469,13 @@
         <v>78</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>369</v>
+        <v>211</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>1217</v>
+        <v>1046</v>
       </c>
       <c r="N475" t="s" s="2">
-        <v>1218</v>
+        <v>1047</v>
       </c>
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
@@ -56266,7 +56526,7 @@
         <v>78</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="AH475" t="s" s="2">
         <v>83</v>
@@ -56283,13 +56543,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -56297,7 +56557,7 @@
       </c>
       <c r="F476" s="2"/>
       <c r="G476" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H476" t="s" s="2">
         <v>83</v>
@@ -56309,20 +56569,18 @@
         <v>78</v>
       </c>
       <c r="K476" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>103</v>
+        <v>1049</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>1220</v>
+        <v>1050</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>1221</v>
-      </c>
-      <c r="O476" t="s" s="2">
-        <v>1222</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="O476" s="2"/>
       <c r="P476" s="2"/>
       <c r="Q476" t="s" s="2">
         <v>78</v>
@@ -56347,13 +56605,13 @@
         <v>78</v>
       </c>
       <c r="Y476" t="s" s="2">
-        <v>173</v>
+        <v>449</v>
       </c>
       <c r="Z476" t="s" s="2">
-        <v>1223</v>
+        <v>1052</v>
       </c>
       <c r="AA476" t="s" s="2">
-        <v>1224</v>
+        <v>1053</v>
       </c>
       <c r="AB476" t="s" s="2">
         <v>78</v>
@@ -56371,10 +56629,10 @@
         <v>78</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="AH476" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI476" t="s" s="2">
         <v>83</v>
@@ -56388,13 +56646,13 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -56405,7 +56663,7 @@
         <v>76</v>
       </c>
       <c r="H477" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I477" t="s" s="2">
         <v>78</v>
@@ -56417,17 +56675,15 @@
         <v>78</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>1226</v>
+        <v>1055</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>1227</v>
-      </c>
-      <c r="O477" t="s" s="2">
-        <v>1228</v>
-      </c>
+        <v>1056</v>
+      </c>
+      <c r="O477" s="2"/>
       <c r="P477" s="2"/>
       <c r="Q477" t="s" s="2">
         <v>78</v>
@@ -56452,13 +56708,13 @@
         <v>78</v>
       </c>
       <c r="Y477" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z477" t="s" s="2">
-        <v>1229</v>
+        <v>78</v>
       </c>
       <c r="AA477" t="s" s="2">
-        <v>1230</v>
+        <v>78</v>
       </c>
       <c r="AB477" t="s" s="2">
         <v>78</v>
@@ -56476,13 +56732,13 @@
         <v>78</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI477" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ477" t="s" s="2">
         <v>78</v>
@@ -56493,13 +56749,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1231</v>
+        <v>1057</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1231</v>
+        <v>1057</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -56522,13 +56778,13 @@
         <v>78</v>
       </c>
       <c r="L478" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="M478" t="s" s="2">
-        <v>1232</v>
+        <v>260</v>
       </c>
       <c r="N478" t="s" s="2">
-        <v>1233</v>
+        <v>261</v>
       </c>
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
@@ -56579,7 +56835,7 @@
         <v>78</v>
       </c>
       <c r="AG478" t="s" s="2">
-        <v>1231</v>
+        <v>262</v>
       </c>
       <c r="AH478" t="s" s="2">
         <v>76</v>
@@ -56591,29 +56847,29 @@
         <v>78</v>
       </c>
       <c r="AK478" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1234</v>
+        <v>1058</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1234</v>
+        <v>1058</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F479" s="2"/>
       <c r="G479" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H479" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I479" t="s" s="2">
         <v>78</v>
@@ -56625,15 +56881,17 @@
         <v>78</v>
       </c>
       <c r="L479" t="s" s="2">
-        <v>476</v>
+        <v>127</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>1235</v>
+        <v>128</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>1236</v>
-      </c>
-      <c r="O479" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O479" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P479" s="2"/>
       <c r="Q479" t="s" s="2">
         <v>78</v>
@@ -56682,64 +56940,66 @@
         <v>78</v>
       </c>
       <c r="AG479" t="s" s="2">
-        <v>1234</v>
+        <v>265</v>
       </c>
       <c r="AH479" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI479" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ479" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK479" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1237</v>
+        <v>1059</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1237</v>
+        <v>1059</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="F480" s="2"/>
       <c r="G480" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H480" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I480" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J480" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K480" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L480" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="M480" t="s" s="2">
-        <v>1238</v>
+        <v>268</v>
       </c>
       <c r="N480" t="s" s="2">
-        <v>1239</v>
+        <v>269</v>
       </c>
       <c r="O480" t="s" s="2">
-        <v>1240</v>
-      </c>
-      <c r="P480" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="P480" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q480" t="s" s="2">
         <v>78</v>
       </c>
@@ -56787,18 +57047,5327 @@
         <v>78</v>
       </c>
       <c r="AG480" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI480" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK480" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B481" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="C481" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="D481" s="2"/>
+      <c r="E481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F481" s="2"/>
+      <c r="G481" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H481" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L481" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="M481" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="N481" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="O481" s="2"/>
+      <c r="P481" s="2"/>
+      <c r="Q481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R481" s="2"/>
+      <c r="S481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y481" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z481" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AA481" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="AB481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG481" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="AH481" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI481" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK481" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B482" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="C482" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="D482" s="2"/>
+      <c r="E482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F482" s="2"/>
+      <c r="G482" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H482" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L482" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M482" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="N482" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="O482" s="2"/>
+      <c r="P482" s="2"/>
+      <c r="Q482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R482" s="2"/>
+      <c r="S482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG482" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="AH482" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI482" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK482" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B483" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="C483" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="D483" s="2"/>
+      <c r="E483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F483" s="2"/>
+      <c r="G483" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H483" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K483" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L483" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M483" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="N483" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="O483" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="P483" s="2"/>
+      <c r="Q483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R483" s="2"/>
+      <c r="S483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y483" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z483" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="AA483" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="AB483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG483" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="AH483" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI483" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK483" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B484" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="C484" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="D484" s="2"/>
+      <c r="E484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F484" s="2"/>
+      <c r="G484" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H484" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K484" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L484" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M484" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="N484" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="O484" s="2"/>
+      <c r="P484" s="2"/>
+      <c r="Q484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R484" s="2"/>
+      <c r="S484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y484" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z484" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="AA484" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="AB484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG484" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="AH484" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI484" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK484" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B485" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="C485" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="D485" s="2"/>
+      <c r="E485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F485" s="2"/>
+      <c r="G485" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H485" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L485" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M485" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="N485" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="O485" s="2"/>
+      <c r="P485" s="2"/>
+      <c r="Q485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R485" s="2"/>
+      <c r="S485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y485" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z485" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="AA485" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="AB485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG485" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="AH485" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI485" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK485" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B486" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="C486" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="D486" s="2"/>
+      <c r="E486" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="F486" s="2"/>
+      <c r="G486" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H486" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K486" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L486" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M486" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="N486" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="O486" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="P486" s="2"/>
+      <c r="Q486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R486" s="2"/>
+      <c r="S486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG486" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="AH486" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI486" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK486" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B487" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="C487" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="D487" s="2"/>
+      <c r="E487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F487" s="2"/>
+      <c r="G487" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H487" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K487" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L487" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="M487" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="N487" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="O487" s="2"/>
+      <c r="P487" s="2"/>
+      <c r="Q487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R487" s="2"/>
+      <c r="S487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG487" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="AH487" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI487" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK487" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B488" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="C488" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="D488" s="2"/>
+      <c r="E488" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="F488" s="2"/>
+      <c r="G488" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H488" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L488" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="M488" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="N488" t="s" s="2">
+        <v>1093</v>
+      </c>
+      <c r="O488" s="2"/>
+      <c r="P488" s="2"/>
+      <c r="Q488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R488" s="2"/>
+      <c r="S488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG488" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="AH488" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI488" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK488" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B489" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="C489" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="D489" s="2"/>
+      <c r="E489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F489" s="2"/>
+      <c r="G489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H489" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K489" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L489" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M489" t="s" s="2">
+        <v>1095</v>
+      </c>
+      <c r="N489" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="O489" s="2"/>
+      <c r="P489" s="2"/>
+      <c r="Q489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R489" s="2"/>
+      <c r="S489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG489" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="AH489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI489" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK489" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B490" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="C490" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="D490" s="2"/>
+      <c r="E490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F490" s="2"/>
+      <c r="G490" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H490" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L490" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M490" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N490" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O490" s="2"/>
+      <c r="P490" s="2"/>
+      <c r="Q490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R490" s="2"/>
+      <c r="S490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG490" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH490" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI490" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK490" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B491" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="C491" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="D491" s="2"/>
+      <c r="E491" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F491" s="2"/>
+      <c r="G491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H491" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L491" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M491" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N491" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O491" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P491" s="2"/>
+      <c r="Q491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R491" s="2"/>
+      <c r="S491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG491" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI491" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK491" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B492" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="C492" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="D492" s="2"/>
+      <c r="E492" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F492" s="2"/>
+      <c r="G492" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H492" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J492" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K492" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L492" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M492" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N492" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O492" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P492" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R492" s="2"/>
+      <c r="S492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG492" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH492" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI492" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK492" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B493" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C493" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D493" s="2"/>
+      <c r="E493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F493" s="2"/>
+      <c r="G493" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H493" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K493" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L493" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M493" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="N493" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="O493" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="P493" s="2"/>
+      <c r="Q493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R493" s="2"/>
+      <c r="S493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y493" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z493" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="AA493" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="AB493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG493" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="AH493" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI493" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK493" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B494" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C494" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="D494" s="2"/>
+      <c r="E494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F494" s="2"/>
+      <c r="G494" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H494" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L494" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M494" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="N494" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="O494" s="2"/>
+      <c r="P494" s="2"/>
+      <c r="Q494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R494" s="2"/>
+      <c r="S494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG494" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="AH494" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI494" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK494" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B495" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="C495" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="D495" s="2"/>
+      <c r="E495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F495" s="2"/>
+      <c r="G495" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H495" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K495" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L495" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="M495" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="N495" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="O495" s="2"/>
+      <c r="P495" s="2"/>
+      <c r="Q495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R495" s="2"/>
+      <c r="S495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG495" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="AH495" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI495" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK495" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B496" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="C496" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="D496" s="2"/>
+      <c r="E496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F496" s="2"/>
+      <c r="G496" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H496" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K496" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L496" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="M496" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="N496" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="O496" s="2"/>
+      <c r="P496" s="2"/>
+      <c r="Q496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R496" s="2"/>
+      <c r="S496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG496" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="AH496" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI496" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK496" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B497" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="C497" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="D497" s="2"/>
+      <c r="E497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F497" s="2"/>
+      <c r="G497" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H497" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L497" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M497" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="N497" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="O497" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="P497" s="2"/>
+      <c r="Q497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R497" s="2"/>
+      <c r="S497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG497" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="AH497" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI497" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK497" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B498" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="C498" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="D498" s="2"/>
+      <c r="E498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F498" s="2"/>
+      <c r="G498" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H498" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L498" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="M498" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="N498" t="s" s="2">
+        <v>1123</v>
+      </c>
+      <c r="O498" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="P498" s="2"/>
+      <c r="Q498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R498" s="2"/>
+      <c r="S498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG498" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AH498" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI498" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK498" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B499" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="C499" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="D499" s="2"/>
+      <c r="E499" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="F499" s="2"/>
+      <c r="G499" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H499" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K499" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L499" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M499" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="N499" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O499" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P499" s="2"/>
+      <c r="Q499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R499" s="2"/>
+      <c r="S499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y499" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z499" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="AA499" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="AB499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG499" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="AH499" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI499" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK499" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B500" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="C500" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="D500" s="2"/>
+      <c r="E500" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="F500" s="2"/>
+      <c r="G500" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H500" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K500" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L500" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="M500" t="s" s="2">
+        <v>1134</v>
+      </c>
+      <c r="N500" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O500" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P500" s="2"/>
+      <c r="Q500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R500" s="2"/>
+      <c r="S500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG500" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="AH500" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI500" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK500" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B501" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="C501" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="D501" s="2"/>
+      <c r="E501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F501" s="2"/>
+      <c r="G501" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H501" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K501" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L501" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M501" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="N501" t="s" s="2">
+        <v>1137</v>
+      </c>
+      <c r="O501" s="2"/>
+      <c r="P501" s="2"/>
+      <c r="Q501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R501" s="2"/>
+      <c r="S501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG501" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="AH501" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI501" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK501" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B502" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="C502" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="D502" s="2"/>
+      <c r="E502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F502" s="2"/>
+      <c r="G502" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H502" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L502" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M502" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N502" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O502" s="2"/>
+      <c r="P502" s="2"/>
+      <c r="Q502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R502" s="2"/>
+      <c r="S502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG502" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH502" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI502" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK502" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B503" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="C503" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="D503" s="2"/>
+      <c r="E503" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F503" s="2"/>
+      <c r="G503" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H503" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L503" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M503" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N503" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O503" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P503" s="2"/>
+      <c r="Q503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R503" s="2"/>
+      <c r="S503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG503" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH503" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI503" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK503" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B504" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="C504" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="D504" s="2"/>
+      <c r="E504" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F504" s="2"/>
+      <c r="G504" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H504" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J504" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K504" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L504" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M504" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N504" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O504" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P504" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R504" s="2"/>
+      <c r="S504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG504" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH504" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI504" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK504" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B505" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="C505" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="D505" s="2"/>
+      <c r="E505" t="s" s="2">
+        <v>1142</v>
+      </c>
+      <c r="F505" s="2"/>
+      <c r="G505" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H505" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K505" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L505" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="M505" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="N505" t="s" s="2">
+        <v>1145</v>
+      </c>
+      <c r="O505" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P505" s="2"/>
+      <c r="Q505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R505" s="2"/>
+      <c r="S505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG505" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="AH505" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI505" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK505" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B506" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="C506" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="D506" s="2"/>
+      <c r="E506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F506" s="2"/>
+      <c r="G506" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H506" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L506" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M506" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="N506" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="O506" s="2"/>
+      <c r="P506" s="2"/>
+      <c r="Q506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R506" s="2"/>
+      <c r="S506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y506" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z506" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="AA506" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="AB506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG506" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="AH506" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI506" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK506" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B507" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C507" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="D507" s="2"/>
+      <c r="E507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F507" s="2"/>
+      <c r="G507" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H507" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L507" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M507" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="N507" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="O507" s="2"/>
+      <c r="P507" s="2"/>
+      <c r="Q507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R507" s="2"/>
+      <c r="S507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG507" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="AH507" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI507" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK507" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B508" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="C508" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="D508" s="2"/>
+      <c r="E508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F508" s="2"/>
+      <c r="G508" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H508" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L508" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="M508" t="s" s="2">
+        <v>1157</v>
+      </c>
+      <c r="N508" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="O508" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="P508" s="2"/>
+      <c r="Q508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R508" s="2"/>
+      <c r="S508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG508" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="AH508" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI508" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK508" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B509" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="C509" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="D509" s="2"/>
+      <c r="E509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F509" s="2"/>
+      <c r="G509" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H509" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L509" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M509" t="s" s="2">
+        <v>1161</v>
+      </c>
+      <c r="N509" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="O509" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="P509" s="2"/>
+      <c r="Q509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R509" s="2"/>
+      <c r="S509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG509" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AH509" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI509" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK509" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B510" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="C510" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="D510" s="2"/>
+      <c r="E510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F510" s="2"/>
+      <c r="G510" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H510" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L510" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M510" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N510" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O510" s="2"/>
+      <c r="P510" s="2"/>
+      <c r="Q510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R510" s="2"/>
+      <c r="S510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG510" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH510" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI510" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK510" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B511" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="C511" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="D511" s="2"/>
+      <c r="E511" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F511" s="2"/>
+      <c r="G511" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H511" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L511" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M511" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N511" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O511" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P511" s="2"/>
+      <c r="Q511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R511" s="2"/>
+      <c r="S511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG511" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH511" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI511" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK511" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B512" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="C512" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="D512" s="2"/>
+      <c r="E512" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F512" s="2"/>
+      <c r="G512" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H512" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J512" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K512" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L512" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M512" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N512" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O512" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P512" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R512" s="2"/>
+      <c r="S512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG512" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH512" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI512" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK512" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B513" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="C513" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="D513" s="2"/>
+      <c r="E513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F513" s="2"/>
+      <c r="G513" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H513" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L513" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M513" t="s" s="2">
+        <v>1168</v>
+      </c>
+      <c r="N513" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="O513" s="2"/>
+      <c r="P513" s="2"/>
+      <c r="Q513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R513" s="2"/>
+      <c r="S513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG513" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="AH513" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI513" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK513" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B514" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="C514" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="D514" s="2"/>
+      <c r="E514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F514" s="2"/>
+      <c r="G514" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H514" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L514" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="M514" t="s" s="2">
+        <v>1172</v>
+      </c>
+      <c r="N514" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="O514" s="2"/>
+      <c r="P514" s="2"/>
+      <c r="Q514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R514" s="2"/>
+      <c r="S514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG514" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="AH514" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI514" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK514" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B515" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="C515" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="D515" s="2"/>
+      <c r="E515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F515" s="2"/>
+      <c r="G515" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H515" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L515" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M515" t="s" s="2">
+        <v>1175</v>
+      </c>
+      <c r="N515" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="O515" s="2"/>
+      <c r="P515" s="2"/>
+      <c r="Q515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R515" s="2"/>
+      <c r="S515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y515" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z515" t="s" s="2">
+        <v>1177</v>
+      </c>
+      <c r="AA515" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="AB515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG515" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="AH515" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI515" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK515" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B516" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="C516" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="D516" s="2"/>
+      <c r="E516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F516" s="2"/>
+      <c r="G516" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H516" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L516" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M516" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="N516" t="s" s="2">
+        <v>1181</v>
+      </c>
+      <c r="O516" s="2"/>
+      <c r="P516" s="2"/>
+      <c r="Q516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R516" s="2"/>
+      <c r="S516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y516" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z516" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="AA516" t="s" s="2">
+        <v>1183</v>
+      </c>
+      <c r="AB516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG516" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="AH516" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI516" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK516" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B517" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="C517" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="D517" s="2"/>
+      <c r="E517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F517" s="2"/>
+      <c r="G517" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H517" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L517" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M517" t="s" s="2">
+        <v>1185</v>
+      </c>
+      <c r="N517" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="O517" t="s" s="2">
+        <v>1187</v>
+      </c>
+      <c r="P517" t="s" s="2">
+        <v>1188</v>
+      </c>
+      <c r="Q517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R517" s="2"/>
+      <c r="S517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y517" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z517" t="s" s="2">
+        <v>1189</v>
+      </c>
+      <c r="AA517" t="s" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AB517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG517" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="AH517" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI517" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK517" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B518" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="C518" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="D518" s="2"/>
+      <c r="E518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F518" s="2"/>
+      <c r="G518" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H518" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L518" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M518" t="s" s="2">
+        <v>1192</v>
+      </c>
+      <c r="N518" t="s" s="2">
+        <v>1193</v>
+      </c>
+      <c r="O518" s="2"/>
+      <c r="P518" s="2"/>
+      <c r="Q518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R518" s="2"/>
+      <c r="S518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y518" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z518" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="AA518" t="s" s="2">
+        <v>1195</v>
+      </c>
+      <c r="AB518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG518" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="AH518" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI518" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK518" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B519" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="C519" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="D519" s="2"/>
+      <c r="E519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F519" s="2"/>
+      <c r="G519" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H519" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L519" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M519" t="s" s="2">
+        <v>1197</v>
+      </c>
+      <c r="N519" t="s" s="2">
+        <v>1198</v>
+      </c>
+      <c r="O519" s="2"/>
+      <c r="P519" s="2"/>
+      <c r="Q519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R519" s="2"/>
+      <c r="S519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y519" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z519" t="s" s="2">
+        <v>1199</v>
+      </c>
+      <c r="AA519" t="s" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AB519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG519" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="AH519" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI519" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK519" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B520" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="C520" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D520" s="2"/>
+      <c r="E520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F520" s="2"/>
+      <c r="G520" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H520" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L520" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="M520" t="s" s="2">
+        <v>1202</v>
+      </c>
+      <c r="N520" t="s" s="2">
+        <v>1203</v>
+      </c>
+      <c r="O520" s="2"/>
+      <c r="P520" s="2"/>
+      <c r="Q520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R520" s="2"/>
+      <c r="S520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG520" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="AH520" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI520" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK520" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B521" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="C521" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D521" s="2"/>
+      <c r="E521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F521" s="2"/>
+      <c r="G521" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H521" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L521" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M521" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="N521" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="O521" s="2"/>
+      <c r="P521" s="2"/>
+      <c r="Q521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R521" s="2"/>
+      <c r="S521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y521" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z521" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="AA521" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="AB521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG521" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="AH521" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI521" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK521" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B522" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="C522" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="D522" s="2"/>
+      <c r="E522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F522" s="2"/>
+      <c r="G522" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H522" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L522" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M522" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="N522" t="s" s="2">
+        <v>1211</v>
+      </c>
+      <c r="O522" t="s" s="2">
+        <v>1212</v>
+      </c>
+      <c r="P522" s="2"/>
+      <c r="Q522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R522" s="2"/>
+      <c r="S522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG522" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="AH522" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI522" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK522" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B523" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="C523" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="D523" s="2"/>
+      <c r="E523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F523" s="2"/>
+      <c r="G523" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H523" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L523" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M523" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N523" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O523" s="2"/>
+      <c r="P523" s="2"/>
+      <c r="Q523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R523" s="2"/>
+      <c r="S523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG523" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH523" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI523" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK523" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B524" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="C524" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="D524" s="2"/>
+      <c r="E524" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F524" s="2"/>
+      <c r="G524" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H524" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L524" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M524" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N524" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O524" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P524" s="2"/>
+      <c r="Q524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R524" s="2"/>
+      <c r="S524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG524" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH524" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI524" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK524" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B525" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="C525" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="D525" s="2"/>
+      <c r="E525" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F525" s="2"/>
+      <c r="G525" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H525" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J525" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K525" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L525" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M525" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N525" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O525" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P525" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R525" s="2"/>
+      <c r="S525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG525" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH525" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI525" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK525" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B526" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="C526" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="D526" s="2"/>
+      <c r="E526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F526" s="2"/>
+      <c r="G526" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H526" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L526" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M526" t="s" s="2">
+        <v>1217</v>
+      </c>
+      <c r="N526" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="O526" s="2"/>
+      <c r="P526" s="2"/>
+      <c r="Q526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R526" s="2"/>
+      <c r="S526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG526" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="AH526" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI526" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK526" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B527" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="C527" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="D527" s="2"/>
+      <c r="E527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F527" s="2"/>
+      <c r="G527" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H527" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L527" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M527" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="N527" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="O527" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="P527" s="2"/>
+      <c r="Q527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R527" s="2"/>
+      <c r="S527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y527" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z527" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AA527" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="AB527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG527" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="AH527" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI527" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK527" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B528" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="C528" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="D528" s="2"/>
+      <c r="E528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F528" s="2"/>
+      <c r="G528" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H528" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L528" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M528" t="s" s="2">
+        <v>1226</v>
+      </c>
+      <c r="N528" t="s" s="2">
+        <v>1227</v>
+      </c>
+      <c r="O528" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="P528" s="2"/>
+      <c r="Q528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R528" s="2"/>
+      <c r="S528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y528" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z528" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="AA528" t="s" s="2">
+        <v>1230</v>
+      </c>
+      <c r="AB528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG528" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="AH528" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI528" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK528" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B529" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="C529" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="D529" s="2"/>
+      <c r="E529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F529" s="2"/>
+      <c r="G529" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H529" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L529" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M529" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="N529" t="s" s="2">
+        <v>1233</v>
+      </c>
+      <c r="O529" s="2"/>
+      <c r="P529" s="2"/>
+      <c r="Q529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R529" s="2"/>
+      <c r="S529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG529" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="AH529" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI529" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK529" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B530" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C530" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D530" s="2"/>
+      <c r="E530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F530" s="2"/>
+      <c r="G530" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H530" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L530" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M530" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="N530" t="s" s="2">
+        <v>1236</v>
+      </c>
+      <c r="O530" s="2"/>
+      <c r="P530" s="2"/>
+      <c r="Q530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R530" s="2"/>
+      <c r="S530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG530" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="AH530" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI530" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK530" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B531" t="s" s="2">
         <v>1237</v>
       </c>
-      <c r="AH480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI480" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK480" t="s" s="2">
+      <c r="C531" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="D531" s="2"/>
+      <c r="E531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F531" s="2"/>
+      <c r="G531" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H531" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L531" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M531" t="s" s="2">
+        <v>1238</v>
+      </c>
+      <c r="N531" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="O531" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="P531" s="2"/>
+      <c r="Q531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R531" s="2"/>
+      <c r="S531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG531" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="AH531" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI531" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK531" t="s" s="2">
         <v>95</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:44:02+00:00</t>
+    <t>2023-02-13T07:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:45:28+00:00</t>
+    <t>2023-02-13T07:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T10:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-13T10:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:45:36+00:00</t>
+    <t>2023-02-13T11:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13161,7 +13161,7 @@
         <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -17975,7 +17975,7 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:15:25+00:00</t>
+    <t>2023-02-13T11:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:16:11+00:00</t>
+    <t>2023-02-13T11:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13161,7 +13161,7 @@
         <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -17975,7 +17975,7 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:45:47+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13161,7 +13161,7 @@
         <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -17975,7 +17975,7 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13624,7 +13624,7 @@
         <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -18438,7 +18438,7 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:47:57+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:02:26+00:00</t>
+    <t>2023-02-13T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:03:14+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:15:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:15:01+00:00</t>
+    <t>2023-02-13T15:15:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:15:32+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -28418,10 +28418,10 @@
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>78</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T07:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:43:04+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-14T12:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:23+00:00</t>
+    <t>2023-02-14T14:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:15:08+00:00</t>
+    <t>2023-02-15T07:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3486,7 +3486,7 @@
     <t>VL Procedure info</t>
   </si>
   <si>
-    <t>This profile is for recording the Reason for Viral Load</t>
+    <t>This profile is for recording the Reason for Viral Load testing.</t>
   </si>
   <si>
     <t>Procedure</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:08:17+00:00</t>
+    <t>2023-02-15T07:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:18:52+00:00</t>
+    <t>2023-02-15T09:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
